--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_24_17.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_24_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1421606.484771972</v>
+        <v>-1422233.527194898</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736558</v>
+        <v>504792.0292736556</v>
       </c>
     </row>
     <row r="9">
@@ -1370,22 +1370,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>146.4499769106677</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>146.4499769106677</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>146.4499769106677</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>146.4499769106677</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5829390575861</v>
+        <v>108.582939057586</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1421,10 +1421,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>4.260172663732959</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>36.72024109999234</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1433,10 +1433,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>20.41020060532986</v>
+        <v>125.8797637522726</v>
       </c>
       <c r="Y11" t="n">
-        <v>146.4499769106677</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1503,13 +1503,13 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0.7169426335316197</v>
+        <v>0.7169426335315344</v>
       </c>
       <c r="V12" t="n">
-        <v>10.53710347578308</v>
+        <v>10.537103475783</v>
       </c>
       <c r="W12" t="n">
-        <v>23.32814722865677</v>
+        <v>23.32814722865669</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1579,22 +1579,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>14.27407766563964</v>
+        <v>14.27407766563955</v>
       </c>
       <c r="U13" t="n">
-        <v>68.73102716155498</v>
+        <v>68.73102716155489</v>
       </c>
       <c r="V13" t="n">
-        <v>42.55338854679533</v>
+        <v>42.55338854679525</v>
       </c>
       <c r="W13" t="n">
-        <v>67.72027461740859</v>
+        <v>67.72027461740851</v>
       </c>
       <c r="X13" t="n">
-        <v>13.36537661321171</v>
+        <v>13.36537661321162</v>
       </c>
       <c r="Y13" t="n">
-        <v>4.240244369279395</v>
+        <v>4.24024436927931</v>
       </c>
     </row>
     <row r="14">
@@ -1616,13 +1616,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>130.1399364160045</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>146.4499769106677</v>
       </c>
       <c r="H14" t="n">
-        <v>14.0731800703234</v>
+        <v>108.582939057586</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1661,16 +1661,16 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>36.72024109999234</v>
       </c>
       <c r="V14" t="n">
-        <v>118.0349185126517</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>143.3350179906086</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>146.4499769106677</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1856,7 +1856,7 @@
         <v>85.85217687497902</v>
       </c>
       <c r="G17" t="n">
-        <v>87.26445761256154</v>
+        <v>87.26445761256156</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1901,7 +1901,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>9.451979455065375</v>
+        <v>9.451979455065725</v>
       </c>
       <c r="W17" t="n">
         <v>34.75207893302263</v>
@@ -2138,7 +2138,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>9.451979455065725</v>
+        <v>9.45197945506605</v>
       </c>
       <c r="W20" t="n">
         <v>34.75207893302263</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>216.6184134117434</v>
+        <v>216.6184134117433</v>
       </c>
       <c r="C26" t="n">
         <v>204.6297303694251</v>
@@ -2570,7 +2570,7 @@
         <v>237.9372688094183</v>
       </c>
       <c r="H26" t="n">
-        <v>150.6728111968568</v>
+        <v>150.6728111968567</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2606,10 +2606,10 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>46.35004480300377</v>
+        <v>46.35004480300373</v>
       </c>
       <c r="U26" t="n">
-        <v>78.81011323926313</v>
+        <v>78.8101132392631</v>
       </c>
       <c r="V26" t="n">
         <v>160.1247906519225</v>
@@ -2621,7 +2621,7 @@
         <v>204.725148362626</v>
       </c>
       <c r="Y26" t="n">
-        <v>216.1217461588248</v>
+        <v>216.1217461588247</v>
       </c>
     </row>
     <row r="27">
@@ -2685,22 +2685,22 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>12.18999306596234</v>
+        <v>12.1899930659623</v>
       </c>
       <c r="U27" t="n">
-        <v>42.80681477280233</v>
+        <v>42.8068147728023</v>
       </c>
       <c r="V27" t="n">
-        <v>52.62697561505379</v>
+        <v>52.62697561505377</v>
       </c>
       <c r="W27" t="n">
-        <v>65.41801936792749</v>
+        <v>65.41801936792746</v>
       </c>
       <c r="X27" t="n">
-        <v>22.45312752988778</v>
+        <v>22.45312752988775</v>
       </c>
       <c r="Y27" t="n">
-        <v>17.11142237582138</v>
+        <v>17.11142237582135</v>
       </c>
     </row>
     <row r="28">
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>8.235124286440453</v>
+        <v>8.235124286440424</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>34.01527457283483</v>
+        <v>34.01527457283477</v>
       </c>
       <c r="T28" t="n">
-        <v>56.36394980491035</v>
+        <v>56.36394980491031</v>
       </c>
       <c r="U28" t="n">
         <v>110.8208993008257</v>
       </c>
       <c r="V28" t="n">
-        <v>84.64326068606604</v>
+        <v>84.64326068606601</v>
       </c>
       <c r="W28" t="n">
         <v>109.8101467566793</v>
       </c>
       <c r="X28" t="n">
-        <v>55.45524875248242</v>
+        <v>55.45524875248239</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.33011650855011</v>
+        <v>46.33011650855008</v>
       </c>
     </row>
     <row r="29">
@@ -2792,19 +2792,19 @@
         <v>216.6184134117433</v>
       </c>
       <c r="C29" t="n">
-        <v>204.629730369425</v>
+        <v>204.6297303694251</v>
       </c>
       <c r="D29" t="n">
-        <v>195.611034413953</v>
+        <v>195.6110344139531</v>
       </c>
       <c r="E29" t="n">
-        <v>217.3531719838585</v>
+        <v>217.3531719838586</v>
       </c>
       <c r="F29" t="n">
-        <v>236.5249880718357</v>
+        <v>236.5249880718358</v>
       </c>
       <c r="G29" t="n">
-        <v>237.9372688094182</v>
+        <v>237.9372688094183</v>
       </c>
       <c r="H29" t="n">
         <v>150.6728111968567</v>
@@ -2843,19 +2843,19 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>46.35004480300368</v>
+        <v>46.35004480300373</v>
       </c>
       <c r="U29" t="n">
-        <v>78.81011323926305</v>
+        <v>78.8101132392631</v>
       </c>
       <c r="V29" t="n">
-        <v>160.1247906519224</v>
+        <v>160.1247906519225</v>
       </c>
       <c r="W29" t="n">
-        <v>185.4248901298793</v>
+        <v>185.4248901298794</v>
       </c>
       <c r="X29" t="n">
-        <v>204.7251483626259</v>
+        <v>204.725148362626</v>
       </c>
       <c r="Y29" t="n">
         <v>216.1217461588247</v>
@@ -2922,22 +2922,22 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>12.18999306596226</v>
+        <v>12.1899930659623</v>
       </c>
       <c r="U30" t="n">
-        <v>42.80681477280225</v>
+        <v>42.8068147728023</v>
       </c>
       <c r="V30" t="n">
-        <v>52.62697561505371</v>
+        <v>52.62697561505377</v>
       </c>
       <c r="W30" t="n">
-        <v>65.4180193679274</v>
+        <v>65.41801936792746</v>
       </c>
       <c r="X30" t="n">
-        <v>22.45312752988769</v>
+        <v>22.45312752988775</v>
       </c>
       <c r="Y30" t="n">
-        <v>17.11142237582129</v>
+        <v>17.11142237582135</v>
       </c>
     </row>
     <row r="31">
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>8.235124286440367</v>
+        <v>8.235124286440424</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>34.01527457283475</v>
+        <v>34.01527457283477</v>
       </c>
       <c r="T31" t="n">
-        <v>56.36394980491026</v>
+        <v>56.36394980491031</v>
       </c>
       <c r="U31" t="n">
-        <v>110.8208993008256</v>
+        <v>110.8208993008257</v>
       </c>
       <c r="V31" t="n">
-        <v>84.64326068606596</v>
+        <v>84.64326068606601</v>
       </c>
       <c r="W31" t="n">
-        <v>109.8101467566792</v>
+        <v>109.8101467566793</v>
       </c>
       <c r="X31" t="n">
-        <v>55.45524875248233</v>
+        <v>55.45524875248239</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.33011650855002</v>
+        <v>46.33011650855008</v>
       </c>
     </row>
     <row r="32">
@@ -3026,19 +3026,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>216.6184134117434</v>
+        <v>216.6184134117435</v>
       </c>
       <c r="C32" t="n">
-        <v>204.6297303694251</v>
+        <v>204.6297303694252</v>
       </c>
       <c r="D32" t="n">
-        <v>195.6110344139531</v>
+        <v>195.6110344139532</v>
       </c>
       <c r="E32" t="n">
         <v>217.3531719838587</v>
       </c>
       <c r="F32" t="n">
-        <v>236.5249880718358</v>
+        <v>236.5249880718359</v>
       </c>
       <c r="G32" t="n">
         <v>237.9372688094184</v>
@@ -3080,22 +3080,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>46.35004480300378</v>
+        <v>46.35004480300384</v>
       </c>
       <c r="U32" t="n">
-        <v>78.81011323926316</v>
+        <v>78.81011323926322</v>
       </c>
       <c r="V32" t="n">
-        <v>160.1247906519225</v>
+        <v>160.1247906519226</v>
       </c>
       <c r="W32" t="n">
-        <v>185.4248901298794</v>
+        <v>185.4248901298795</v>
       </c>
       <c r="X32" t="n">
-        <v>204.725148362626</v>
+        <v>204.7251483626261</v>
       </c>
       <c r="Y32" t="n">
-        <v>216.1217461588248</v>
+        <v>216.1217461588249</v>
       </c>
     </row>
     <row r="33">
@@ -3159,22 +3159,22 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>12.18999306596237</v>
+        <v>12.18999306596242</v>
       </c>
       <c r="U33" t="n">
-        <v>42.80681477280236</v>
+        <v>42.80681477280241</v>
       </c>
       <c r="V33" t="n">
-        <v>52.62697561505382</v>
+        <v>52.62697561505388</v>
       </c>
       <c r="W33" t="n">
-        <v>65.41801936792751</v>
+        <v>65.41801936792757</v>
       </c>
       <c r="X33" t="n">
-        <v>22.45312752988781</v>
+        <v>22.45312752988787</v>
       </c>
       <c r="Y33" t="n">
-        <v>17.11142237582141</v>
+        <v>17.11142237582146</v>
       </c>
     </row>
     <row r="34">
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>8.235124286440481</v>
+        <v>8.235124286440538</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>34.01527457283486</v>
+        <v>34.01527457283488</v>
       </c>
       <c r="T34" t="n">
-        <v>56.36394980491038</v>
+        <v>56.36394980491043</v>
       </c>
       <c r="U34" t="n">
-        <v>110.8208993008257</v>
+        <v>110.8208993008258</v>
       </c>
       <c r="V34" t="n">
-        <v>84.64326068606607</v>
+        <v>84.64326068606613</v>
       </c>
       <c r="W34" t="n">
-        <v>109.8101467566793</v>
+        <v>109.8101467566794</v>
       </c>
       <c r="X34" t="n">
-        <v>55.45524875248245</v>
+        <v>55.4552487524825</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.33011650855013</v>
+        <v>46.33011650855019</v>
       </c>
     </row>
     <row r="35">
@@ -3281,7 +3281,7 @@
         <v>194.2185710867323</v>
       </c>
       <c r="H35" t="n">
-        <v>106.9541134741708</v>
+        <v>106.9541134741707</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3475,7 +3475,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>12.6452520822243</v>
+        <v>12.64525208222429</v>
       </c>
       <c r="U37" t="n">
         <v>67.10220157813964</v>
@@ -3518,7 +3518,7 @@
         <v>194.2185710867322</v>
       </c>
       <c r="H38" t="n">
-        <v>106.9541134741707</v>
+        <v>106.9541134741706</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3712,7 +3712,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>12.64525208222422</v>
+        <v>12.64525208222421</v>
       </c>
       <c r="U40" t="n">
         <v>67.10220157813956</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>172.8997156890573</v>
+        <v>172.8997156890572</v>
       </c>
       <c r="C41" t="n">
         <v>160.911032646739</v>
@@ -3755,7 +3755,7 @@
         <v>194.2185710867322</v>
       </c>
       <c r="H41" t="n">
-        <v>106.9541134741707</v>
+        <v>106.9541134741706</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3791,10 +3791,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>2.631347080317666</v>
+        <v>2.631347080317624</v>
       </c>
       <c r="U41" t="n">
-        <v>35.09141551657702</v>
+        <v>35.091415516577</v>
       </c>
       <c r="V41" t="n">
         <v>116.4060929292364</v>
@@ -3806,7 +3806,7 @@
         <v>161.0064506399399</v>
       </c>
       <c r="Y41" t="n">
-        <v>172.4030484361387</v>
+        <v>172.4030484361386</v>
       </c>
     </row>
     <row r="42">
@@ -3876,10 +3876,10 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>8.908277892367693</v>
+        <v>8.908277892367664</v>
       </c>
       <c r="W42" t="n">
-        <v>21.69932164524138</v>
+        <v>21.69932164524135</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3949,22 +3949,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>12.64525208222424</v>
+        <v>12.64525208222421</v>
       </c>
       <c r="U43" t="n">
-        <v>67.10220157813959</v>
+        <v>67.10220157813956</v>
       </c>
       <c r="V43" t="n">
-        <v>40.92456296337994</v>
+        <v>40.92456296337991</v>
       </c>
       <c r="W43" t="n">
-        <v>66.0914490339932</v>
+        <v>66.09144903399317</v>
       </c>
       <c r="X43" t="n">
-        <v>11.73655102979632</v>
+        <v>11.73655102979629</v>
       </c>
       <c r="Y43" t="n">
-        <v>2.611418785864004</v>
+        <v>2.611418785863975</v>
       </c>
     </row>
     <row r="44">
@@ -3992,7 +3992,7 @@
         <v>194.2185710867323</v>
       </c>
       <c r="H44" t="n">
-        <v>106.9541134741708</v>
+        <v>106.9541134741707</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4028,7 +4028,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>2.631347080317723</v>
+        <v>2.631347080317703</v>
       </c>
       <c r="U44" t="n">
         <v>35.09141551657708</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>12.6452520822243</v>
+        <v>12.64525208222429</v>
       </c>
       <c r="U46" t="n">
         <v>67.10220157813964</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>417.2542737881278</v>
+        <v>417.2542737881276</v>
       </c>
       <c r="C11" t="n">
-        <v>417.2542737881278</v>
+        <v>269.3250041813926</v>
       </c>
       <c r="D11" t="n">
-        <v>417.2542737881278</v>
+        <v>121.3957345746575</v>
       </c>
       <c r="E11" t="n">
-        <v>417.2542737881278</v>
+        <v>121.3957345746575</v>
       </c>
       <c r="F11" t="n">
-        <v>269.3250041813927</v>
+        <v>121.3957345746575</v>
       </c>
       <c r="G11" t="n">
-        <v>121.3957345746576</v>
+        <v>121.3957345746575</v>
       </c>
       <c r="H11" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="I11" t="n">
-        <v>75.64118274439129</v>
+        <v>75.64118274439144</v>
       </c>
       <c r="J11" t="n">
-        <v>187.2071531304961</v>
+        <v>75.64118274439144</v>
       </c>
       <c r="K11" t="n">
-        <v>264.9666122731309</v>
+        <v>177.6340312611105</v>
       </c>
       <c r="L11" t="n">
-        <v>370.1343438676963</v>
+        <v>282.8017628556763</v>
       </c>
       <c r="M11" t="n">
-        <v>370.1343438676963</v>
+        <v>401.5018074893046</v>
       </c>
       <c r="N11" t="n">
-        <v>370.1343438676963</v>
+        <v>401.5018074893046</v>
       </c>
       <c r="O11" t="n">
-        <v>370.1343438676963</v>
+        <v>401.5018074893046</v>
       </c>
       <c r="P11" t="n">
-        <v>471.7245388996663</v>
+        <v>401.5018074893046</v>
       </c>
       <c r="Q11" t="n">
-        <v>471.7245388996663</v>
+        <v>491.8016300540072</v>
       </c>
       <c r="R11" t="n">
-        <v>544.1309342247928</v>
+        <v>544.1309342247929</v>
       </c>
       <c r="S11" t="n">
-        <v>585.7999076426707</v>
+        <v>585.799907642671</v>
       </c>
       <c r="T11" t="n">
-        <v>585.7999076426707</v>
+        <v>581.4967029318296</v>
       </c>
       <c r="U11" t="n">
-        <v>585.7999076426707</v>
+        <v>544.4055503055747</v>
       </c>
       <c r="V11" t="n">
-        <v>585.7999076426707</v>
+        <v>544.4055503055747</v>
       </c>
       <c r="W11" t="n">
-        <v>585.7999076426707</v>
+        <v>544.4055503055747</v>
       </c>
       <c r="X11" t="n">
-        <v>565.1835433948628</v>
+        <v>417.2542737881276</v>
       </c>
       <c r="Y11" t="n">
-        <v>417.2542737881278</v>
+        <v>417.2542737881276</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="C12" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="D12" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="E12" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="F12" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="G12" t="n">
-        <v>46.64750657504683</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="H12" t="n">
-        <v>46.64750657504683</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="I12" t="n">
-        <v>46.64750657504683</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="J12" t="n">
-        <v>46.64750657504683</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="K12" t="n">
-        <v>46.64750657504683</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="L12" t="n">
-        <v>46.64750657504683</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="M12" t="n">
-        <v>46.64750657504683</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="N12" t="n">
-        <v>46.64750657504683</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="O12" t="n">
-        <v>46.64750657504683</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="P12" t="n">
-        <v>46.64750657504683</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="Q12" t="n">
-        <v>46.64750657504683</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="R12" t="n">
-        <v>46.64750657504683</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="S12" t="n">
-        <v>46.64750657504683</v>
+        <v>46.64750657504658</v>
       </c>
       <c r="T12" t="n">
-        <v>46.64750657504683</v>
+        <v>46.64750657504658</v>
       </c>
       <c r="U12" t="n">
-        <v>45.92332209673206</v>
+        <v>45.92332209673189</v>
       </c>
       <c r="V12" t="n">
-        <v>35.2797832323047</v>
+        <v>35.27978323230462</v>
       </c>
       <c r="W12" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="X12" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="Y12" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="C13" t="n">
-        <v>58.89420363020889</v>
+        <v>58.89420363020898</v>
       </c>
       <c r="D13" t="n">
-        <v>122.2872583539618</v>
+        <v>58.89420363020898</v>
       </c>
       <c r="E13" t="n">
-        <v>139.4613775961769</v>
+        <v>58.89420363020898</v>
       </c>
       <c r="F13" t="n">
-        <v>139.4613775961769</v>
+        <v>58.89420363020898</v>
       </c>
       <c r="G13" t="n">
-        <v>139.4613775961769</v>
+        <v>58.89420363020898</v>
       </c>
       <c r="H13" t="n">
-        <v>139.4613775961769</v>
+        <v>118.1688914227166</v>
       </c>
       <c r="I13" t="n">
-        <v>139.4613775961769</v>
+        <v>118.1688914227166</v>
       </c>
       <c r="J13" t="n">
-        <v>139.4613775961769</v>
+        <v>118.1688914227166</v>
       </c>
       <c r="K13" t="n">
-        <v>139.4613775961769</v>
+        <v>118.1688914227166</v>
       </c>
       <c r="L13" t="n">
-        <v>139.4613775961769</v>
+        <v>118.1688914227166</v>
       </c>
       <c r="M13" t="n">
-        <v>139.4613775961769</v>
+        <v>118.1688914227166</v>
       </c>
       <c r="N13" t="n">
-        <v>139.4613775961769</v>
+        <v>118.1688914227166</v>
       </c>
       <c r="O13" t="n">
-        <v>139.4613775961769</v>
+        <v>118.1688914227166</v>
       </c>
       <c r="P13" t="n">
-        <v>139.4613775961769</v>
+        <v>224.7305324699132</v>
       </c>
       <c r="Q13" t="n">
-        <v>139.4613775961769</v>
+        <v>224.7305324699132</v>
       </c>
       <c r="R13" t="n">
-        <v>216.7366808791421</v>
+        <v>224.7305324699132</v>
       </c>
       <c r="S13" t="n">
-        <v>224.7305324699137</v>
+        <v>224.7305324699132</v>
       </c>
       <c r="T13" t="n">
-        <v>210.3122722015908</v>
+        <v>210.3122722015904</v>
       </c>
       <c r="U13" t="n">
-        <v>140.8869922404241</v>
+        <v>140.8869922404238</v>
       </c>
       <c r="V13" t="n">
-        <v>97.90377148608543</v>
+        <v>97.90377148608519</v>
       </c>
       <c r="W13" t="n">
-        <v>29.49945369072321</v>
+        <v>29.49945369072305</v>
       </c>
       <c r="X13" t="n">
-        <v>15.99907327333765</v>
+        <v>15.99907327333757</v>
       </c>
       <c r="Y13" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>173.8606011639557</v>
+        <v>548.7087550164151</v>
       </c>
       <c r="C14" t="n">
-        <v>173.8606011639557</v>
+        <v>548.7087550164151</v>
       </c>
       <c r="D14" t="n">
-        <v>25.93133155722049</v>
+        <v>400.77948540968</v>
       </c>
       <c r="E14" t="n">
-        <v>25.93133155722049</v>
+        <v>400.77948540968</v>
       </c>
       <c r="F14" t="n">
-        <v>25.93133155722049</v>
+        <v>269.3250041813926</v>
       </c>
       <c r="G14" t="n">
-        <v>25.93133155722049</v>
+        <v>121.3957345746576</v>
       </c>
       <c r="H14" t="n">
         <v>11.71599815285342</v>
       </c>
       <c r="I14" t="n">
-        <v>75.64118274439137</v>
+        <v>75.64118274439144</v>
       </c>
       <c r="J14" t="n">
-        <v>187.2071531304963</v>
+        <v>75.64118274439144</v>
       </c>
       <c r="K14" t="n">
-        <v>289.2000016472151</v>
+        <v>75.64118274439144</v>
       </c>
       <c r="L14" t="n">
-        <v>289.2000016472151</v>
+        <v>75.64118274439144</v>
       </c>
       <c r="M14" t="n">
-        <v>289.2000016472151</v>
+        <v>164.5982823192326</v>
       </c>
       <c r="N14" t="n">
-        <v>289.2000016472151</v>
+        <v>164.5982823192326</v>
       </c>
       <c r="O14" t="n">
-        <v>404.4362406309754</v>
+        <v>279.8345213029932</v>
       </c>
       <c r="P14" t="n">
-        <v>404.4362406309754</v>
+        <v>381.4247163349636</v>
       </c>
       <c r="Q14" t="n">
-        <v>494.7360631956778</v>
+        <v>471.7245388996662</v>
       </c>
       <c r="R14" t="n">
-        <v>567.1424585208044</v>
+        <v>544.1309342247929</v>
       </c>
       <c r="S14" t="n">
-        <v>585.7999076426709</v>
+        <v>585.799907642671</v>
       </c>
       <c r="T14" t="n">
-        <v>585.7999076426709</v>
+        <v>585.799907642671</v>
       </c>
       <c r="U14" t="n">
-        <v>585.7999076426709</v>
+        <v>548.7087550164151</v>
       </c>
       <c r="V14" t="n">
-        <v>466.572717225851</v>
+        <v>548.7087550164151</v>
       </c>
       <c r="W14" t="n">
-        <v>321.7898707706908</v>
+        <v>548.7087550164151</v>
       </c>
       <c r="X14" t="n">
-        <v>173.8606011639557</v>
+        <v>548.7087550164151</v>
       </c>
       <c r="Y14" t="n">
-        <v>173.8606011639557</v>
+        <v>548.7087550164151</v>
       </c>
     </row>
     <row r="15">
@@ -5331,58 +5331,58 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>11.71599815285342</v>
+        <v>17.0466262924712</v>
       </c>
       <c r="C15" t="n">
-        <v>11.71599815285342</v>
+        <v>17.0466262924712</v>
       </c>
       <c r="D15" t="n">
-        <v>11.71599815285342</v>
+        <v>17.0466262924712</v>
       </c>
       <c r="E15" t="n">
-        <v>11.71599815285342</v>
+        <v>17.0466262924712</v>
       </c>
       <c r="F15" t="n">
-        <v>11.71599815285342</v>
+        <v>17.0466262924712</v>
       </c>
       <c r="G15" t="n">
-        <v>46.64750657504658</v>
+        <v>17.0466262924712</v>
       </c>
       <c r="H15" t="n">
-        <v>46.64750657504658</v>
+        <v>17.0466262924712</v>
       </c>
       <c r="I15" t="n">
-        <v>46.64750657504658</v>
+        <v>17.0466262924712</v>
       </c>
       <c r="J15" t="n">
-        <v>46.64750657504658</v>
+        <v>17.0466262924712</v>
       </c>
       <c r="K15" t="n">
-        <v>46.64750657504658</v>
+        <v>17.0466262924712</v>
       </c>
       <c r="L15" t="n">
-        <v>46.64750657504658</v>
+        <v>17.0466262924712</v>
       </c>
       <c r="M15" t="n">
-        <v>46.64750657504658</v>
+        <v>17.0466262924712</v>
       </c>
       <c r="N15" t="n">
-        <v>46.64750657504658</v>
+        <v>17.0466262924712</v>
       </c>
       <c r="O15" t="n">
-        <v>46.64750657504658</v>
+        <v>17.0466262924712</v>
       </c>
       <c r="P15" t="n">
-        <v>46.64750657504658</v>
+        <v>17.0466262924712</v>
       </c>
       <c r="Q15" t="n">
-        <v>46.64750657504658</v>
+        <v>17.0466262924712</v>
       </c>
       <c r="R15" t="n">
-        <v>46.64750657504658</v>
+        <v>17.0466262924712</v>
       </c>
       <c r="S15" t="n">
-        <v>46.64750657504658</v>
+        <v>17.0466262924712</v>
       </c>
       <c r="T15" t="n">
         <v>46.64750657504658</v>
@@ -5397,10 +5397,10 @@
         <v>11.71599815285342</v>
       </c>
       <c r="X15" t="n">
-        <v>11.71599815285342</v>
+        <v>17.0466262924712</v>
       </c>
       <c r="Y15" t="n">
-        <v>11.71599815285342</v>
+        <v>17.0466262924712</v>
       </c>
     </row>
     <row r="16">
@@ -5410,58 +5410,58 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>45.23219852715545</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="C16" t="n">
-        <v>45.23219852715545</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="D16" t="n">
-        <v>108.6252532509084</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="E16" t="n">
-        <v>173.0600356174397</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="F16" t="n">
-        <v>224.7305324699131</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="G16" t="n">
-        <v>224.7305324699131</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="H16" t="n">
-        <v>224.7305324699131</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="I16" t="n">
-        <v>224.7305324699131</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="J16" t="n">
-        <v>224.7305324699131</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="K16" t="n">
-        <v>224.7305324699131</v>
+        <v>147.4552291869478</v>
       </c>
       <c r="L16" t="n">
-        <v>224.7305324699131</v>
+        <v>147.4552291869478</v>
       </c>
       <c r="M16" t="n">
-        <v>224.7305324699131</v>
+        <v>147.4552291869478</v>
       </c>
       <c r="N16" t="n">
-        <v>224.7305324699131</v>
+        <v>147.4552291869478</v>
       </c>
       <c r="O16" t="n">
-        <v>224.7305324699131</v>
+        <v>147.4552291869478</v>
       </c>
       <c r="P16" t="n">
-        <v>224.7305324699131</v>
+        <v>147.4552291869478</v>
       </c>
       <c r="Q16" t="n">
-        <v>224.7305324699131</v>
+        <v>147.4552291869478</v>
       </c>
       <c r="R16" t="n">
-        <v>224.7305324699131</v>
+        <v>224.7305324699132</v>
       </c>
       <c r="S16" t="n">
-        <v>224.7305324699131</v>
+        <v>224.7305324699132</v>
       </c>
       <c r="T16" t="n">
         <v>210.3122722015904</v>
@@ -5470,7 +5470,7 @@
         <v>140.8869922404238</v>
       </c>
       <c r="V16" t="n">
-        <v>97.90377148608518</v>
+        <v>97.90377148608519</v>
       </c>
       <c r="W16" t="n">
         <v>29.49945369072305</v>
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>353.8292685207397</v>
+        <v>353.8292685207395</v>
       </c>
       <c r="C17" t="n">
-        <v>299.3273299625899</v>
+        <v>299.3273299625897</v>
       </c>
       <c r="D17" t="n">
-        <v>253.9351852988562</v>
+        <v>253.935185298856</v>
       </c>
       <c r="E17" t="n">
-        <v>186.5812855140059</v>
+        <v>186.5812855140057</v>
       </c>
       <c r="F17" t="n">
-        <v>99.86191493321861</v>
+        <v>99.86191493321863</v>
       </c>
       <c r="G17" t="n">
         <v>11.71599815285342</v>
@@ -5522,43 +5522,43 @@
         <v>11.71599815285342</v>
       </c>
       <c r="M17" t="n">
+        <v>11.71599815285342</v>
+      </c>
+      <c r="N17" t="n">
+        <v>11.71599815285342</v>
+      </c>
+      <c r="O17" t="n">
+        <v>11.71599815285342</v>
+      </c>
+      <c r="P17" t="n">
+        <v>11.71599815285342</v>
+      </c>
+      <c r="Q17" t="n">
         <v>156.7014752944145</v>
       </c>
-      <c r="N17" t="n">
-        <v>301.6869524359755</v>
-      </c>
-      <c r="O17" t="n">
-        <v>446.6724295775365</v>
-      </c>
-      <c r="P17" t="n">
-        <v>446.6724295775365</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>514.6558366646532</v>
-      </c>
       <c r="R17" t="n">
-        <v>514.6558366646532</v>
+        <v>266.3908207931778</v>
       </c>
       <c r="S17" t="n">
-        <v>514.6558366646532</v>
+        <v>411.3762979347388</v>
       </c>
       <c r="T17" t="n">
-        <v>514.6558366646532</v>
+        <v>514.6558366646533</v>
       </c>
       <c r="U17" t="n">
-        <v>585.7999076426709</v>
+        <v>585.799907642671</v>
       </c>
       <c r="V17" t="n">
-        <v>576.2524536476553</v>
+        <v>576.2524536476551</v>
       </c>
       <c r="W17" t="n">
-        <v>541.1493436142991</v>
+        <v>541.1493436142989</v>
       </c>
       <c r="X17" t="n">
-        <v>486.5510232448353</v>
+        <v>486.5510232448351</v>
       </c>
       <c r="Y17" t="n">
-        <v>420.4409879297161</v>
+        <v>420.4409879297158</v>
       </c>
     </row>
     <row r="18">
@@ -5726,13 +5726,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>353.8292685207396</v>
+        <v>353.8292685207389</v>
       </c>
       <c r="C20" t="n">
-        <v>299.3273299625897</v>
+        <v>299.327329962589</v>
       </c>
       <c r="D20" t="n">
-        <v>253.9351852988561</v>
+        <v>253.9351852988556</v>
       </c>
       <c r="E20" t="n">
         <v>186.5812855140055</v>
@@ -5747,10 +5747,10 @@
         <v>11.71599815285342</v>
       </c>
       <c r="I20" t="n">
-        <v>11.71599815285342</v>
+        <v>156.7014752944145</v>
       </c>
       <c r="J20" t="n">
-        <v>11.71599815285342</v>
+        <v>156.7014752944145</v>
       </c>
       <c r="K20" t="n">
         <v>156.7014752944145</v>
@@ -5771,31 +5771,31 @@
         <v>156.7014752944145</v>
       </c>
       <c r="Q20" t="n">
-        <v>156.7014752944145</v>
+        <v>224.6848823815311</v>
       </c>
       <c r="R20" t="n">
-        <v>301.6869524359755</v>
+        <v>369.6703595230922</v>
       </c>
       <c r="S20" t="n">
-        <v>446.6724295775365</v>
+        <v>514.6558366646533</v>
       </c>
       <c r="T20" t="n">
-        <v>514.6558366646532</v>
+        <v>514.6558366646533</v>
       </c>
       <c r="U20" t="n">
-        <v>585.7999076426709</v>
+        <v>585.799907642671</v>
       </c>
       <c r="V20" t="n">
-        <v>576.252453647655</v>
+        <v>576.2524536476548</v>
       </c>
       <c r="W20" t="n">
-        <v>541.1493436142988</v>
+        <v>541.1493436142986</v>
       </c>
       <c r="X20" t="n">
-        <v>486.5510232448349</v>
+        <v>486.5510232448347</v>
       </c>
       <c r="Y20" t="n">
-        <v>420.4409879297157</v>
+        <v>420.4409879297152</v>
       </c>
     </row>
     <row r="21">
@@ -5963,16 +5963,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>353.8292685207393</v>
+        <v>353.8292685207394</v>
       </c>
       <c r="C23" t="n">
-        <v>299.3273299625898</v>
+        <v>299.3273299625896</v>
       </c>
       <c r="D23" t="n">
-        <v>253.9351852988562</v>
+        <v>253.9351852988559</v>
       </c>
       <c r="E23" t="n">
-        <v>186.5812855140059</v>
+        <v>186.5812855140056</v>
       </c>
       <c r="F23" t="n">
         <v>99.86191493321863</v>
@@ -5984,55 +5984,55 @@
         <v>11.71599815285342</v>
       </c>
       <c r="I23" t="n">
-        <v>11.71599815285342</v>
+        <v>156.7014752944145</v>
       </c>
       <c r="J23" t="n">
-        <v>11.71599815285342</v>
+        <v>156.7014752944145</v>
       </c>
       <c r="K23" t="n">
-        <v>79.69940523997008</v>
+        <v>301.6869524359755</v>
       </c>
       <c r="L23" t="n">
-        <v>79.69940523997008</v>
+        <v>446.6724295775366</v>
       </c>
       <c r="M23" t="n">
-        <v>79.69940523997008</v>
+        <v>446.6724295775366</v>
       </c>
       <c r="N23" t="n">
-        <v>79.69940523997008</v>
+        <v>446.6724295775366</v>
       </c>
       <c r="O23" t="n">
-        <v>224.6848823815311</v>
+        <v>446.6724295775366</v>
       </c>
       <c r="P23" t="n">
-        <v>224.6848823815311</v>
+        <v>482.5203689127565</v>
       </c>
       <c r="Q23" t="n">
-        <v>369.6703595230921</v>
+        <v>482.5203689127565</v>
       </c>
       <c r="R23" t="n">
-        <v>514.6558366646532</v>
+        <v>482.5203689127565</v>
       </c>
       <c r="S23" t="n">
-        <v>514.6558366646532</v>
+        <v>482.5203689127565</v>
       </c>
       <c r="T23" t="n">
-        <v>514.6558366646532</v>
+        <v>585.799907642671</v>
       </c>
       <c r="U23" t="n">
-        <v>585.7999076426709</v>
+        <v>585.799907642671</v>
       </c>
       <c r="V23" t="n">
-        <v>576.2524536476551</v>
+        <v>576.2524536476552</v>
       </c>
       <c r="W23" t="n">
-        <v>541.1493436142989</v>
+        <v>541.149343614299</v>
       </c>
       <c r="X23" t="n">
-        <v>486.5510232448351</v>
+        <v>486.5510232448352</v>
       </c>
       <c r="Y23" t="n">
-        <v>420.4409879297157</v>
+        <v>420.4409879297158</v>
       </c>
     </row>
     <row r="24">
@@ -6203,49 +6203,49 @@
         <v>1303.744081406403</v>
       </c>
       <c r="C26" t="n">
-        <v>1097.04738406355</v>
+        <v>1097.047384063549</v>
       </c>
       <c r="D26" t="n">
-        <v>899.4604806151124</v>
+        <v>899.4604806151115</v>
       </c>
       <c r="E26" t="n">
-        <v>679.9118220455582</v>
+        <v>679.9118220455573</v>
       </c>
       <c r="F26" t="n">
-        <v>440.9976926800675</v>
+        <v>440.9976926800666</v>
       </c>
       <c r="G26" t="n">
-        <v>200.6570171149989</v>
+        <v>200.6570171149988</v>
       </c>
       <c r="H26" t="n">
-        <v>48.46225833029499</v>
+        <v>48.46225833029497</v>
       </c>
       <c r="I26" t="n">
-        <v>70.71846950395488</v>
+        <v>70.71846950395505</v>
       </c>
       <c r="J26" t="n">
-        <v>70.71846950395488</v>
+        <v>165.2586569740166</v>
       </c>
       <c r="K26" t="n">
-        <v>541.2645890926411</v>
+        <v>471.0078342479624</v>
       </c>
       <c r="L26" t="n">
-        <v>970.5434865917737</v>
+        <v>534.5065924246505</v>
       </c>
       <c r="M26" t="n">
-        <v>1570.263933429174</v>
+        <v>1134.227039262051</v>
       </c>
       <c r="N26" t="n">
-        <v>1649.51107518682</v>
+        <v>1213.474181019698</v>
       </c>
       <c r="O26" t="n">
-        <v>2041.418330233871</v>
+        <v>1683.591904878043</v>
       </c>
       <c r="P26" t="n">
-        <v>2343.744645460677</v>
+        <v>1985.918220104849</v>
       </c>
       <c r="Q26" t="n">
-        <v>2392.375494607501</v>
+        <v>2307.798462230971</v>
       </c>
       <c r="R26" t="n">
         <v>2423.112916514749</v>
@@ -6254,19 +6254,19 @@
         <v>2423.112916514749</v>
       </c>
       <c r="T26" t="n">
-        <v>2376.294689441008</v>
+        <v>2376.294689441007</v>
       </c>
       <c r="U26" t="n">
-        <v>2296.688514451854</v>
+        <v>2296.688514451853</v>
       </c>
       <c r="V26" t="n">
-        <v>2134.946301672134</v>
+        <v>2134.946301672133</v>
       </c>
       <c r="W26" t="n">
-        <v>1947.648432854074</v>
+        <v>1947.648432854073</v>
       </c>
       <c r="X26" t="n">
-        <v>1740.855353699907</v>
+        <v>1740.855353699906</v>
       </c>
       <c r="Y26" t="n">
         <v>1522.550559600083</v>
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>48.46225833029499</v>
+        <v>63.96510626436582</v>
       </c>
       <c r="C27" t="n">
-        <v>48.46225833029499</v>
+        <v>63.96510626436582</v>
       </c>
       <c r="D27" t="n">
-        <v>48.46225833029499</v>
+        <v>63.96510626436582</v>
       </c>
       <c r="E27" t="n">
-        <v>48.46225833029499</v>
+        <v>63.96510626436582</v>
       </c>
       <c r="F27" t="n">
-        <v>48.46225833029499</v>
+        <v>63.96510626436582</v>
       </c>
       <c r="G27" t="n">
-        <v>48.46225833029499</v>
+        <v>63.96510626436582</v>
       </c>
       <c r="H27" t="n">
-        <v>48.46225833029499</v>
+        <v>63.96510626436582</v>
       </c>
       <c r="I27" t="n">
-        <v>48.46225833029499</v>
+        <v>63.96510626436582</v>
       </c>
       <c r="J27" t="n">
-        <v>144.2597436682</v>
+        <v>63.96510626436582</v>
       </c>
       <c r="K27" t="n">
-        <v>144.2597436682</v>
+        <v>63.96510626436582</v>
       </c>
       <c r="L27" t="n">
-        <v>144.2597436682</v>
+        <v>63.96510626436582</v>
       </c>
       <c r="M27" t="n">
-        <v>263.216149974189</v>
+        <v>63.96510626436582</v>
       </c>
       <c r="N27" t="n">
-        <v>263.216149974189</v>
+        <v>63.96510626436582</v>
       </c>
       <c r="O27" t="n">
-        <v>263.216149974189</v>
+        <v>63.96510626436582</v>
       </c>
       <c r="P27" t="n">
-        <v>263.216149974189</v>
+        <v>105.8098208381842</v>
       </c>
       <c r="Q27" t="n">
-        <v>263.216149974189</v>
+        <v>105.8098208381842</v>
       </c>
       <c r="R27" t="n">
-        <v>263.216149974189</v>
+        <v>236.0991512163592</v>
       </c>
       <c r="S27" t="n">
-        <v>263.216149974189</v>
+        <v>263.2161499741888</v>
       </c>
       <c r="T27" t="n">
-        <v>250.9030256651362</v>
+        <v>250.903025665136</v>
       </c>
       <c r="U27" t="n">
-        <v>207.6638188239217</v>
+        <v>207.6638188239215</v>
       </c>
       <c r="V27" t="n">
-        <v>154.5052575965946</v>
+        <v>154.5052575965945</v>
       </c>
       <c r="W27" t="n">
-        <v>88.42645015424364</v>
+        <v>88.42645015424355</v>
       </c>
       <c r="X27" t="n">
-        <v>65.7465233563772</v>
+        <v>65.74652335637714</v>
       </c>
       <c r="Y27" t="n">
-        <v>48.46225833029499</v>
+        <v>48.46225833029497</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>48.46225833029499</v>
+        <v>48.46225833029497</v>
       </c>
       <c r="C28" t="n">
-        <v>48.46225833029499</v>
+        <v>48.46225833029497</v>
       </c>
       <c r="D28" t="n">
-        <v>48.46225833029499</v>
+        <v>48.46225833029497</v>
       </c>
       <c r="E28" t="n">
-        <v>48.46225833029499</v>
+        <v>48.46225833029497</v>
       </c>
       <c r="F28" t="n">
-        <v>48.46225833029499</v>
+        <v>48.46225833029497</v>
       </c>
       <c r="G28" t="n">
-        <v>48.46225833029499</v>
+        <v>48.46225833029497</v>
       </c>
       <c r="H28" t="n">
-        <v>48.46225833029499</v>
+        <v>48.46225833029497</v>
       </c>
       <c r="I28" t="n">
-        <v>48.46225833029499</v>
+        <v>48.46225833029497</v>
       </c>
       <c r="J28" t="n">
-        <v>48.46225833029499</v>
+        <v>48.46225833029497</v>
       </c>
       <c r="K28" t="n">
-        <v>48.46225833029499</v>
+        <v>48.46225833029497</v>
       </c>
       <c r="L28" t="n">
-        <v>146.111153204016</v>
+        <v>48.46225833029497</v>
       </c>
       <c r="M28" t="n">
-        <v>242.379291029753</v>
+        <v>202.7224859425042</v>
       </c>
       <c r="N28" t="n">
-        <v>346.8264549123272</v>
+        <v>202.7224859425042</v>
       </c>
       <c r="O28" t="n">
-        <v>439.9069958089161</v>
+        <v>333.8878076479995</v>
       </c>
       <c r="P28" t="n">
-        <v>559.244097389678</v>
+        <v>424.83822390709</v>
       </c>
       <c r="Q28" t="n">
-        <v>559.244097389678</v>
+        <v>523.6377675245905</v>
       </c>
       <c r="R28" t="n">
-        <v>559.244097389678</v>
+        <v>559.2440973896778</v>
       </c>
       <c r="S28" t="n">
-        <v>524.8852341847944</v>
+        <v>524.8852341847942</v>
       </c>
       <c r="T28" t="n">
-        <v>467.9519515535718</v>
+        <v>467.9519515535716</v>
       </c>
       <c r="U28" t="n">
-        <v>356.0116492295055</v>
+        <v>356.0116492295053</v>
       </c>
       <c r="V28" t="n">
-        <v>270.513406112267</v>
+        <v>270.5134061122669</v>
       </c>
       <c r="W28" t="n">
-        <v>159.5940659540051</v>
+        <v>159.594065954005</v>
       </c>
       <c r="X28" t="n">
-        <v>103.5786631737198</v>
+        <v>103.5786631737197</v>
       </c>
       <c r="Y28" t="n">
-        <v>56.78056569033586</v>
+        <v>56.78056569033581</v>
       </c>
     </row>
     <row r="29">
@@ -6437,52 +6437,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1303.744081406404</v>
+        <v>1303.744081406405</v>
       </c>
       <c r="C29" t="n">
-        <v>1097.04738406355</v>
+        <v>1097.047384063551</v>
       </c>
       <c r="D29" t="n">
-        <v>899.4604806151131</v>
+        <v>899.4604806151135</v>
       </c>
       <c r="E29" t="n">
-        <v>679.9118220455587</v>
+        <v>679.9118220455593</v>
       </c>
       <c r="F29" t="n">
-        <v>440.9976926800683</v>
+        <v>440.9976926800687</v>
       </c>
       <c r="G29" t="n">
         <v>200.6570171149988</v>
       </c>
       <c r="H29" t="n">
-        <v>48.462258330295</v>
+        <v>48.46225833029501</v>
       </c>
       <c r="I29" t="n">
-        <v>70.71846950395495</v>
+        <v>70.71846950395508</v>
       </c>
       <c r="J29" t="n">
-        <v>186.4929663946561</v>
+        <v>70.71846950395508</v>
       </c>
       <c r="K29" t="n">
-        <v>492.2421436686013</v>
+        <v>411.4728477106572</v>
       </c>
       <c r="L29" t="n">
-        <v>1037.619174214338</v>
+        <v>411.4728477106572</v>
       </c>
       <c r="M29" t="n">
-        <v>1114.650245430088</v>
+        <v>488.503918926408</v>
       </c>
       <c r="N29" t="n">
-        <v>1714.370692267489</v>
+        <v>1088.224365763809</v>
       </c>
       <c r="O29" t="n">
-        <v>1918.299335576711</v>
+        <v>1511.84206107406</v>
       </c>
       <c r="P29" t="n">
-        <v>2392.375494607501</v>
+        <v>1985.918220104851</v>
       </c>
       <c r="Q29" t="n">
-        <v>2392.375494607501</v>
+        <v>2307.798462230973</v>
       </c>
       <c r="R29" t="n">
         <v>2423.11291651475</v>
@@ -6494,7 +6494,7 @@
         <v>2376.294689441009</v>
       </c>
       <c r="U29" t="n">
-        <v>2296.688514451854</v>
+        <v>2296.688514451855</v>
       </c>
       <c r="V29" t="n">
         <v>2134.946301672135</v>
@@ -6503,10 +6503,10 @@
         <v>1947.648432854075</v>
       </c>
       <c r="X29" t="n">
-        <v>1740.855353699907</v>
+        <v>1740.855353699908</v>
       </c>
       <c r="Y29" t="n">
-        <v>1522.550559600084</v>
+        <v>1522.550559600085</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>48.462258330295</v>
+        <v>48.46225833029501</v>
       </c>
       <c r="C30" t="n">
-        <v>48.462258330295</v>
+        <v>48.46225833029501</v>
       </c>
       <c r="D30" t="n">
-        <v>48.462258330295</v>
+        <v>48.46225833029501</v>
       </c>
       <c r="E30" t="n">
-        <v>48.462258330295</v>
+        <v>48.46225833029501</v>
       </c>
       <c r="F30" t="n">
-        <v>48.462258330295</v>
+        <v>48.46225833029501</v>
       </c>
       <c r="G30" t="n">
-        <v>48.462258330295</v>
+        <v>48.46225833029501</v>
       </c>
       <c r="H30" t="n">
-        <v>48.462258330295</v>
+        <v>48.46225833029501</v>
       </c>
       <c r="I30" t="n">
-        <v>48.462258330295</v>
+        <v>48.46225833029501</v>
       </c>
       <c r="J30" t="n">
-        <v>48.462258330295</v>
+        <v>263.2161499741889</v>
       </c>
       <c r="K30" t="n">
-        <v>153.898219091084</v>
+        <v>263.2161499741889</v>
       </c>
       <c r="L30" t="n">
-        <v>153.898219091084</v>
+        <v>263.2161499741889</v>
       </c>
       <c r="M30" t="n">
-        <v>153.898219091084</v>
+        <v>263.2161499741889</v>
       </c>
       <c r="N30" t="n">
-        <v>153.898219091084</v>
+        <v>263.2161499741889</v>
       </c>
       <c r="O30" t="n">
-        <v>263.2161499741886</v>
+        <v>263.2161499741889</v>
       </c>
       <c r="P30" t="n">
-        <v>263.2161499741886</v>
+        <v>263.2161499741889</v>
       </c>
       <c r="Q30" t="n">
-        <v>263.2161499741886</v>
+        <v>263.2161499741889</v>
       </c>
       <c r="R30" t="n">
-        <v>263.2161499741886</v>
+        <v>263.2161499741889</v>
       </c>
       <c r="S30" t="n">
-        <v>263.2161499741886</v>
+        <v>263.2161499741889</v>
       </c>
       <c r="T30" t="n">
-        <v>250.9030256651358</v>
+        <v>250.903025665136</v>
       </c>
       <c r="U30" t="n">
-        <v>207.6638188239214</v>
+        <v>207.6638188239216</v>
       </c>
       <c r="V30" t="n">
-        <v>154.5052575965944</v>
+        <v>154.5052575965946</v>
       </c>
       <c r="W30" t="n">
-        <v>88.42645015424347</v>
+        <v>88.4264501542436</v>
       </c>
       <c r="X30" t="n">
-        <v>65.74652335637711</v>
+        <v>65.74652335637718</v>
       </c>
       <c r="Y30" t="n">
-        <v>48.462258330295</v>
+        <v>48.46225833029501</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>48.462258330295</v>
+        <v>48.46225833029501</v>
       </c>
       <c r="C31" t="n">
-        <v>53.97149038977256</v>
+        <v>48.46225833029501</v>
       </c>
       <c r="D31" t="n">
-        <v>75.69557169564752</v>
+        <v>48.46225833029501</v>
       </c>
       <c r="E31" t="n">
-        <v>98.46138064430082</v>
+        <v>48.46225833029501</v>
       </c>
       <c r="F31" t="n">
-        <v>120.7649345080497</v>
+        <v>48.46225833029501</v>
       </c>
       <c r="G31" t="n">
-        <v>120.7649345080497</v>
+        <v>48.46225833029501</v>
       </c>
       <c r="H31" t="n">
-        <v>138.3706488826793</v>
+        <v>48.46225833029501</v>
       </c>
       <c r="I31" t="n">
-        <v>175.7447131070938</v>
+        <v>48.46225833029501</v>
       </c>
       <c r="J31" t="n">
-        <v>304.9896047944275</v>
+        <v>48.46225833029501</v>
       </c>
       <c r="K31" t="n">
-        <v>304.9896047944275</v>
+        <v>48.46225833029501</v>
       </c>
       <c r="L31" t="n">
-        <v>439.9935967481443</v>
+        <v>48.46225833029501</v>
       </c>
       <c r="M31" t="n">
-        <v>439.9935967481443</v>
+        <v>48.46225833029501</v>
       </c>
       <c r="N31" t="n">
-        <v>439.9935967481443</v>
+        <v>48.46225833029501</v>
       </c>
       <c r="O31" t="n">
-        <v>439.9935967481443</v>
+        <v>351.3774238397749</v>
       </c>
       <c r="P31" t="n">
-        <v>439.9935967481443</v>
+        <v>559.2440973896778</v>
       </c>
       <c r="Q31" t="n">
-        <v>559.2440973896773</v>
+        <v>559.2440973896778</v>
       </c>
       <c r="R31" t="n">
-        <v>559.2440973896773</v>
+        <v>559.2440973896778</v>
       </c>
       <c r="S31" t="n">
-        <v>524.8852341847937</v>
+        <v>524.8852341847942</v>
       </c>
       <c r="T31" t="n">
-        <v>467.9519515535712</v>
+        <v>467.9519515535717</v>
       </c>
       <c r="U31" t="n">
-        <v>356.011649229505</v>
+        <v>356.0116492295053</v>
       </c>
       <c r="V31" t="n">
-        <v>270.5134061122666</v>
+        <v>270.5134061122669</v>
       </c>
       <c r="W31" t="n">
-        <v>159.5940659540048</v>
+        <v>159.594065954005</v>
       </c>
       <c r="X31" t="n">
-        <v>103.5786631737196</v>
+        <v>103.5786631737198</v>
       </c>
       <c r="Y31" t="n">
-        <v>56.78056569033578</v>
+        <v>56.78056569033584</v>
       </c>
     </row>
     <row r="32">
@@ -6680,46 +6680,46 @@
         <v>1097.04738406355</v>
       </c>
       <c r="D32" t="n">
-        <v>899.4604806151126</v>
+        <v>899.4604806151124</v>
       </c>
       <c r="E32" t="n">
-        <v>679.9118220455584</v>
+        <v>679.9118220455581</v>
       </c>
       <c r="F32" t="n">
-        <v>440.9976926800678</v>
+        <v>440.9976926800673</v>
       </c>
       <c r="G32" t="n">
         <v>200.6570171149989</v>
       </c>
       <c r="H32" t="n">
-        <v>48.462258330295</v>
+        <v>48.46225833029501</v>
       </c>
       <c r="I32" t="n">
-        <v>70.71846950395485</v>
+        <v>70.71846950395496</v>
       </c>
       <c r="J32" t="n">
-        <v>186.492966394656</v>
+        <v>358.242810198641</v>
       </c>
       <c r="K32" t="n">
-        <v>492.2421436686012</v>
+        <v>663.9919874725867</v>
       </c>
       <c r="L32" t="n">
-        <v>492.2421436686012</v>
+        <v>727.4907456492748</v>
       </c>
       <c r="M32" t="n">
-        <v>526.3963394605343</v>
+        <v>1036.291662963248</v>
       </c>
       <c r="N32" t="n">
-        <v>1032.761994599554</v>
+        <v>1613.564891957115</v>
       </c>
       <c r="O32" t="n">
-        <v>1596.41909345059</v>
+        <v>2005.472147004167</v>
       </c>
       <c r="P32" t="n">
-        <v>2070.49525248138</v>
+        <v>2307.798462230973</v>
       </c>
       <c r="Q32" t="n">
-        <v>2392.375494607501</v>
+        <v>2307.798462230973</v>
       </c>
       <c r="R32" t="n">
         <v>2423.11291651475</v>
@@ -6731,19 +6731,19 @@
         <v>2376.294689441009</v>
       </c>
       <c r="U32" t="n">
-        <v>2296.688514451854</v>
+        <v>2296.688514451855</v>
       </c>
       <c r="V32" t="n">
-        <v>2134.946301672134</v>
+        <v>2134.946301672135</v>
       </c>
       <c r="W32" t="n">
-        <v>1947.648432854074</v>
+        <v>1947.648432854075</v>
       </c>
       <c r="X32" t="n">
         <v>1740.855353699907</v>
       </c>
       <c r="Y32" t="n">
-        <v>1522.550559600083</v>
+        <v>1522.550559600084</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>48.462258330295</v>
+        <v>48.46225833029501</v>
       </c>
       <c r="C33" t="n">
-        <v>48.462258330295</v>
+        <v>48.46225833029501</v>
       </c>
       <c r="D33" t="n">
-        <v>48.462258330295</v>
+        <v>48.46225833029501</v>
       </c>
       <c r="E33" t="n">
-        <v>48.462258330295</v>
+        <v>48.46225833029501</v>
       </c>
       <c r="F33" t="n">
-        <v>48.462258330295</v>
+        <v>88.19871066535137</v>
       </c>
       <c r="G33" t="n">
-        <v>48.462258330295</v>
+        <v>88.19871066535137</v>
       </c>
       <c r="H33" t="n">
-        <v>48.462258330295</v>
+        <v>88.19871066535137</v>
       </c>
       <c r="I33" t="n">
-        <v>48.462258330295</v>
+        <v>88.19871066535137</v>
       </c>
       <c r="J33" t="n">
-        <v>144.2597436681999</v>
+        <v>88.19871066535137</v>
       </c>
       <c r="K33" t="n">
-        <v>144.2597436681999</v>
+        <v>263.2161499741895</v>
       </c>
       <c r="L33" t="n">
-        <v>263.2161499741892</v>
+        <v>263.2161499741895</v>
       </c>
       <c r="M33" t="n">
-        <v>263.2161499741892</v>
+        <v>263.2161499741895</v>
       </c>
       <c r="N33" t="n">
-        <v>263.2161499741892</v>
+        <v>263.2161499741895</v>
       </c>
       <c r="O33" t="n">
-        <v>263.2161499741892</v>
+        <v>263.2161499741895</v>
       </c>
       <c r="P33" t="n">
-        <v>263.2161499741892</v>
+        <v>263.2161499741895</v>
       </c>
       <c r="Q33" t="n">
-        <v>263.2161499741892</v>
+        <v>263.2161499741895</v>
       </c>
       <c r="R33" t="n">
-        <v>263.2161499741892</v>
+        <v>263.2161499741895</v>
       </c>
       <c r="S33" t="n">
-        <v>263.2161499741892</v>
+        <v>263.2161499741895</v>
       </c>
       <c r="T33" t="n">
-        <v>250.9030256651363</v>
+        <v>250.9030256651366</v>
       </c>
       <c r="U33" t="n">
-        <v>207.6638188239218</v>
+        <v>207.663818823922</v>
       </c>
       <c r="V33" t="n">
-        <v>154.5052575965947</v>
+        <v>154.5052575965949</v>
       </c>
       <c r="W33" t="n">
-        <v>88.4264501542437</v>
+        <v>88.42645015424382</v>
       </c>
       <c r="X33" t="n">
-        <v>65.74652335637722</v>
+        <v>65.7465233563773</v>
       </c>
       <c r="Y33" t="n">
-        <v>48.462258330295</v>
+        <v>48.46225833029501</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>48.462258330295</v>
+        <v>48.46225833029501</v>
       </c>
       <c r="C34" t="n">
-        <v>53.97149038977245</v>
+        <v>48.46225833029501</v>
       </c>
       <c r="D34" t="n">
-        <v>53.97149038977245</v>
+        <v>48.46225833029501</v>
       </c>
       <c r="E34" t="n">
-        <v>53.97149038977245</v>
+        <v>48.46225833029501</v>
       </c>
       <c r="F34" t="n">
-        <v>53.97149038977245</v>
+        <v>48.46225833029501</v>
       </c>
       <c r="G34" t="n">
-        <v>60.39444849462471</v>
+        <v>54.88521643514721</v>
       </c>
       <c r="H34" t="n">
-        <v>60.39444849462471</v>
+        <v>72.49093080977666</v>
       </c>
       <c r="I34" t="n">
-        <v>97.76851271903918</v>
+        <v>109.8649950341911</v>
       </c>
       <c r="J34" t="n">
-        <v>227.0134044063727</v>
+        <v>109.8649950341911</v>
       </c>
       <c r="K34" t="n">
-        <v>287.4974100813808</v>
+        <v>233.6675319282821</v>
       </c>
       <c r="L34" t="n">
-        <v>422.5014020350977</v>
+        <v>233.6675319282821</v>
       </c>
       <c r="M34" t="n">
-        <v>422.5014020350977</v>
+        <v>233.6675319282821</v>
       </c>
       <c r="N34" t="n">
-        <v>422.5014020350977</v>
+        <v>559.2440973896788</v>
       </c>
       <c r="O34" t="n">
-        <v>422.5014020350977</v>
+        <v>559.2440973896788</v>
       </c>
       <c r="P34" t="n">
-        <v>422.5014020350977</v>
+        <v>559.2440973896788</v>
       </c>
       <c r="Q34" t="n">
-        <v>523.6377675245911</v>
+        <v>559.2440973896788</v>
       </c>
       <c r="R34" t="n">
-        <v>559.2440973896784</v>
+        <v>559.2440973896788</v>
       </c>
       <c r="S34" t="n">
-        <v>524.8852341847946</v>
+        <v>524.8852341847951</v>
       </c>
       <c r="T34" t="n">
-        <v>467.951951553572</v>
+        <v>467.9519515535724</v>
       </c>
       <c r="U34" t="n">
-        <v>356.0116492295056</v>
+        <v>356.0116492295059</v>
       </c>
       <c r="V34" t="n">
-        <v>270.5134061122671</v>
+        <v>270.5134061122674</v>
       </c>
       <c r="W34" t="n">
-        <v>159.5940659540052</v>
+        <v>159.5940659540053</v>
       </c>
       <c r="X34" t="n">
-        <v>103.5786631737199</v>
+        <v>103.57866317372</v>
       </c>
       <c r="Y34" t="n">
-        <v>56.78056569033589</v>
+        <v>56.78056569033595</v>
       </c>
     </row>
     <row r="35">
@@ -6914,40 +6914,40 @@
         <v>1027.066278873634</v>
       </c>
       <c r="C35" t="n">
-        <v>864.5298822607671</v>
+        <v>864.5298822607666</v>
       </c>
       <c r="D35" t="n">
-        <v>711.1032795423155</v>
+        <v>711.103279542315</v>
       </c>
       <c r="E35" t="n">
-        <v>535.7149217027472</v>
+        <v>535.7149217027468</v>
       </c>
       <c r="F35" t="n">
-        <v>340.9610930672425</v>
+        <v>340.961093067242</v>
       </c>
       <c r="G35" t="n">
-        <v>144.7807182321596</v>
+        <v>144.7807182321595</v>
       </c>
       <c r="H35" t="n">
         <v>36.74626017744159</v>
       </c>
       <c r="I35" t="n">
-        <v>36.74626017744159</v>
+        <v>102.2839820965608</v>
       </c>
       <c r="J35" t="n">
-        <v>367.5521116175864</v>
+        <v>433.0898335367061</v>
       </c>
       <c r="K35" t="n">
-        <v>471.1574974618864</v>
+        <v>491.4241990022595</v>
       </c>
       <c r="L35" t="n">
-        <v>577.937766384033</v>
+        <v>598.2044679244068</v>
       </c>
       <c r="M35" t="n">
-        <v>693.0101580268584</v>
+        <v>718.5170498856168</v>
       </c>
       <c r="N35" t="n">
-        <v>815.5388105299637</v>
+        <v>841.0457023887228</v>
       </c>
       <c r="O35" t="n">
         <v>1270.273780225803</v>
@@ -6968,19 +6968,19 @@
         <v>1834.655082528324</v>
       </c>
       <c r="U35" t="n">
-        <v>1799.209208269156</v>
+        <v>1799.209208269155</v>
       </c>
       <c r="V35" t="n">
-        <v>1681.627296219422</v>
+        <v>1681.627296219421</v>
       </c>
       <c r="W35" t="n">
-        <v>1538.489728131348</v>
+        <v>1538.489728131347</v>
       </c>
       <c r="X35" t="n">
-        <v>1375.856949707166</v>
+        <v>1375.856949707165</v>
       </c>
       <c r="Y35" t="n">
-        <v>1201.712456337329</v>
+        <v>1201.712456337328</v>
       </c>
     </row>
     <row r="36">
@@ -7005,7 +7005,7 @@
         <v>36.74626017744159</v>
       </c>
       <c r="G36" t="n">
-        <v>67.66302738714785</v>
+        <v>36.74626017744159</v>
       </c>
       <c r="H36" t="n">
         <v>67.66302738714785</v>
@@ -7087,40 +7087,40 @@
         <v>36.74626017744159</v>
       </c>
       <c r="H37" t="n">
-        <v>36.74626017744159</v>
+        <v>70.73931979321164</v>
       </c>
       <c r="I37" t="n">
-        <v>36.74626017744159</v>
+        <v>151.3948947630854</v>
       </c>
       <c r="J37" t="n">
-        <v>36.74626017744159</v>
+        <v>151.3948947630854</v>
       </c>
       <c r="K37" t="n">
-        <v>36.74626017744159</v>
+        <v>151.3948947630854</v>
       </c>
       <c r="L37" t="n">
-        <v>36.74626017744159</v>
+        <v>151.3948947630854</v>
       </c>
       <c r="M37" t="n">
-        <v>36.74626017744159</v>
+        <v>151.3948947630854</v>
       </c>
       <c r="N37" t="n">
-        <v>36.74626017744159</v>
+        <v>151.3948947630854</v>
       </c>
       <c r="O37" t="n">
-        <v>127.3513657602616</v>
+        <v>151.3948947630854</v>
       </c>
       <c r="P37" t="n">
-        <v>127.3513657602616</v>
+        <v>151.3948947630854</v>
       </c>
       <c r="Q37" t="n">
-        <v>239.8891242919847</v>
+        <v>151.3948947630854</v>
       </c>
       <c r="R37" t="n">
-        <v>239.8891242919847</v>
+        <v>230.2827353736319</v>
       </c>
       <c r="S37" t="n">
-        <v>239.8891242919847</v>
+        <v>239.8891242919846</v>
       </c>
       <c r="T37" t="n">
         <v>227.116142390748</v>
@@ -7151,58 +7151,58 @@
         <v>1027.066278873635</v>
       </c>
       <c r="C38" t="n">
-        <v>864.529882260767</v>
+        <v>864.5298822607672</v>
       </c>
       <c r="D38" t="n">
-        <v>711.1032795423155</v>
+        <v>711.1032795423157</v>
       </c>
       <c r="E38" t="n">
         <v>535.7149217027475</v>
       </c>
       <c r="F38" t="n">
-        <v>340.9610930672429</v>
+        <v>340.9610930672428</v>
       </c>
       <c r="G38" t="n">
-        <v>144.7807182321595</v>
+        <v>144.7807182321594</v>
       </c>
       <c r="H38" t="n">
         <v>36.74626017744159</v>
       </c>
       <c r="I38" t="n">
-        <v>102.2839820965607</v>
+        <v>72.84626000762711</v>
       </c>
       <c r="J38" t="n">
-        <v>433.0898335367057</v>
+        <v>186.0247677213136</v>
       </c>
       <c r="K38" t="n">
-        <v>721.0741947971185</v>
+        <v>491.7739449952593</v>
       </c>
       <c r="L38" t="n">
-        <v>827.8544637192651</v>
+        <v>772.379703479061</v>
       </c>
       <c r="M38" t="n">
-        <v>948.1670456804743</v>
+        <v>892.692285440271</v>
       </c>
       <c r="N38" t="n">
-        <v>1070.69569818358</v>
+        <v>1015.220937943377</v>
       </c>
       <c r="O38" t="n">
-        <v>1462.60295323063</v>
+        <v>1132.069714254719</v>
       </c>
       <c r="P38" t="n">
-        <v>1565.805685590182</v>
+        <v>1586.804683950559</v>
       </c>
       <c r="Q38" t="n">
-        <v>1635.435533097384</v>
+        <v>1678.717043842843</v>
       </c>
       <c r="R38" t="n">
-        <v>1794.03149812662</v>
+        <v>1837.31300887208</v>
       </c>
       <c r="S38" t="n">
         <v>1837.31300887208</v>
       </c>
       <c r="T38" t="n">
-        <v>1834.655082528325</v>
+        <v>1834.655082528324</v>
       </c>
       <c r="U38" t="n">
         <v>1799.209208269156</v>
@@ -7248,31 +7248,31 @@
         <v>36.74626017744159</v>
       </c>
       <c r="I39" t="n">
-        <v>36.74626017744159</v>
+        <v>67.66302738714768</v>
       </c>
       <c r="J39" t="n">
-        <v>36.74626017744159</v>
+        <v>67.66302738714768</v>
       </c>
       <c r="K39" t="n">
-        <v>36.74626017744159</v>
+        <v>67.66302738714768</v>
       </c>
       <c r="L39" t="n">
-        <v>36.74626017744159</v>
+        <v>67.66302738714768</v>
       </c>
       <c r="M39" t="n">
-        <v>36.74626017744159</v>
+        <v>67.66302738714768</v>
       </c>
       <c r="N39" t="n">
-        <v>36.74626017744159</v>
+        <v>67.66302738714768</v>
       </c>
       <c r="O39" t="n">
-        <v>36.74626017744159</v>
+        <v>67.66302738714768</v>
       </c>
       <c r="P39" t="n">
-        <v>36.74626017744159</v>
+        <v>67.66302738714768</v>
       </c>
       <c r="Q39" t="n">
-        <v>36.74626017744159</v>
+        <v>67.66302738714768</v>
       </c>
       <c r="R39" t="n">
         <v>67.66302738714768</v>
@@ -7330,28 +7330,28 @@
         <v>36.74626017744159</v>
       </c>
       <c r="J40" t="n">
-        <v>36.74626017744159</v>
+        <v>127.3513657602608</v>
       </c>
       <c r="K40" t="n">
-        <v>36.74626017744159</v>
+        <v>127.3513657602608</v>
       </c>
       <c r="L40" t="n">
-        <v>36.74626017744159</v>
+        <v>127.3513657602608</v>
       </c>
       <c r="M40" t="n">
-        <v>36.74626017744159</v>
+        <v>127.3513657602608</v>
       </c>
       <c r="N40" t="n">
-        <v>36.74626017744159</v>
+        <v>127.3513657602608</v>
       </c>
       <c r="O40" t="n">
-        <v>36.74626017744159</v>
+        <v>127.3513657602608</v>
       </c>
       <c r="P40" t="n">
-        <v>36.74626017744159</v>
+        <v>127.3513657602608</v>
       </c>
       <c r="Q40" t="n">
-        <v>161.0012836814377</v>
+        <v>239.8891242919842</v>
       </c>
       <c r="R40" t="n">
         <v>239.8891242919842</v>
@@ -7385,52 +7385,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1027.066278873635</v>
+        <v>1027.066278873634</v>
       </c>
       <c r="C41" t="n">
-        <v>864.529882260767</v>
+        <v>864.5298822607667</v>
       </c>
       <c r="D41" t="n">
-        <v>711.1032795423155</v>
+        <v>711.1032795423152</v>
       </c>
       <c r="E41" t="n">
-        <v>535.7149217027472</v>
+        <v>535.714921702747</v>
       </c>
       <c r="F41" t="n">
-        <v>340.9610930672425</v>
+        <v>340.9610930672424</v>
       </c>
       <c r="G41" t="n">
-        <v>144.7807182321595</v>
+        <v>144.7807182321594</v>
       </c>
       <c r="H41" t="n">
         <v>36.74626017744159</v>
       </c>
       <c r="I41" t="n">
-        <v>102.2839820965607</v>
+        <v>102.2839820965609</v>
       </c>
       <c r="J41" t="n">
-        <v>215.4624898102467</v>
+        <v>433.0898335367063</v>
       </c>
       <c r="K41" t="n">
-        <v>319.0678756545468</v>
+        <v>758.3263651711508</v>
       </c>
       <c r="L41" t="n">
-        <v>425.8481445766934</v>
+        <v>1187.605262670284</v>
       </c>
       <c r="M41" t="n">
-        <v>880.5831142725331</v>
+        <v>1285.520044407628</v>
       </c>
       <c r="N41" t="n">
-        <v>1003.111766775638</v>
+        <v>1408.048696910734</v>
       </c>
       <c r="O41" t="n">
-        <v>1440.320440845549</v>
+        <v>1524.897473222076</v>
       </c>
       <c r="P41" t="n">
-        <v>1543.523173205101</v>
+        <v>1628.100205581628</v>
       </c>
       <c r="Q41" t="n">
-        <v>1635.435533097384</v>
+        <v>1720.012565473912</v>
       </c>
       <c r="R41" t="n">
         <v>1794.03149812662</v>
@@ -7442,13 +7442,13 @@
         <v>1834.655082528324</v>
       </c>
       <c r="U41" t="n">
-        <v>1799.209208269156</v>
+        <v>1799.209208269155</v>
       </c>
       <c r="V41" t="n">
-        <v>1681.627296219422</v>
+        <v>1681.627296219421</v>
       </c>
       <c r="W41" t="n">
-        <v>1538.489728131348</v>
+        <v>1538.489728131347</v>
       </c>
       <c r="X41" t="n">
         <v>1375.856949707166</v>
@@ -7500,31 +7500,31 @@
         <v>36.74626017744159</v>
       </c>
       <c r="N42" t="n">
-        <v>67.66302738714774</v>
+        <v>36.74626017744159</v>
       </c>
       <c r="O42" t="n">
-        <v>67.66302738714774</v>
+        <v>36.74626017744159</v>
       </c>
       <c r="P42" t="n">
-        <v>67.66302738714774</v>
+        <v>36.74626017744159</v>
       </c>
       <c r="Q42" t="n">
-        <v>67.66302738714774</v>
+        <v>36.74626017744159</v>
       </c>
       <c r="R42" t="n">
-        <v>67.66302738714774</v>
+        <v>67.66302738714768</v>
       </c>
       <c r="S42" t="n">
-        <v>67.66302738714774</v>
+        <v>67.66302738714768</v>
       </c>
       <c r="T42" t="n">
-        <v>67.66302738714774</v>
+        <v>67.66302738714768</v>
       </c>
       <c r="U42" t="n">
-        <v>67.66302738714774</v>
+        <v>67.66302738714768</v>
       </c>
       <c r="V42" t="n">
-        <v>58.66476688980663</v>
+        <v>58.6647668898066</v>
       </c>
       <c r="W42" t="n">
         <v>36.74626017744159</v>
@@ -7555,61 +7555,61 @@
         <v>36.74626017744159</v>
       </c>
       <c r="F43" t="n">
-        <v>102.3313247866496</v>
+        <v>98.34632420202152</v>
       </c>
       <c r="G43" t="n">
-        <v>102.3313247866496</v>
+        <v>98.34632420202152</v>
       </c>
       <c r="H43" t="n">
-        <v>102.3313247866496</v>
+        <v>159.2335493221103</v>
       </c>
       <c r="I43" t="n">
-        <v>102.3313247866496</v>
+        <v>239.8891242919842</v>
       </c>
       <c r="J43" t="n">
-        <v>102.3313247866496</v>
+        <v>239.8891242919842</v>
       </c>
       <c r="K43" t="n">
-        <v>102.3313247866496</v>
+        <v>239.8891242919842</v>
       </c>
       <c r="L43" t="n">
-        <v>102.3313247866496</v>
+        <v>239.8891242919842</v>
       </c>
       <c r="M43" t="n">
-        <v>161.0012836814378</v>
+        <v>239.8891242919842</v>
       </c>
       <c r="N43" t="n">
-        <v>161.0012836814378</v>
+        <v>239.8891242919842</v>
       </c>
       <c r="O43" t="n">
-        <v>161.0012836814378</v>
+        <v>239.8891242919842</v>
       </c>
       <c r="P43" t="n">
-        <v>161.0012836814378</v>
+        <v>239.8891242919842</v>
       </c>
       <c r="Q43" t="n">
-        <v>161.0012836814378</v>
+        <v>239.8891242919842</v>
       </c>
       <c r="R43" t="n">
-        <v>239.8891242919843</v>
+        <v>239.8891242919842</v>
       </c>
       <c r="S43" t="n">
-        <v>239.8891242919843</v>
+        <v>239.8891242919842</v>
       </c>
       <c r="T43" t="n">
-        <v>227.1161423907477</v>
+        <v>227.1161423907476</v>
       </c>
       <c r="U43" t="n">
-        <v>159.3361407966673</v>
+        <v>159.3361407966672</v>
       </c>
       <c r="V43" t="n">
-        <v>117.9981984094149</v>
+        <v>117.9981984094148</v>
       </c>
       <c r="W43" t="n">
-        <v>51.23915898113889</v>
+        <v>51.23915898113883</v>
       </c>
       <c r="X43" t="n">
-        <v>39.38405693083958</v>
+        <v>39.38405693083955</v>
       </c>
       <c r="Y43" t="n">
         <v>36.74626017744159</v>
@@ -7631,40 +7631,40 @@
         <v>711.1032795423159</v>
       </c>
       <c r="E44" t="n">
-        <v>535.7149217027473</v>
+        <v>535.7149217027475</v>
       </c>
       <c r="F44" t="n">
         <v>340.9610930672426</v>
       </c>
       <c r="G44" t="n">
-        <v>144.7807182321596</v>
+        <v>144.7807182321595</v>
       </c>
       <c r="H44" t="n">
         <v>36.74626017744159</v>
       </c>
       <c r="I44" t="n">
-        <v>102.2839820965606</v>
+        <v>102.2839820965608</v>
       </c>
       <c r="J44" t="n">
-        <v>433.0898335367055</v>
+        <v>433.0898335367061</v>
       </c>
       <c r="K44" t="n">
-        <v>536.6952193810055</v>
+        <v>433.0898335367061</v>
       </c>
       <c r="L44" t="n">
-        <v>536.6952193810055</v>
+        <v>572.6975760656468</v>
       </c>
       <c r="M44" t="n">
-        <v>894.5633693167605</v>
+        <v>693.0101580268567</v>
       </c>
       <c r="N44" t="n">
-        <v>1017.092021819866</v>
+        <v>815.5388105299628</v>
       </c>
       <c r="O44" t="n">
-        <v>1133.940798131207</v>
+        <v>1270.273780225803</v>
       </c>
       <c r="P44" t="n">
-        <v>1543.523173205101</v>
+        <v>1270.273780225803</v>
       </c>
       <c r="Q44" t="n">
         <v>1635.435533097384</v>
@@ -7737,7 +7737,7 @@
         <v>36.74626017744159</v>
       </c>
       <c r="N45" t="n">
-        <v>36.74626017744159</v>
+        <v>67.66302738714785</v>
       </c>
       <c r="O45" t="n">
         <v>67.66302738714785</v>
@@ -7780,58 +7780,58 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>36.74626017744159</v>
+        <v>71.87499787932472</v>
       </c>
       <c r="C46" t="n">
-        <v>36.74626017744159</v>
+        <v>71.87499787932472</v>
       </c>
       <c r="D46" t="n">
-        <v>36.74626017744159</v>
+        <v>71.87499787932472</v>
       </c>
       <c r="E46" t="n">
-        <v>36.74626017744159</v>
+        <v>71.87499787932472</v>
       </c>
       <c r="F46" t="n">
-        <v>36.74626017744159</v>
+        <v>71.87499787932472</v>
       </c>
       <c r="G46" t="n">
-        <v>36.74626017744159</v>
+        <v>71.87499787932472</v>
       </c>
       <c r="H46" t="n">
-        <v>36.74626017744159</v>
+        <v>71.87499787932472</v>
       </c>
       <c r="I46" t="n">
-        <v>36.74626017744159</v>
+        <v>151.3948947630854</v>
       </c>
       <c r="J46" t="n">
-        <v>36.74626017744159</v>
+        <v>151.3948947630854</v>
       </c>
       <c r="K46" t="n">
-        <v>36.74626017744159</v>
+        <v>151.3948947630854</v>
       </c>
       <c r="L46" t="n">
-        <v>36.74626017744159</v>
+        <v>151.3948947630854</v>
       </c>
       <c r="M46" t="n">
-        <v>36.74626017744159</v>
+        <v>151.3948947630854</v>
       </c>
       <c r="N46" t="n">
-        <v>36.74626017744159</v>
+        <v>151.3948947630854</v>
       </c>
       <c r="O46" t="n">
-        <v>36.74626017744159</v>
+        <v>151.3948947630854</v>
       </c>
       <c r="P46" t="n">
-        <v>36.74626017744159</v>
+        <v>151.3948947630854</v>
       </c>
       <c r="Q46" t="n">
-        <v>161.0012836814382</v>
+        <v>151.3948947630854</v>
       </c>
       <c r="R46" t="n">
-        <v>239.8891242919847</v>
+        <v>230.2827353736319</v>
       </c>
       <c r="S46" t="n">
-        <v>239.8891242919847</v>
+        <v>239.8891242919846</v>
       </c>
       <c r="T46" t="n">
         <v>227.116142390748</v>
@@ -9872,13 +9872,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>102.8816634704624</v>
+        <v>24.8921116180145</v>
       </c>
       <c r="K26" t="n">
         <v>421.3890363425141</v>
       </c>
       <c r="L26" t="n">
-        <v>542.9595789155856</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>584.3675935406823</v>
@@ -9893,10 +9893,10 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>85.43134583487716</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9975,7 +9975,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>59.17817075471706</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10036,22 +10036,22 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>74.84944336390234</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>232.0625591822793</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>67.98250497112136</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>211.9541662756472</v>
       </c>
       <c r="P28" t="n">
-        <v>91.14863502593889</v>
+        <v>175.5085323082534</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>84.9458458910769</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10109,31 +10109,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>219.8255997236959</v>
+        <v>102.881663470462</v>
       </c>
       <c r="K29" t="n">
-        <v>421.3890363425141</v>
+        <v>283.2631344523846</v>
       </c>
       <c r="L29" t="n">
-        <v>542.9595789155856</v>
+        <v>109.3445309366631</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>525.7306111916712</v>
+        <v>568.5510017355793</v>
       </c>
       <c r="O29" t="n">
-        <v>131.6781593367072</v>
+        <v>495.0402356415689</v>
       </c>
       <c r="P29" t="n">
         <v>418.3383206229274</v>
       </c>
       <c r="Q29" t="n">
-        <v>124.3626208658184</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>85.43134583487716</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,7 +10188,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>120.1579861676653</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10267,28 +10267,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>43.72711371954033</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>77.67194102076728</v>
+        <v>77.67194102076704</v>
       </c>
       <c r="L31" t="n">
-        <v>211.2171120040207</v>
+        <v>74.84944336390234</v>
       </c>
       <c r="M31" t="n">
-        <v>76.24414745277537</v>
+        <v>76.24414745277505</v>
       </c>
       <c r="N31" t="n">
-        <v>67.98250497112167</v>
+        <v>67.98250497112136</v>
       </c>
       <c r="O31" t="n">
-        <v>79.46394233070276</v>
+        <v>211.9541662756472</v>
       </c>
       <c r="P31" t="n">
-        <v>83.63942497583898</v>
+        <v>120.121071183837</v>
       </c>
       <c r="Q31" t="n">
-        <v>50.49924530835254</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10352,13 +10352,13 @@
         <v>421.3890363425141</v>
       </c>
       <c r="L32" t="n">
-        <v>109.3445309366638</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>234.1109556547698</v>
       </c>
       <c r="N32" t="n">
-        <v>431.4328417993677</v>
+        <v>568.5510017355793</v>
       </c>
       <c r="O32" t="n">
         <v>495.0402356415689</v>
@@ -10367,10 +10367,10 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q32" t="n">
-        <v>276.0094878578761</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>85.43134583487716</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10428,7 +10428,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>70.28432176570601</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10507,25 +10507,25 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K34" t="n">
-        <v>138.7668962480483</v>
+        <v>29.24031787946043</v>
       </c>
       <c r="L34" t="n">
-        <v>211.2171120040207</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>76.24414745277537</v>
+        <v>76.24414745277505</v>
       </c>
       <c r="N34" t="n">
-        <v>67.98250497112167</v>
+        <v>223.3630318978003</v>
       </c>
       <c r="O34" t="n">
-        <v>79.46394233070276</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>83.63942497583898</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>32.20213909417126</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10598,10 +10598,10 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>343.2601151327216</v>
+        <v>315.5346480057955</v>
       </c>
       <c r="P35" t="n">
-        <v>112.9582042322147</v>
+        <v>112.9582042322141</v>
       </c>
       <c r="Q35" t="n">
         <v>276.0094878578761</v>
@@ -10668,7 +10668,7 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>52.05064111562886</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10820,13 +10820,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>219.8255997236959</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>186.2413893092048</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>175.5813025875296</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10835,10 +10835,10 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>495.0402356415689</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>355.0830680164522</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -10981,7 +10981,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>77.67194102076728</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -10993,13 +10993,13 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>79.46394233070276</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>11.83562118411403</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11057,22 +11057,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>223.8698442324686</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>542.9595789155856</v>
       </c>
       <c r="M41" t="n">
-        <v>555.0037800849236</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>330.9754086191224</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>85.43134583487716</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11224,7 +11224,7 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>135.5067321949857</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -11233,10 +11233,10 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>83.63942497583898</v>
+        <v>83.63942497583874</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>84.9458458910769</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11300,22 +11300,22 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>33.1590642492862</v>
       </c>
       <c r="M44" t="n">
-        <v>239.955119166208</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>423.0592551156417</v>
       </c>
       <c r="P44" t="n">
-        <v>418.3383206229274</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R44" t="n">
         <v>85.43134583487716</v>
@@ -11455,25 +11455,25 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>77.67194102076728</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>76.24414745277537</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>79.46394233070276</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>11.83562118411469</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23255,22 +23255,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>174.5285412724727</v>
+        <v>174.5285412724726</v>
       </c>
       <c r="C11" t="n">
-        <v>162.5398582301544</v>
+        <v>16.08988131948658</v>
       </c>
       <c r="D11" t="n">
-        <v>153.5211622746824</v>
+        <v>7.071185364014553</v>
       </c>
       <c r="E11" t="n">
-        <v>175.2632998445879</v>
+        <v>175.2632998445878</v>
       </c>
       <c r="F11" t="n">
-        <v>47.9851390218974</v>
+        <v>194.435115932565</v>
       </c>
       <c r="G11" t="n">
-        <v>49.39741975947992</v>
+        <v>195.8473966701475</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23309,22 +23309,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>4.260172663733058</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>36.72024109999242</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>118.0349185126518</v>
+        <v>118.0349185126517</v>
       </c>
       <c r="W11" t="n">
-        <v>143.3350179906087</v>
+        <v>143.3350179906086</v>
       </c>
       <c r="X11" t="n">
-        <v>142.2250756180254</v>
+        <v>36.75551247108262</v>
       </c>
       <c r="Y11" t="n">
-        <v>27.58189710888638</v>
+        <v>174.031874019554</v>
       </c>
     </row>
     <row r="12">
@@ -23498,19 +23498,19 @@
         <v>162.5398582301543</v>
       </c>
       <c r="D14" t="n">
-        <v>7.071185364014582</v>
+        <v>7.071185364014553</v>
       </c>
       <c r="E14" t="n">
         <v>175.2632998445878</v>
       </c>
       <c r="F14" t="n">
-        <v>194.435115932565</v>
+        <v>64.29517951656049</v>
       </c>
       <c r="G14" t="n">
-        <v>195.8473966701475</v>
+        <v>49.39741975947976</v>
       </c>
       <c r="H14" t="n">
-        <v>94.50975898726264</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23546,19 +23546,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>4.260172663732972</v>
+        <v>4.260172663732959</v>
       </c>
       <c r="U14" t="n">
-        <v>36.72024109999233</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>118.0349185126517</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>143.3350179906086</v>
       </c>
       <c r="X14" t="n">
-        <v>16.1852993126875</v>
+        <v>162.6352762233552</v>
       </c>
       <c r="Y14" t="n">
         <v>174.031874019554</v>
@@ -23789,7 +23789,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>3.499422973618493e-13</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -24026,7 +24026,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>-3.250733016102458e-13</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>886805.0075086912</v>
+        <v>886805.0075086914</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>886805.0075086914</v>
+        <v>886805.0075086912</v>
       </c>
     </row>
     <row r="7">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1140917.694725936</v>
+        <v>1140917.694725935</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1066652.15194763</v>
+        <v>1066652.151947629</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1066652.15194763</v>
+        <v>1066652.151947629</v>
       </c>
     </row>
   </sheetData>
@@ -26314,43 +26314,43 @@
         <v>325497.5683906043</v>
       </c>
       <c r="C2" t="n">
-        <v>325497.5683906043</v>
+        <v>325497.5683906045</v>
       </c>
       <c r="D2" t="n">
-        <v>325497.5683906043</v>
+        <v>325497.5683906044</v>
       </c>
       <c r="E2" t="n">
         <v>284446.8892009009</v>
       </c>
       <c r="F2" t="n">
-        <v>284446.889200901</v>
+        <v>284446.8892009009</v>
       </c>
       <c r="G2" t="n">
         <v>326240.2257100272</v>
       </c>
       <c r="H2" t="n">
-        <v>326240.2257100274</v>
+        <v>326240.2257100273</v>
       </c>
       <c r="I2" t="n">
         <v>326240.2257100273</v>
       </c>
       <c r="J2" t="n">
+        <v>326240.2257100276</v>
+      </c>
+      <c r="K2" t="n">
+        <v>326240.2257100273</v>
+      </c>
+      <c r="L2" t="n">
+        <v>326240.2257100278</v>
+      </c>
+      <c r="M2" t="n">
+        <v>326240.2257100275</v>
+      </c>
+      <c r="N2" t="n">
         <v>326240.2257100274</v>
       </c>
-      <c r="K2" t="n">
-        <v>326240.2257100274</v>
-      </c>
-      <c r="L2" t="n">
-        <v>326240.2257100277</v>
-      </c>
-      <c r="M2" t="n">
-        <v>326240.2257100273</v>
-      </c>
-      <c r="N2" t="n">
-        <v>326240.2257100275</v>
-      </c>
       <c r="O2" t="n">
-        <v>326240.2257100275</v>
+        <v>326240.2257100276</v>
       </c>
       <c r="P2" t="n">
         <v>326240.2257100274</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>320303.8499715891</v>
+        <v>320303.8499715895</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>172101.8825461391</v>
+        <v>172101.8825461392</v>
       </c>
       <c r="K3" t="n">
-        <v>5.5409215677243e-11</v>
+        <v>1.170374162029475e-10</v>
       </c>
       <c r="L3" t="n">
         <v>86866.35124606869</v>
       </c>
       <c r="M3" t="n">
-        <v>34974.95817814886</v>
+        <v>34974.9581781489</v>
       </c>
       <c r="N3" t="n">
         <v>6.821210263296962e-11</v>
       </c>
       <c r="O3" t="n">
-        <v>51921.40132280759</v>
+        <v>51921.40132280769</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,40 +26424,40 @@
         <v>437137.1652114342</v>
       </c>
       <c r="E4" t="n">
-        <v>337492.0798944829</v>
+        <v>337492.0798944827</v>
       </c>
       <c r="F4" t="n">
-        <v>337492.0798944829</v>
+        <v>337492.0798944827</v>
       </c>
       <c r="G4" t="n">
-        <v>393534.1149340969</v>
+        <v>393534.1149340965</v>
       </c>
       <c r="H4" t="n">
-        <v>393534.1149340968</v>
+        <v>393534.1149340967</v>
       </c>
       <c r="I4" t="n">
-        <v>393534.1149340968</v>
+        <v>393534.1149340965</v>
       </c>
       <c r="J4" t="n">
-        <v>401705.6227511127</v>
+        <v>401705.6227511123</v>
       </c>
       <c r="K4" t="n">
-        <v>401705.6227511128</v>
+        <v>401705.6227511123</v>
       </c>
       <c r="L4" t="n">
-        <v>401705.6227511127</v>
+        <v>401705.6227511123</v>
       </c>
       <c r="M4" t="n">
-        <v>397296.6362691747</v>
+        <v>397296.6362691744</v>
       </c>
       <c r="N4" t="n">
-        <v>397296.6362691749</v>
+        <v>397296.6362691745</v>
       </c>
       <c r="O4" t="n">
-        <v>397296.6362691749</v>
+        <v>397296.6362691745</v>
       </c>
       <c r="P4" t="n">
-        <v>397296.6362691747</v>
+        <v>397296.6362691744</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26476,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>29852.4796414584</v>
+        <v>29852.47964145842</v>
       </c>
       <c r="F5" t="n">
-        <v>29852.47964145841</v>
+        <v>29852.47964145842</v>
       </c>
       <c r="G5" t="n">
-        <v>38980.93874509061</v>
+        <v>38980.93874509063</v>
       </c>
       <c r="H5" t="n">
         <v>38980.93874509061</v>
       </c>
       <c r="I5" t="n">
-        <v>38980.93874509061</v>
+        <v>38980.93874509063</v>
       </c>
       <c r="J5" t="n">
-        <v>54241.18391543764</v>
+        <v>54241.18391543766</v>
       </c>
       <c r="K5" t="n">
-        <v>54241.18391543765</v>
+        <v>54241.18391543768</v>
       </c>
       <c r="L5" t="n">
-        <v>54241.18391543765</v>
+        <v>54241.18391543767</v>
       </c>
       <c r="M5" t="n">
-        <v>49012.41251811756</v>
+        <v>49012.41251811758</v>
       </c>
       <c r="N5" t="n">
-        <v>49012.41251811756</v>
+        <v>49012.41251811759</v>
       </c>
       <c r="O5" t="n">
-        <v>49012.41251811756</v>
+        <v>49012.41251811759</v>
       </c>
       <c r="P5" t="n">
-        <v>49012.41251811756</v>
+        <v>49012.41251811758</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-145267.1968208299</v>
+        <v>-145271.5653932971</v>
       </c>
       <c r="C6" t="n">
-        <v>-145267.1968208298</v>
+        <v>-145271.5653932969</v>
       </c>
       <c r="D6" t="n">
-        <v>-145267.1968208299</v>
+        <v>-145271.565393297</v>
       </c>
       <c r="E6" t="n">
-        <v>-403201.5203066295</v>
+        <v>-403447.3634625658</v>
       </c>
       <c r="F6" t="n">
-        <v>-82897.67033504024</v>
+        <v>-83143.51349097629</v>
       </c>
       <c r="G6" t="n">
-        <v>-193141.1792152291</v>
+        <v>-193141.1792152287</v>
       </c>
       <c r="H6" t="n">
         <v>-106274.82796916</v>
       </c>
       <c r="I6" t="n">
-        <v>-106274.8279691601</v>
+        <v>-106274.8279691598</v>
       </c>
       <c r="J6" t="n">
-        <v>-301808.463502662</v>
+        <v>-301808.4635026616</v>
       </c>
       <c r="K6" t="n">
-        <v>-129706.5809565231</v>
+        <v>-129706.5809565228</v>
       </c>
       <c r="L6" t="n">
-        <v>-216572.9322025914</v>
+        <v>-216572.9322025909</v>
       </c>
       <c r="M6" t="n">
-        <v>-155043.7812554138</v>
+        <v>-155043.7812554134</v>
       </c>
       <c r="N6" t="n">
-        <v>-120068.823077265</v>
+        <v>-120068.8230772648</v>
       </c>
       <c r="O6" t="n">
-        <v>-171990.2244000725</v>
+        <v>-171990.2244000721</v>
       </c>
       <c r="P6" t="n">
-        <v>-120068.8230772649</v>
+        <v>-120068.8230772645</v>
       </c>
     </row>
   </sheetData>
@@ -26692,7 +26692,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>215.5745628503663</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="F2" t="n">
         <v>215.5745628503664</v>
@@ -26710,7 +26710,7 @@
         <v>173.4846907110956</v>
       </c>
       <c r="K2" t="n">
-        <v>173.4846907110957</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="L2" t="n">
         <v>173.4846907110955</v>
@@ -26744,40 +26744,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>129.5955560102</v>
+        <v>129.5955560102004</v>
       </c>
       <c r="F3" t="n">
-        <v>129.5955560102</v>
+        <v>129.5955560102004</v>
       </c>
       <c r="G3" t="n">
-        <v>129.5955560102</v>
+        <v>129.5955560102011</v>
       </c>
       <c r="H3" t="n">
-        <v>129.5955560102</v>
+        <v>129.5955560102005</v>
       </c>
       <c r="I3" t="n">
-        <v>129.5955560102</v>
+        <v>129.5955560102011</v>
       </c>
       <c r="J3" t="n">
-        <v>129.5955560102</v>
+        <v>129.5955560102011</v>
       </c>
       <c r="K3" t="n">
-        <v>129.5955560102</v>
+        <v>129.5955560102011</v>
       </c>
       <c r="L3" t="n">
-        <v>129.5955560102</v>
+        <v>129.5955560102011</v>
       </c>
       <c r="M3" t="n">
-        <v>129.5955560102</v>
+        <v>129.5955560102011</v>
       </c>
       <c r="N3" t="n">
-        <v>129.5955560102</v>
+        <v>129.5955560102011</v>
       </c>
       <c r="O3" t="n">
-        <v>129.5955560102</v>
+        <v>129.5955560102011</v>
       </c>
       <c r="P3" t="n">
-        <v>129.5955560102</v>
+        <v>129.5955560102011</v>
       </c>
     </row>
     <row r="4">
@@ -26811,13 +26811,13 @@
         <v>146.4499769106677</v>
       </c>
       <c r="J4" t="n">
-        <v>605.7782291286874</v>
+        <v>605.7782291286871</v>
       </c>
       <c r="K4" t="n">
-        <v>605.7782291286875</v>
+        <v>605.7782291286876</v>
       </c>
       <c r="L4" t="n">
-        <v>605.7782291286875</v>
+        <v>605.7782291286876</v>
       </c>
       <c r="M4" t="n">
         <v>459.3282522180199</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>215.5745628503663</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>64.90175165350951</v>
+        <v>64.90175165350962</v>
       </c>
       <c r="K2" t="n">
-        <v>6.926151959655375e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>108.5829390575859</v>
       </c>
       <c r="M2" t="n">
-        <v>43.71869772268607</v>
+        <v>43.71869772268613</v>
       </c>
       <c r="N2" t="n">
         <v>8.526512829121202e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>64.90175165350948</v>
+        <v>64.90175165350962</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>129.5955560102</v>
+        <v>129.5955560102004</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,10 +27033,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>459.3282522180197</v>
+        <v>459.3282522180194</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>215.5745628503663</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>64.90175165350951</v>
+        <v>64.90175165350962</v>
       </c>
       <c r="P2" t="n">
-        <v>6.926151959655375e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -28087,76 +28087,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>215.5745628503663</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="C11" t="n">
-        <v>215.5745628503663</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="D11" t="n">
-        <v>215.5745628503663</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="E11" t="n">
-        <v>215.5745628503663</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="F11" t="n">
-        <v>215.5745628503663</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="G11" t="n">
-        <v>215.5745628503663</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="H11" t="n">
-        <v>215.5745628503663</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="I11" t="n">
-        <v>215.5745628503663</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="J11" t="n">
-        <v>215.5745628503663</v>
+        <v>102.8816634704623</v>
       </c>
       <c r="K11" t="n">
-        <v>191.0963917654329</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="L11" t="n">
-        <v>215.5745628503663</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="M11" t="n">
-        <v>95.67552786690371</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="N11" t="n">
-        <v>93.43707277407934</v>
+        <v>93.43707277407903</v>
       </c>
       <c r="O11" t="n">
-        <v>99.17432145262867</v>
+        <v>99.17432145262839</v>
       </c>
       <c r="P11" t="n">
-        <v>215.5745628503663</v>
+        <v>112.9582042322145</v>
       </c>
       <c r="Q11" t="n">
-        <v>124.3626208658184</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="R11" t="n">
-        <v>215.5745628503663</v>
+        <v>195.2946727954765</v>
       </c>
       <c r="S11" t="n">
-        <v>215.5745628503663</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="T11" t="n">
-        <v>215.5745628503663</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="U11" t="n">
-        <v>215.5745628503663</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="V11" t="n">
-        <v>215.5745628503663</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="W11" t="n">
-        <v>215.5745628503663</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="X11" t="n">
-        <v>215.5745628503663</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="Y11" t="n">
-        <v>215.5745628503663</v>
+        <v>215.5745628503664</v>
       </c>
     </row>
     <row r="12">
@@ -28181,55 +28181,55 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G12" t="n">
-        <v>162.4468142131773</v>
+        <v>127.1624622715678</v>
       </c>
       <c r="H12" t="n">
-        <v>96.24631459259479</v>
+        <v>96.24631459259477</v>
       </c>
       <c r="I12" t="n">
-        <v>71.2645270077352</v>
+        <v>71.26452700773517</v>
       </c>
       <c r="J12" t="n">
-        <v>76.71955400614105</v>
+        <v>76.71955400614097</v>
       </c>
       <c r="K12" t="n">
-        <v>66.98372024565222</v>
+        <v>66.98372024565207</v>
       </c>
       <c r="L12" t="n">
-        <v>52.05064111562938</v>
+        <v>52.05064111562918</v>
       </c>
       <c r="M12" t="n">
-        <v>44.85432453608092</v>
+        <v>44.85432453608068</v>
       </c>
       <c r="N12" t="n">
-        <v>34.21620827668144</v>
+        <v>34.2162082766812</v>
       </c>
       <c r="O12" t="n">
-        <v>49.53708892351376</v>
+        <v>49.53708892351355</v>
       </c>
       <c r="P12" t="n">
-        <v>55.62466529233118</v>
+        <v>55.62466529233101</v>
       </c>
       <c r="Q12" t="n">
-        <v>78.15265312299758</v>
+        <v>78.15265312299746</v>
       </c>
       <c r="R12" t="n">
         <v>101.057477245434</v>
       </c>
       <c r="S12" t="n">
-        <v>146.0937828749041</v>
+        <v>181.3781348165134</v>
       </c>
       <c r="T12" t="n">
         <v>185.6746837770579</v>
       </c>
       <c r="U12" t="n">
-        <v>215.5745628503663</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="V12" t="n">
-        <v>215.5745628503663</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="W12" t="n">
-        <v>215.5745628503663</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="X12" t="n">
         <v>195.9378182409833</v>
@@ -28248,13 +28248,13 @@
         <v>181.719814997536</v>
       </c>
       <c r="C13" t="n">
-        <v>215.5745628503663</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="D13" t="n">
-        <v>215.5745628503663</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E13" t="n">
-        <v>167.836519290451</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F13" t="n">
         <v>150.9558484244806</v>
@@ -28263,58 +28263,58 @@
         <v>166.9968542415478</v>
       </c>
       <c r="H13" t="n">
-        <v>155.7011408377324</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="I13" t="n">
-        <v>135.7331106864345</v>
+        <v>135.7331106864344</v>
       </c>
       <c r="J13" t="n">
-        <v>86.66140878686465</v>
+        <v>86.66140878686461</v>
       </c>
       <c r="K13" t="n">
-        <v>77.67194102076728</v>
+        <v>77.67194102076719</v>
       </c>
       <c r="L13" t="n">
-        <v>74.84944336390265</v>
+        <v>74.84944336390254</v>
       </c>
       <c r="M13" t="n">
-        <v>76.24414745277537</v>
+        <v>76.24414745277525</v>
       </c>
       <c r="N13" t="n">
-        <v>67.98250497112167</v>
+        <v>67.98250497112156</v>
       </c>
       <c r="O13" t="n">
-        <v>79.46394233070276</v>
+        <v>79.46394233070265</v>
       </c>
       <c r="P13" t="n">
-        <v>83.63942497583898</v>
+        <v>191.2774462356334</v>
       </c>
       <c r="Q13" t="n">
-        <v>103.5288848663846</v>
+        <v>103.5288848663845</v>
       </c>
       <c r="R13" t="n">
-        <v>215.5745628503663</v>
+        <v>137.5187009483811</v>
       </c>
       <c r="S13" t="n">
-        <v>215.5745628503663</v>
+        <v>207.4999652839304</v>
       </c>
       <c r="T13" t="n">
-        <v>215.5745628503663</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="U13" t="n">
-        <v>215.5745628503663</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="V13" t="n">
-        <v>215.5745628503663</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="W13" t="n">
-        <v>215.5745628503663</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="X13" t="n">
-        <v>215.5745628503663</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="Y13" t="n">
-        <v>215.5745628503663</v>
+        <v>215.5745628503664</v>
       </c>
     </row>
     <row r="14">
@@ -28348,25 +28348,25 @@
         <v>215.5745628503664</v>
       </c>
       <c r="J14" t="n">
-        <v>215.5745628503664</v>
+        <v>102.8816634704623</v>
       </c>
       <c r="K14" t="n">
-        <v>215.5745628503664</v>
+        <v>112.5514835405491</v>
       </c>
       <c r="L14" t="n">
-        <v>109.3445309366638</v>
+        <v>109.3445309366636</v>
       </c>
       <c r="M14" t="n">
-        <v>95.67552786690371</v>
+        <v>185.5311840031066</v>
       </c>
       <c r="N14" t="n">
-        <v>93.43707277407934</v>
+        <v>93.43707277407903</v>
       </c>
       <c r="O14" t="n">
         <v>215.5745628503664</v>
       </c>
       <c r="P14" t="n">
-        <v>112.9582042322147</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="Q14" t="n">
         <v>215.5745628503664</v>
@@ -28375,7 +28375,7 @@
         <v>215.5745628503664</v>
       </c>
       <c r="S14" t="n">
-        <v>192.330598915001</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="T14" t="n">
         <v>215.5745628503664</v>
@@ -28418,37 +28418,37 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G15" t="n">
-        <v>162.4468142131771</v>
+        <v>127.1624622715678</v>
       </c>
       <c r="H15" t="n">
-        <v>96.24631459259479</v>
+        <v>96.24631459259477</v>
       </c>
       <c r="I15" t="n">
-        <v>71.2645270077352</v>
+        <v>71.26452700773517</v>
       </c>
       <c r="J15" t="n">
-        <v>76.71955400614105</v>
+        <v>76.71955400614097</v>
       </c>
       <c r="K15" t="n">
-        <v>66.98372024565222</v>
+        <v>66.98372024565207</v>
       </c>
       <c r="L15" t="n">
-        <v>52.05064111562938</v>
+        <v>52.05064111562918</v>
       </c>
       <c r="M15" t="n">
-        <v>44.85432453608092</v>
+        <v>44.85432453608068</v>
       </c>
       <c r="N15" t="n">
-        <v>34.21620827668144</v>
+        <v>34.2162082766812</v>
       </c>
       <c r="O15" t="n">
-        <v>49.53708892351376</v>
+        <v>49.53708892351355</v>
       </c>
       <c r="P15" t="n">
-        <v>55.62466529233118</v>
+        <v>55.62466529233101</v>
       </c>
       <c r="Q15" t="n">
-        <v>78.15265312299758</v>
+        <v>78.15265312299746</v>
       </c>
       <c r="R15" t="n">
         <v>101.057477245434</v>
@@ -28457,7 +28457,7 @@
         <v>146.0937828749041</v>
       </c>
       <c r="T15" t="n">
-        <v>185.6746837770579</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="U15" t="n">
         <v>215.5745628503664</v>
@@ -28469,7 +28469,7 @@
         <v>215.5745628503664</v>
       </c>
       <c r="X15" t="n">
-        <v>195.9378182409833</v>
+        <v>201.3222911092842</v>
       </c>
       <c r="Y15" t="n">
         <v>190.5961130869169</v>
@@ -28482,19 +28482,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>215.5745628503664</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C16" t="n">
         <v>167.9198098429365</v>
       </c>
       <c r="D16" t="n">
-        <v>215.5745628503664</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E16" t="n">
-        <v>215.5745628503664</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F16" t="n">
-        <v>203.1482694875851</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G16" t="n">
         <v>166.9968542415478</v>
@@ -28503,34 +28503,34 @@
         <v>155.7011408377324</v>
       </c>
       <c r="I16" t="n">
-        <v>135.7331106864345</v>
+        <v>135.7331106864344</v>
       </c>
       <c r="J16" t="n">
-        <v>86.66140878686465</v>
+        <v>86.66140878686461</v>
       </c>
       <c r="K16" t="n">
-        <v>77.67194102076728</v>
+        <v>214.7822753986403</v>
       </c>
       <c r="L16" t="n">
-        <v>74.84944336390265</v>
+        <v>74.84944336390254</v>
       </c>
       <c r="M16" t="n">
-        <v>76.24414745277537</v>
+        <v>76.24414745277525</v>
       </c>
       <c r="N16" t="n">
-        <v>67.98250497112167</v>
+        <v>67.98250497112156</v>
       </c>
       <c r="O16" t="n">
-        <v>79.46394233070276</v>
+        <v>79.46394233070265</v>
       </c>
       <c r="P16" t="n">
-        <v>83.63942497583898</v>
+        <v>83.63942497583889</v>
       </c>
       <c r="Q16" t="n">
-        <v>103.5288848663846</v>
+        <v>103.5288848663845</v>
       </c>
       <c r="R16" t="n">
-        <v>137.5187009483812</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="S16" t="n">
         <v>207.4999652839304</v>
@@ -28582,40 +28582,40 @@
         <v>324.1575019079523</v>
       </c>
       <c r="I17" t="n">
-        <v>151.0036693235604</v>
+        <v>151.0036693235602</v>
       </c>
       <c r="J17" t="n">
-        <v>102.8816634704624</v>
+        <v>102.881663470462</v>
       </c>
       <c r="K17" t="n">
-        <v>112.5514835405493</v>
+        <v>112.5514835405487</v>
       </c>
       <c r="L17" t="n">
-        <v>109.3445309366638</v>
+        <v>109.3445309366631</v>
       </c>
       <c r="M17" t="n">
-        <v>242.1255047775714</v>
+        <v>95.67552786690291</v>
       </c>
       <c r="N17" t="n">
-        <v>239.8870496847471</v>
+        <v>93.43707277407853</v>
       </c>
       <c r="O17" t="n">
-        <v>245.6242983632964</v>
+        <v>99.17432145262791</v>
       </c>
       <c r="P17" t="n">
-        <v>112.9582042322147</v>
+        <v>112.9582042322141</v>
       </c>
       <c r="Q17" t="n">
-        <v>193.0327290346231</v>
+        <v>270.8125977764857</v>
       </c>
       <c r="R17" t="n">
-        <v>142.436789794683</v>
+        <v>253.2341084803022</v>
       </c>
       <c r="S17" t="n">
-        <v>173.4846907110956</v>
+        <v>319.9346676217632</v>
       </c>
       <c r="T17" t="n">
-        <v>219.8347355140993</v>
+        <v>324.1575019079523</v>
       </c>
       <c r="U17" t="n">
         <v>324.1575019079523</v>
@@ -28658,37 +28658,37 @@
         <v>127.1624622715678</v>
       </c>
       <c r="H18" t="n">
-        <v>96.24631459259479</v>
+        <v>96.24631459259476</v>
       </c>
       <c r="I18" t="n">
-        <v>71.2645270077352</v>
+        <v>71.26452700773511</v>
       </c>
       <c r="J18" t="n">
-        <v>76.71955400614105</v>
+        <v>76.71955400614083</v>
       </c>
       <c r="K18" t="n">
-        <v>66.98372024565222</v>
+        <v>66.98372024565182</v>
       </c>
       <c r="L18" t="n">
-        <v>52.05064111562938</v>
+        <v>52.05064111562886</v>
       </c>
       <c r="M18" t="n">
-        <v>44.85432453608092</v>
+        <v>44.8543245360803</v>
       </c>
       <c r="N18" t="n">
-        <v>34.21620827668144</v>
+        <v>34.2162082766808</v>
       </c>
       <c r="O18" t="n">
-        <v>49.53708892351376</v>
+        <v>49.53708892351318</v>
       </c>
       <c r="P18" t="n">
-        <v>55.62466529233118</v>
+        <v>55.62466529233072</v>
       </c>
       <c r="Q18" t="n">
-        <v>78.15265312299758</v>
+        <v>78.15265312299726</v>
       </c>
       <c r="R18" t="n">
-        <v>101.057477245434</v>
+        <v>101.0574772454339</v>
       </c>
       <c r="S18" t="n">
         <v>146.0937828749041</v>
@@ -28740,34 +28740,34 @@
         <v>155.7011408377324</v>
       </c>
       <c r="I19" t="n">
-        <v>135.7331106864345</v>
+        <v>135.7331106864344</v>
       </c>
       <c r="J19" t="n">
-        <v>86.66140878686465</v>
+        <v>86.66140878686451</v>
       </c>
       <c r="K19" t="n">
-        <v>77.67194102076728</v>
+        <v>77.67194102076704</v>
       </c>
       <c r="L19" t="n">
-        <v>74.84944336390265</v>
+        <v>74.84944336390234</v>
       </c>
       <c r="M19" t="n">
-        <v>76.24414745277537</v>
+        <v>76.24414745277505</v>
       </c>
       <c r="N19" t="n">
-        <v>67.98250497112167</v>
+        <v>67.98250497112136</v>
       </c>
       <c r="O19" t="n">
-        <v>79.46394233070276</v>
+        <v>79.46394233070248</v>
       </c>
       <c r="P19" t="n">
-        <v>83.63942497583898</v>
+        <v>83.63942497583874</v>
       </c>
       <c r="Q19" t="n">
-        <v>103.5288848663846</v>
+        <v>103.5288848663844</v>
       </c>
       <c r="R19" t="n">
-        <v>137.5187009483812</v>
+        <v>137.5187009483811</v>
       </c>
       <c r="S19" t="n">
         <v>207.4999652839304</v>
@@ -28819,40 +28819,40 @@
         <v>324.1575019079523</v>
       </c>
       <c r="I20" t="n">
-        <v>151.0036693235604</v>
+        <v>297.453646234228</v>
       </c>
       <c r="J20" t="n">
-        <v>102.8816634704624</v>
+        <v>102.8816634704623</v>
       </c>
       <c r="K20" t="n">
-        <v>259.001460451217</v>
+        <v>112.551483540549</v>
       </c>
       <c r="L20" t="n">
-        <v>109.3445309366638</v>
+        <v>109.3445309366635</v>
       </c>
       <c r="M20" t="n">
-        <v>95.67552786690371</v>
+        <v>95.67552786690332</v>
       </c>
       <c r="N20" t="n">
-        <v>93.43707277407934</v>
+        <v>93.43707277407896</v>
       </c>
       <c r="O20" t="n">
-        <v>99.17432145262867</v>
+        <v>99.17432145262832</v>
       </c>
       <c r="P20" t="n">
-        <v>112.9582042322147</v>
+        <v>112.9582042322144</v>
       </c>
       <c r="Q20" t="n">
-        <v>124.3626208658184</v>
+        <v>193.0327290346229</v>
       </c>
       <c r="R20" t="n">
-        <v>288.8867667053507</v>
+        <v>288.8867667053506</v>
       </c>
       <c r="S20" t="n">
         <v>319.9346676217633</v>
       </c>
       <c r="T20" t="n">
-        <v>288.504843682904</v>
+        <v>219.8347355140993</v>
       </c>
       <c r="U20" t="n">
         <v>324.1575019079523</v>
@@ -28895,37 +28895,37 @@
         <v>127.1624622715678</v>
       </c>
       <c r="H21" t="n">
-        <v>96.24631459259479</v>
+        <v>96.24631459259477</v>
       </c>
       <c r="I21" t="n">
-        <v>71.2645270077352</v>
+        <v>71.26452700773515</v>
       </c>
       <c r="J21" t="n">
-        <v>76.71955400614105</v>
+        <v>76.71955400614094</v>
       </c>
       <c r="K21" t="n">
-        <v>66.98372024565222</v>
+        <v>66.98372024565202</v>
       </c>
       <c r="L21" t="n">
-        <v>52.05064111562938</v>
+        <v>52.05064111562913</v>
       </c>
       <c r="M21" t="n">
-        <v>44.85432453608092</v>
+        <v>44.85432453608063</v>
       </c>
       <c r="N21" t="n">
-        <v>34.21620827668144</v>
+        <v>34.21620827668114</v>
       </c>
       <c r="O21" t="n">
-        <v>49.53708892351376</v>
+        <v>49.53708892351349</v>
       </c>
       <c r="P21" t="n">
-        <v>55.62466529233118</v>
+        <v>55.62466529233096</v>
       </c>
       <c r="Q21" t="n">
-        <v>78.15265312299758</v>
+        <v>78.15265312299744</v>
       </c>
       <c r="R21" t="n">
-        <v>101.057477245434</v>
+        <v>101.0574772454339</v>
       </c>
       <c r="S21" t="n">
         <v>146.0937828749041</v>
@@ -28977,34 +28977,34 @@
         <v>155.7011408377324</v>
       </c>
       <c r="I22" t="n">
-        <v>135.7331106864345</v>
+        <v>135.7331106864344</v>
       </c>
       <c r="J22" t="n">
-        <v>86.66140878686465</v>
+        <v>86.6614087868646</v>
       </c>
       <c r="K22" t="n">
-        <v>77.67194102076728</v>
+        <v>77.67194102076716</v>
       </c>
       <c r="L22" t="n">
-        <v>74.84944336390265</v>
+        <v>74.84944336390251</v>
       </c>
       <c r="M22" t="n">
-        <v>76.24414745277537</v>
+        <v>76.24414745277522</v>
       </c>
       <c r="N22" t="n">
-        <v>67.98250497112167</v>
+        <v>67.98250497112153</v>
       </c>
       <c r="O22" t="n">
-        <v>79.46394233070276</v>
+        <v>79.46394233070262</v>
       </c>
       <c r="P22" t="n">
-        <v>83.63942497583898</v>
+        <v>83.63942497583886</v>
       </c>
       <c r="Q22" t="n">
-        <v>103.5288848663846</v>
+        <v>103.5288848663845</v>
       </c>
       <c r="R22" t="n">
-        <v>137.5187009483812</v>
+        <v>137.5187009483811</v>
       </c>
       <c r="S22" t="n">
         <v>207.4999652839304</v>
@@ -29056,43 +29056,43 @@
         <v>324.1575019079523</v>
       </c>
       <c r="I23" t="n">
-        <v>151.0036693235604</v>
+        <v>297.4536462342279</v>
       </c>
       <c r="J23" t="n">
-        <v>102.8816634704624</v>
+        <v>102.881663470462</v>
       </c>
       <c r="K23" t="n">
-        <v>181.221591709354</v>
+        <v>259.0014604512165</v>
       </c>
       <c r="L23" t="n">
-        <v>109.3445309366638</v>
+        <v>255.7945078473309</v>
       </c>
       <c r="M23" t="n">
-        <v>95.67552786690371</v>
+        <v>95.67552786690291</v>
       </c>
       <c r="N23" t="n">
-        <v>93.43707277407934</v>
+        <v>93.43707277407853</v>
       </c>
       <c r="O23" t="n">
-        <v>245.6242983632964</v>
+        <v>99.17432145262791</v>
       </c>
       <c r="P23" t="n">
-        <v>112.9582042322147</v>
+        <v>149.1682439647594</v>
       </c>
       <c r="Q23" t="n">
-        <v>270.8125977764861</v>
+        <v>124.3626208658179</v>
       </c>
       <c r="R23" t="n">
-        <v>288.8867667053506</v>
+        <v>142.4367897946827</v>
       </c>
       <c r="S23" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="T23" t="n">
-        <v>219.8347355140993</v>
+        <v>324.1575019079523</v>
       </c>
       <c r="U23" t="n">
-        <v>324.1575019079523</v>
+        <v>252.2948039503587</v>
       </c>
       <c r="V23" t="n">
         <v>324.1575019079523</v>
@@ -29132,37 +29132,37 @@
         <v>127.1624622715678</v>
       </c>
       <c r="H24" t="n">
-        <v>96.24631459259479</v>
+        <v>96.24631459259476</v>
       </c>
       <c r="I24" t="n">
-        <v>71.2645270077352</v>
+        <v>71.26452700773511</v>
       </c>
       <c r="J24" t="n">
-        <v>76.71955400614105</v>
+        <v>76.71955400614083</v>
       </c>
       <c r="K24" t="n">
-        <v>66.98372024565222</v>
+        <v>66.98372024565182</v>
       </c>
       <c r="L24" t="n">
-        <v>52.05064111562938</v>
+        <v>52.05064111562886</v>
       </c>
       <c r="M24" t="n">
-        <v>44.85432453608092</v>
+        <v>44.8543245360803</v>
       </c>
       <c r="N24" t="n">
-        <v>34.21620827668144</v>
+        <v>34.2162082766808</v>
       </c>
       <c r="O24" t="n">
-        <v>49.53708892351376</v>
+        <v>49.53708892351318</v>
       </c>
       <c r="P24" t="n">
-        <v>55.62466529233118</v>
+        <v>55.62466529233072</v>
       </c>
       <c r="Q24" t="n">
-        <v>78.15265312299758</v>
+        <v>78.15265312299726</v>
       </c>
       <c r="R24" t="n">
-        <v>101.057477245434</v>
+        <v>101.0574772454339</v>
       </c>
       <c r="S24" t="n">
         <v>146.0937828749041</v>
@@ -29214,34 +29214,34 @@
         <v>155.7011408377324</v>
       </c>
       <c r="I25" t="n">
-        <v>135.7331106864345</v>
+        <v>135.7331106864344</v>
       </c>
       <c r="J25" t="n">
-        <v>86.66140878686465</v>
+        <v>86.66140878686451</v>
       </c>
       <c r="K25" t="n">
-        <v>77.67194102076728</v>
+        <v>77.67194102076704</v>
       </c>
       <c r="L25" t="n">
-        <v>74.84944336390265</v>
+        <v>74.84944336390234</v>
       </c>
       <c r="M25" t="n">
-        <v>76.24414745277537</v>
+        <v>76.24414745277505</v>
       </c>
       <c r="N25" t="n">
-        <v>67.98250497112167</v>
+        <v>67.98250497112136</v>
       </c>
       <c r="O25" t="n">
-        <v>79.46394233070276</v>
+        <v>79.46394233070248</v>
       </c>
       <c r="P25" t="n">
-        <v>83.63942497583898</v>
+        <v>83.63942497583874</v>
       </c>
       <c r="Q25" t="n">
-        <v>103.5288848663846</v>
+        <v>103.5288848663844</v>
       </c>
       <c r="R25" t="n">
-        <v>137.5187009483812</v>
+        <v>137.5187009483811</v>
       </c>
       <c r="S25" t="n">
         <v>207.4999652839304</v>
@@ -29296,22 +29296,22 @@
         <v>173.4846907110956</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="K26" t="n">
-        <v>166.4615578936778</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="M26" t="n">
-        <v>117.0861634549088</v>
+        <v>117.0861634549078</v>
       </c>
       <c r="N26" t="n">
         <v>173.4846907110956</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>79.00047354676133</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -29351,7 +29351,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>157.8252483534483</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="C27" t="n">
         <v>160.0866360314548</v>
@@ -29369,40 +29369,40 @@
         <v>127.1624622715678</v>
       </c>
       <c r="H27" t="n">
-        <v>96.24631459259477</v>
+        <v>96.24631459259476</v>
       </c>
       <c r="I27" t="n">
-        <v>71.2645270077352</v>
+        <v>71.26452700773511</v>
       </c>
       <c r="J27" t="n">
+        <v>76.71955400614083</v>
+      </c>
+      <c r="K27" t="n">
+        <v>66.98372024565182</v>
+      </c>
+      <c r="L27" t="n">
+        <v>52.05064111562886</v>
+      </c>
+      <c r="M27" t="n">
+        <v>44.8543245360803</v>
+      </c>
+      <c r="N27" t="n">
+        <v>34.2162082766808</v>
+      </c>
+      <c r="O27" t="n">
+        <v>49.53708892351318</v>
+      </c>
+      <c r="P27" t="n">
+        <v>97.8920537507331</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>78.15265312299726</v>
+      </c>
+      <c r="R27" t="n">
         <v>173.4846907110956</v>
       </c>
-      <c r="K27" t="n">
-        <v>66.98372024565219</v>
-      </c>
-      <c r="L27" t="n">
-        <v>52.05064111562936</v>
-      </c>
-      <c r="M27" t="n">
-        <v>165.0123107037466</v>
-      </c>
-      <c r="N27" t="n">
-        <v>34.21620827668141</v>
-      </c>
-      <c r="O27" t="n">
-        <v>49.53708892351374</v>
-      </c>
-      <c r="P27" t="n">
-        <v>55.62466529233116</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>78.15265312299758</v>
-      </c>
-      <c r="R27" t="n">
-        <v>101.057477245434</v>
-      </c>
       <c r="S27" t="n">
-        <v>146.0937828749041</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="T27" t="n">
         <v>173.4846907110956</v>
@@ -29451,34 +29451,34 @@
         <v>155.7011408377324</v>
       </c>
       <c r="I28" t="n">
-        <v>135.7331106864345</v>
+        <v>135.7331106864344</v>
       </c>
       <c r="J28" t="n">
-        <v>86.66140878686465</v>
+        <v>86.66140878686451</v>
       </c>
       <c r="K28" t="n">
-        <v>77.67194102076726</v>
+        <v>77.67194102076704</v>
       </c>
       <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>118.3805577808635</v>
+      </c>
+      <c r="R28" t="n">
         <v>173.4846907110956</v>
-      </c>
-      <c r="M28" t="n">
-        <v>173.4846907110956</v>
-      </c>
-      <c r="N28" t="n">
-        <v>173.4846907110956</v>
-      </c>
-      <c r="O28" t="n">
-        <v>173.4846907110956</v>
-      </c>
-      <c r="P28" t="n">
-        <v>113.0333167991546</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>103.5288848663845</v>
-      </c>
-      <c r="R28" t="n">
-        <v>137.5187009483811</v>
       </c>
       <c r="S28" t="n">
         <v>173.4846907110956</v>
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>173.4846907110957</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="C29" t="n">
-        <v>173.4846907110957</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="D29" t="n">
-        <v>173.4846907110957</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="E29" t="n">
-        <v>173.4846907110957</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="F29" t="n">
-        <v>173.4846907110957</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="G29" t="n">
-        <v>173.4846907110957</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="H29" t="n">
-        <v>173.4846907110957</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="I29" t="n">
-        <v>173.4846907110957</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="L29" t="n">
-        <v>117.2708414612165</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>173.4846907110957</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="N29" t="n">
-        <v>173.4846907110957</v>
+        <v>130.6643001671868</v>
       </c>
       <c r="O29" t="n">
-        <v>173.4846907110957</v>
+        <v>32.03074774060605</v>
       </c>
       <c r="P29" t="n">
-        <v>173.4846907110957</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="R29" t="n">
-        <v>173.4846907110957</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="S29" t="n">
-        <v>173.4846907110957</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="T29" t="n">
-        <v>173.4846907110957</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="U29" t="n">
-        <v>173.4846907110957</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="V29" t="n">
-        <v>173.4846907110957</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="W29" t="n">
-        <v>173.4846907110957</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="X29" t="n">
-        <v>173.4846907110957</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="Y29" t="n">
-        <v>173.4846907110957</v>
+        <v>173.4846907110956</v>
       </c>
     </row>
     <row r="30">
@@ -29606,58 +29606,58 @@
         <v>127.1624622715678</v>
       </c>
       <c r="H30" t="n">
-        <v>96.24631459259479</v>
+        <v>96.24631459259476</v>
       </c>
       <c r="I30" t="n">
-        <v>71.2645270077352</v>
+        <v>71.26452700773511</v>
       </c>
       <c r="J30" t="n">
-        <v>76.71955400614105</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="K30" t="n">
-        <v>173.4846907110957</v>
+        <v>66.98372024565182</v>
       </c>
       <c r="L30" t="n">
-        <v>52.05064111562938</v>
+        <v>52.05064111562886</v>
       </c>
       <c r="M30" t="n">
-        <v>44.85432453608092</v>
+        <v>44.8543245360803</v>
       </c>
       <c r="N30" t="n">
-        <v>34.21620827668144</v>
+        <v>34.2162082766808</v>
       </c>
       <c r="O30" t="n">
-        <v>159.9592413306901</v>
+        <v>49.53708892351318</v>
       </c>
       <c r="P30" t="n">
-        <v>55.62466529233118</v>
+        <v>55.62466529233072</v>
       </c>
       <c r="Q30" t="n">
-        <v>78.15265312299758</v>
+        <v>78.15265312299726</v>
       </c>
       <c r="R30" t="n">
-        <v>101.057477245434</v>
+        <v>101.0574772454339</v>
       </c>
       <c r="S30" t="n">
         <v>146.0937828749041</v>
       </c>
       <c r="T30" t="n">
-        <v>173.4846907110957</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="U30" t="n">
-        <v>173.4846907110957</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="V30" t="n">
-        <v>173.4846907110957</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="W30" t="n">
-        <v>173.4846907110957</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="X30" t="n">
-        <v>173.4846907110957</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="Y30" t="n">
-        <v>173.4846907110957</v>
+        <v>173.4846907110956</v>
       </c>
     </row>
     <row r="31">
@@ -29667,31 +29667,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>173.4846907110957</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="C31" t="n">
-        <v>173.4846907110957</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D31" t="n">
-        <v>173.4846907110957</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E31" t="n">
-        <v>173.4846907110957</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F31" t="n">
-        <v>173.4846907110957</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G31" t="n">
         <v>166.9968542415478</v>
       </c>
       <c r="H31" t="n">
-        <v>173.4846907110957</v>
+        <v>155.7011408377324</v>
       </c>
       <c r="I31" t="n">
-        <v>173.4846907110957</v>
+        <v>135.7331106864344</v>
       </c>
       <c r="J31" t="n">
-        <v>173.4846907110957</v>
+        <v>86.66140878686451</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -29706,37 +29706,37 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="Q31" t="n">
-        <v>173.4846907110957</v>
+        <v>103.5288848663844</v>
       </c>
       <c r="R31" t="n">
-        <v>137.5187009483812</v>
+        <v>137.5187009483811</v>
       </c>
       <c r="S31" t="n">
-        <v>173.4846907110957</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="T31" t="n">
-        <v>173.4846907110957</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="U31" t="n">
-        <v>173.4846907110957</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="V31" t="n">
-        <v>173.4846907110957</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="W31" t="n">
-        <v>173.4846907110957</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="X31" t="n">
-        <v>173.4846907110957</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="Y31" t="n">
-        <v>173.4846907110957</v>
+        <v>173.4846907110956</v>
       </c>
     </row>
     <row r="32">
@@ -29770,34 +29770,34 @@
         <v>173.4846907110955</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="M32" t="n">
-        <v>130.174715535523</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="N32" t="n">
-        <v>173.4846907110955</v>
+        <v>107.9903427494766</v>
       </c>
       <c r="O32" t="n">
-        <v>173.4846907110955</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>173.4846907110955</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>173.4846907110955</v>
+        <v>124.3626208658179</v>
       </c>
       <c r="R32" t="n">
         <v>173.4846907110955</v>
       </c>
       <c r="S32" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="T32" t="n">
         <v>173.4846907110955</v>
@@ -29837,43 +29837,43 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F33" t="n">
-        <v>133.3468600696244</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="G33" t="n">
         <v>127.1624622715678</v>
       </c>
       <c r="H33" t="n">
-        <v>96.24631459259479</v>
+        <v>96.24631459259476</v>
       </c>
       <c r="I33" t="n">
-        <v>71.2645270077352</v>
+        <v>71.26452700773511</v>
       </c>
       <c r="J33" t="n">
+        <v>76.71955400614083</v>
+      </c>
+      <c r="K33" t="n">
         <v>173.4846907110955</v>
       </c>
-      <c r="K33" t="n">
-        <v>66.98372024565222</v>
-      </c>
       <c r="L33" t="n">
-        <v>172.2086272832954</v>
+        <v>52.05064111562886</v>
       </c>
       <c r="M33" t="n">
-        <v>44.85432453608092</v>
+        <v>44.8543245360803</v>
       </c>
       <c r="N33" t="n">
-        <v>34.21620827668144</v>
+        <v>34.2162082766808</v>
       </c>
       <c r="O33" t="n">
-        <v>49.53708892351376</v>
+        <v>49.53708892351318</v>
       </c>
       <c r="P33" t="n">
-        <v>55.62466529233118</v>
+        <v>55.62466529233072</v>
       </c>
       <c r="Q33" t="n">
-        <v>78.15265312299758</v>
+        <v>78.15265312299726</v>
       </c>
       <c r="R33" t="n">
-        <v>101.057477245434</v>
+        <v>101.0574772454339</v>
       </c>
       <c r="S33" t="n">
         <v>146.0937828749041</v>
@@ -29907,7 +29907,7 @@
         <v>173.4846907110955</v>
       </c>
       <c r="C34" t="n">
-        <v>173.4846907110955</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D34" t="n">
         <v>151.5411742405149</v>
@@ -29922,37 +29922,37 @@
         <v>173.4846907110955</v>
       </c>
       <c r="H34" t="n">
-        <v>155.7011408377324</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="I34" t="n">
         <v>173.4846907110955</v>
       </c>
       <c r="J34" t="n">
+        <v>42.93429506732419</v>
+      </c>
+      <c r="K34" t="n">
         <v>173.4846907110955</v>
       </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>74.84944336390234</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>79.46394233070248</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>83.63942497583874</v>
       </c>
       <c r="Q34" t="n">
-        <v>173.4846907110955</v>
+        <v>103.5288848663844</v>
       </c>
       <c r="R34" t="n">
-        <v>173.4846907110955</v>
+        <v>137.5187009483811</v>
       </c>
       <c r="S34" t="n">
         <v>173.4846907110955</v>
@@ -30004,25 +30004,25 @@
         <v>217.2033884337816</v>
       </c>
       <c r="I35" t="n">
-        <v>151.0036693235604</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="J35" t="n">
         <v>217.2033884337816</v>
       </c>
       <c r="K35" t="n">
-        <v>217.2033884337816</v>
+        <v>171.4750850209057</v>
       </c>
       <c r="L35" t="n">
         <v>217.2033884337816</v>
       </c>
       <c r="M35" t="n">
-        <v>211.9102669000607</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="N35" t="n">
         <v>217.2033884337816</v>
       </c>
       <c r="O35" t="n">
-        <v>215.2424585379269</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -30077,40 +30077,40 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G36" t="n">
-        <v>158.3915200591499</v>
+        <v>127.1624622715678</v>
       </c>
       <c r="H36" t="n">
-        <v>96.24631459259479</v>
+        <v>127.4753723801768</v>
       </c>
       <c r="I36" t="n">
-        <v>71.2645270077352</v>
+        <v>71.26452700773511</v>
       </c>
       <c r="J36" t="n">
-        <v>76.71955400614105</v>
+        <v>76.71955400614083</v>
       </c>
       <c r="K36" t="n">
-        <v>66.98372024565222</v>
+        <v>66.98372024565182</v>
       </c>
       <c r="L36" t="n">
-        <v>52.05064111562938</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>44.85432453608092</v>
+        <v>44.8543245360803</v>
       </c>
       <c r="N36" t="n">
-        <v>34.21620827668144</v>
+        <v>34.2162082766808</v>
       </c>
       <c r="O36" t="n">
-        <v>49.53708892351376</v>
+        <v>49.53708892351318</v>
       </c>
       <c r="P36" t="n">
-        <v>55.62466529233118</v>
+        <v>55.62466529233072</v>
       </c>
       <c r="Q36" t="n">
-        <v>78.15265312299758</v>
+        <v>78.15265312299726</v>
       </c>
       <c r="R36" t="n">
-        <v>101.057477245434</v>
+        <v>101.0574772454339</v>
       </c>
       <c r="S36" t="n">
         <v>146.0937828749041</v>
@@ -30159,40 +30159,40 @@
         <v>166.9968542415478</v>
       </c>
       <c r="H37" t="n">
-        <v>155.7011408377324</v>
+        <v>190.0375646920456</v>
       </c>
       <c r="I37" t="n">
-        <v>135.7331106864345</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="J37" t="n">
-        <v>86.66140878686465</v>
+        <v>86.66140878686451</v>
       </c>
       <c r="K37" t="n">
-        <v>77.67194102076728</v>
+        <v>77.67194102076704</v>
       </c>
       <c r="L37" t="n">
-        <v>74.84944336390265</v>
+        <v>74.84944336390234</v>
       </c>
       <c r="M37" t="n">
-        <v>76.24414745277537</v>
+        <v>76.24414745277505</v>
       </c>
       <c r="N37" t="n">
-        <v>67.98250497112167</v>
+        <v>67.98250497112136</v>
       </c>
       <c r="O37" t="n">
-        <v>170.9842510002179</v>
+        <v>79.46394233070248</v>
       </c>
       <c r="P37" t="n">
-        <v>83.63942497583898</v>
+        <v>83.63942497583874</v>
       </c>
       <c r="Q37" t="n">
+        <v>103.5288848663844</v>
+      </c>
+      <c r="R37" t="n">
         <v>217.2033884337816</v>
       </c>
-      <c r="R37" t="n">
-        <v>137.5187009483812</v>
-      </c>
       <c r="S37" t="n">
-        <v>207.4999652839304</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="T37" t="n">
         <v>217.2033884337816</v>
@@ -30241,13 +30241,13 @@
         <v>217.2033884337817</v>
       </c>
       <c r="I38" t="n">
-        <v>217.2033884337817</v>
+        <v>187.4683156166768</v>
       </c>
       <c r="J38" t="n">
         <v>217.2033884337817</v>
       </c>
       <c r="K38" t="n">
-        <v>217.2033884337817</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>217.2033884337817</v>
@@ -30259,19 +30259,19 @@
         <v>217.2033884337817</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="P38" t="n">
         <v>217.2033884337817</v>
       </c>
       <c r="Q38" t="n">
-        <v>194.6958001660228</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="R38" t="n">
         <v>217.2033884337817</v>
       </c>
       <c r="S38" t="n">
-        <v>217.2033884337817</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="T38" t="n">
         <v>217.2033884337817</v>
@@ -30317,37 +30317,37 @@
         <v>127.1624622715678</v>
       </c>
       <c r="H39" t="n">
-        <v>96.24631459259479</v>
+        <v>96.24631459259476</v>
       </c>
       <c r="I39" t="n">
-        <v>71.2645270077352</v>
+        <v>102.493584795317</v>
       </c>
       <c r="J39" t="n">
-        <v>76.71955400614105</v>
+        <v>76.71955400614083</v>
       </c>
       <c r="K39" t="n">
-        <v>66.98372024565222</v>
+        <v>66.98372024565182</v>
       </c>
       <c r="L39" t="n">
-        <v>52.05064111562938</v>
+        <v>52.05064111562886</v>
       </c>
       <c r="M39" t="n">
-        <v>44.85432453608092</v>
+        <v>44.8543245360803</v>
       </c>
       <c r="N39" t="n">
-        <v>34.21620827668144</v>
+        <v>34.2162082766808</v>
       </c>
       <c r="O39" t="n">
-        <v>49.53708892351376</v>
+        <v>49.53708892351318</v>
       </c>
       <c r="P39" t="n">
-        <v>55.62466529233118</v>
+        <v>55.62466529233072</v>
       </c>
       <c r="Q39" t="n">
-        <v>78.15265312299758</v>
+        <v>78.15265312299726</v>
       </c>
       <c r="R39" t="n">
-        <v>132.2865350330159</v>
+        <v>101.0574772454339</v>
       </c>
       <c r="S39" t="n">
         <v>146.0937828749041</v>
@@ -30399,34 +30399,34 @@
         <v>155.7011408377324</v>
       </c>
       <c r="I40" t="n">
-        <v>135.7331106864345</v>
+        <v>135.7331106864344</v>
       </c>
       <c r="J40" t="n">
-        <v>86.66140878686465</v>
+        <v>178.1817174563789</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>77.67194102076704</v>
       </c>
       <c r="L40" t="n">
-        <v>74.84944336390265</v>
+        <v>74.84944336390234</v>
       </c>
       <c r="M40" t="n">
-        <v>76.24414745277537</v>
+        <v>76.24414745277505</v>
       </c>
       <c r="N40" t="n">
-        <v>67.98250497112167</v>
+        <v>67.98250497112136</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>79.46394233070248</v>
       </c>
       <c r="P40" t="n">
-        <v>83.63942497583898</v>
+        <v>83.63942497583874</v>
       </c>
       <c r="Q40" t="n">
         <v>217.2033884337817</v>
       </c>
       <c r="R40" t="n">
-        <v>217.2033884337817</v>
+        <v>137.5187009483811</v>
       </c>
       <c r="S40" t="n">
         <v>207.4999652839304</v>
@@ -30487,16 +30487,16 @@
         <v>217.2033884337817</v>
       </c>
       <c r="L41" t="n">
-        <v>217.2033884337817</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>194.5793478036138</v>
       </c>
       <c r="N41" t="n">
         <v>217.2033884337817</v>
       </c>
       <c r="O41" t="n">
-        <v>209.8238361364468</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="P41" t="n">
         <v>217.2033884337817</v>
@@ -30554,37 +30554,37 @@
         <v>127.1624622715678</v>
       </c>
       <c r="H42" t="n">
-        <v>96.24631459259479</v>
+        <v>96.24631459259476</v>
       </c>
       <c r="I42" t="n">
-        <v>71.2645270077352</v>
+        <v>71.26452700773511</v>
       </c>
       <c r="J42" t="n">
-        <v>76.71955400614105</v>
+        <v>76.71955400614083</v>
       </c>
       <c r="K42" t="n">
-        <v>66.98372024565222</v>
+        <v>66.98372024565182</v>
       </c>
       <c r="L42" t="n">
-        <v>52.05064111562938</v>
+        <v>52.05064111562886</v>
       </c>
       <c r="M42" t="n">
-        <v>44.85432453608092</v>
+        <v>44.8543245360803</v>
       </c>
       <c r="N42" t="n">
-        <v>65.44526606426341</v>
+        <v>34.2162082766808</v>
       </c>
       <c r="O42" t="n">
-        <v>49.53708892351376</v>
+        <v>49.53708892351318</v>
       </c>
       <c r="P42" t="n">
-        <v>55.62466529233118</v>
+        <v>55.62466529233072</v>
       </c>
       <c r="Q42" t="n">
-        <v>78.15265312299758</v>
+        <v>78.15265312299726</v>
       </c>
       <c r="R42" t="n">
-        <v>101.057477245434</v>
+        <v>132.2865350330158</v>
       </c>
       <c r="S42" t="n">
         <v>146.0937828749041</v>
@@ -30627,43 +30627,43 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F43" t="n">
-        <v>217.2033884337817</v>
+        <v>213.1781353179957</v>
       </c>
       <c r="G43" t="n">
         <v>166.9968542415478</v>
       </c>
       <c r="H43" t="n">
-        <v>155.7011408377324</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="I43" t="n">
-        <v>135.7331106864345</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="J43" t="n">
-        <v>86.66140878686465</v>
+        <v>86.66140878686451</v>
       </c>
       <c r="K43" t="n">
-        <v>77.67194102076728</v>
+        <v>77.67194102076704</v>
       </c>
       <c r="L43" t="n">
-        <v>74.84944336390265</v>
+        <v>74.84944336390234</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>76.24414745277505</v>
       </c>
       <c r="N43" t="n">
-        <v>67.98250497112167</v>
+        <v>67.98250497112136</v>
       </c>
       <c r="O43" t="n">
-        <v>79.46394233070276</v>
+        <v>79.46394233070248</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>103.5288848663846</v>
+        <v>18.58303897530748</v>
       </c>
       <c r="R43" t="n">
-        <v>217.2033884337817</v>
+        <v>137.5187009483811</v>
       </c>
       <c r="S43" t="n">
         <v>207.4999652839304</v>
@@ -30721,10 +30721,10 @@
         <v>217.2033884337816</v>
       </c>
       <c r="K44" t="n">
+        <v>112.5514835405487</v>
+      </c>
+      <c r="L44" t="n">
         <v>217.2033884337816</v>
-      </c>
-      <c r="L44" t="n">
-        <v>109.3445309366638</v>
       </c>
       <c r="M44" t="n">
         <v>217.2033884337816</v>
@@ -30733,10 +30733,10 @@
         <v>217.2033884337816</v>
       </c>
       <c r="O44" t="n">
-        <v>217.2033884337816</v>
+        <v>135.4433185550061</v>
       </c>
       <c r="P44" t="n">
-        <v>108.3394543909978</v>
+        <v>112.9582042322141</v>
       </c>
       <c r="Q44" t="n">
         <v>217.2033884337816</v>
@@ -30791,37 +30791,37 @@
         <v>127.1624622715678</v>
       </c>
       <c r="H45" t="n">
-        <v>96.24631459259479</v>
+        <v>96.24631459259476</v>
       </c>
       <c r="I45" t="n">
-        <v>71.2645270077352</v>
+        <v>71.26452700773511</v>
       </c>
       <c r="J45" t="n">
-        <v>76.71955400614105</v>
+        <v>76.71955400614083</v>
       </c>
       <c r="K45" t="n">
-        <v>66.98372024565222</v>
+        <v>66.98372024565182</v>
       </c>
       <c r="L45" t="n">
-        <v>52.05064111562938</v>
+        <v>52.05064111562886</v>
       </c>
       <c r="M45" t="n">
-        <v>44.85432453608092</v>
+        <v>44.8543245360803</v>
       </c>
       <c r="N45" t="n">
-        <v>34.21620827668144</v>
+        <v>65.44526606426288</v>
       </c>
       <c r="O45" t="n">
-        <v>80.76614671109584</v>
+        <v>49.53708892351318</v>
       </c>
       <c r="P45" t="n">
-        <v>55.62466529233118</v>
+        <v>55.62466529233072</v>
       </c>
       <c r="Q45" t="n">
-        <v>78.15265312299758</v>
+        <v>78.15265312299726</v>
       </c>
       <c r="R45" t="n">
-        <v>101.057477245434</v>
+        <v>101.0574772454339</v>
       </c>
       <c r="S45" t="n">
         <v>146.0937828749041</v>
@@ -30852,7 +30852,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>181.719814997536</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="C46" t="n">
         <v>167.9198098429365</v>
@@ -30873,37 +30873,37 @@
         <v>155.7011408377324</v>
       </c>
       <c r="I46" t="n">
-        <v>135.7331106864345</v>
+        <v>216.0562388518492</v>
       </c>
       <c r="J46" t="n">
-        <v>86.66140878686465</v>
+        <v>86.66140878686451</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>77.67194102076704</v>
       </c>
       <c r="L46" t="n">
-        <v>74.84944336390265</v>
+        <v>74.84944336390234</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>76.24414745277505</v>
       </c>
       <c r="N46" t="n">
-        <v>67.98250497112167</v>
+        <v>67.98250497112136</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>79.46394233070248</v>
       </c>
       <c r="P46" t="n">
-        <v>83.63942497583898</v>
+        <v>83.63942497583874</v>
       </c>
       <c r="Q46" t="n">
-        <v>217.2033884337816</v>
+        <v>103.5288848663844</v>
       </c>
       <c r="R46" t="n">
         <v>217.2033884337816</v>
       </c>
       <c r="S46" t="n">
-        <v>207.4999652839304</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="T46" t="n">
         <v>217.2033884337816</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5209871598399994</v>
+        <v>0.5209871598400012</v>
       </c>
       <c r="H11" t="n">
-        <v>5.335559750711396</v>
+        <v>5.335559750711414</v>
       </c>
       <c r="I11" t="n">
-        <v>20.0853574797316</v>
+        <v>20.08535747973167</v>
       </c>
       <c r="J11" t="n">
-        <v>44.21813395747019</v>
+        <v>44.21813395747034</v>
       </c>
       <c r="K11" t="n">
-        <v>66.27152043349739</v>
+        <v>66.2715204334976</v>
       </c>
       <c r="L11" t="n">
-        <v>82.21568122645078</v>
+        <v>82.21568122645105</v>
       </c>
       <c r="M11" t="n">
-        <v>91.48078663025538</v>
+        <v>91.48078663025568</v>
       </c>
       <c r="N11" t="n">
-        <v>92.96104139815078</v>
+        <v>92.9610413981511</v>
       </c>
       <c r="O11" t="n">
-        <v>87.78047532749179</v>
+        <v>87.78047532749207</v>
       </c>
       <c r="P11" t="n">
-        <v>74.91860481894179</v>
+        <v>74.91860481894203</v>
       </c>
       <c r="Q11" t="n">
-        <v>56.26075215717179</v>
+        <v>56.26075215717197</v>
       </c>
       <c r="R11" t="n">
-        <v>32.7264596792994</v>
+        <v>32.7264596792995</v>
       </c>
       <c r="S11" t="n">
-        <v>11.871994904854</v>
+        <v>11.87199490485404</v>
       </c>
       <c r="T11" t="n">
-        <v>2.280621292199599</v>
+        <v>2.280621292199606</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04167897278719995</v>
+        <v>0.04167897278720008</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2787527053804301</v>
+        <v>0.2787527053804311</v>
       </c>
       <c r="H12" t="n">
-        <v>2.692164286174155</v>
+        <v>2.692164286174163</v>
       </c>
       <c r="I12" t="n">
-        <v>9.597406742264811</v>
+        <v>9.597406742264843</v>
       </c>
       <c r="J12" t="n">
-        <v>26.33601766052564</v>
+        <v>26.33601766052573</v>
       </c>
       <c r="K12" t="n">
-        <v>45.01244892101446</v>
+        <v>45.01244892101461</v>
       </c>
       <c r="L12" t="n">
-        <v>60.5247924555184</v>
+        <v>60.5247924555186</v>
       </c>
       <c r="M12" t="n">
-        <v>70.62957802555897</v>
+        <v>70.62957802555921</v>
       </c>
       <c r="N12" t="n">
-        <v>72.49893279102687</v>
+        <v>72.49893279102712</v>
       </c>
       <c r="O12" t="n">
-        <v>66.32235968759734</v>
+        <v>66.32235968759755</v>
       </c>
       <c r="P12" t="n">
-        <v>53.22954073181214</v>
+        <v>53.22954073181231</v>
       </c>
       <c r="Q12" t="n">
-        <v>35.58253832189491</v>
+        <v>35.58253832189503</v>
       </c>
       <c r="R12" t="n">
-        <v>17.30711972528671</v>
+        <v>17.30711972528677</v>
       </c>
       <c r="S12" t="n">
-        <v>5.177709242482986</v>
+        <v>5.177709242483003</v>
       </c>
       <c r="T12" t="n">
-        <v>1.123569018616733</v>
+        <v>1.123569018616737</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01833899377502831</v>
+        <v>0.01833899377502837</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2336969042806885</v>
+        <v>0.2336969042806892</v>
       </c>
       <c r="H13" t="n">
-        <v>2.077777930786486</v>
+        <v>2.077777930786493</v>
       </c>
       <c r="I13" t="n">
-        <v>7.027903266913796</v>
+        <v>7.027903266913819</v>
       </c>
       <c r="J13" t="n">
-        <v>16.52237113264467</v>
+        <v>16.52237113264473</v>
       </c>
       <c r="K13" t="n">
-        <v>27.15133124279271</v>
+        <v>27.1513312427928</v>
       </c>
       <c r="L13" t="n">
-        <v>34.74435611460345</v>
+        <v>34.74435611460356</v>
       </c>
       <c r="M13" t="n">
-        <v>36.63305200465373</v>
+        <v>36.63305200465385</v>
       </c>
       <c r="N13" t="n">
-        <v>35.76199990688028</v>
+        <v>35.7619999068804</v>
       </c>
       <c r="O13" t="n">
-        <v>33.0319951614195</v>
+        <v>33.03199516141961</v>
       </c>
       <c r="P13" t="n">
-        <v>28.26457831409343</v>
+        <v>28.26457831409353</v>
       </c>
       <c r="Q13" t="n">
-        <v>19.56892895754019</v>
+        <v>19.56892895754026</v>
       </c>
       <c r="R13" t="n">
-        <v>10.50786262338441</v>
+        <v>10.50786262338444</v>
       </c>
       <c r="S13" t="n">
-        <v>4.072699686418906</v>
+        <v>4.072699686418919</v>
       </c>
       <c r="T13" t="n">
-        <v>0.9985231364720322</v>
+        <v>0.9985231364720355</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01274710386985575</v>
+        <v>0.01274710386985579</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5209871598399994</v>
+        <v>0.5209871598400012</v>
       </c>
       <c r="H14" t="n">
-        <v>5.335559750711396</v>
+        <v>5.335559750711414</v>
       </c>
       <c r="I14" t="n">
-        <v>20.0853574797316</v>
+        <v>20.08535747973167</v>
       </c>
       <c r="J14" t="n">
-        <v>44.21813395747019</v>
+        <v>44.21813395747034</v>
       </c>
       <c r="K14" t="n">
-        <v>66.27152043349739</v>
+        <v>66.2715204334976</v>
       </c>
       <c r="L14" t="n">
-        <v>82.21568122645078</v>
+        <v>82.21568122645105</v>
       </c>
       <c r="M14" t="n">
-        <v>91.48078663025538</v>
+        <v>91.48078663025568</v>
       </c>
       <c r="N14" t="n">
-        <v>92.96104139815078</v>
+        <v>92.9610413981511</v>
       </c>
       <c r="O14" t="n">
-        <v>87.78047532749179</v>
+        <v>87.78047532749207</v>
       </c>
       <c r="P14" t="n">
-        <v>74.91860481894179</v>
+        <v>74.91860481894203</v>
       </c>
       <c r="Q14" t="n">
-        <v>56.26075215717179</v>
+        <v>56.26075215717197</v>
       </c>
       <c r="R14" t="n">
-        <v>32.7264596792994</v>
+        <v>32.7264596792995</v>
       </c>
       <c r="S14" t="n">
-        <v>11.871994904854</v>
+        <v>11.87199490485404</v>
       </c>
       <c r="T14" t="n">
-        <v>2.280621292199599</v>
+        <v>2.280621292199606</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04167897278719995</v>
+        <v>0.04167897278720008</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2787527053804301</v>
+        <v>0.2787527053804311</v>
       </c>
       <c r="H15" t="n">
-        <v>2.692164286174155</v>
+        <v>2.692164286174163</v>
       </c>
       <c r="I15" t="n">
-        <v>9.597406742264811</v>
+        <v>9.597406742264843</v>
       </c>
       <c r="J15" t="n">
-        <v>26.33601766052564</v>
+        <v>26.33601766052573</v>
       </c>
       <c r="K15" t="n">
-        <v>45.01244892101446</v>
+        <v>45.01244892101461</v>
       </c>
       <c r="L15" t="n">
-        <v>60.5247924555184</v>
+        <v>60.5247924555186</v>
       </c>
       <c r="M15" t="n">
-        <v>70.62957802555897</v>
+        <v>70.62957802555921</v>
       </c>
       <c r="N15" t="n">
-        <v>72.49893279102687</v>
+        <v>72.49893279102712</v>
       </c>
       <c r="O15" t="n">
-        <v>66.32235968759734</v>
+        <v>66.32235968759755</v>
       </c>
       <c r="P15" t="n">
-        <v>53.22954073181214</v>
+        <v>53.22954073181231</v>
       </c>
       <c r="Q15" t="n">
-        <v>35.58253832189491</v>
+        <v>35.58253832189503</v>
       </c>
       <c r="R15" t="n">
-        <v>17.30711972528671</v>
+        <v>17.30711972528677</v>
       </c>
       <c r="S15" t="n">
-        <v>5.177709242482986</v>
+        <v>5.177709242483003</v>
       </c>
       <c r="T15" t="n">
-        <v>1.123569018616733</v>
+        <v>1.123569018616737</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01833899377502831</v>
+        <v>0.01833899377502837</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2336969042806885</v>
+        <v>0.2336969042806892</v>
       </c>
       <c r="H16" t="n">
-        <v>2.077777930786486</v>
+        <v>2.077777930786493</v>
       </c>
       <c r="I16" t="n">
-        <v>7.027903266913796</v>
+        <v>7.027903266913819</v>
       </c>
       <c r="J16" t="n">
-        <v>16.52237113264467</v>
+        <v>16.52237113264473</v>
       </c>
       <c r="K16" t="n">
-        <v>27.15133124279271</v>
+        <v>27.1513312427928</v>
       </c>
       <c r="L16" t="n">
-        <v>34.74435611460345</v>
+        <v>34.74435611460356</v>
       </c>
       <c r="M16" t="n">
-        <v>36.63305200465373</v>
+        <v>36.63305200465385</v>
       </c>
       <c r="N16" t="n">
-        <v>35.76199990688028</v>
+        <v>35.7619999068804</v>
       </c>
       <c r="O16" t="n">
-        <v>33.0319951614195</v>
+        <v>33.03199516141961</v>
       </c>
       <c r="P16" t="n">
-        <v>28.26457831409343</v>
+        <v>28.26457831409353</v>
       </c>
       <c r="Q16" t="n">
-        <v>19.56892895754019</v>
+        <v>19.56892895754026</v>
       </c>
       <c r="R16" t="n">
-        <v>10.50786262338441</v>
+        <v>10.50786262338444</v>
       </c>
       <c r="S16" t="n">
-        <v>4.072699686418906</v>
+        <v>4.072699686418919</v>
       </c>
       <c r="T16" t="n">
-        <v>0.9985231364720322</v>
+        <v>0.9985231364720355</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01274710386985575</v>
+        <v>0.01274710386985579</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5209871598399994</v>
+        <v>0.5209871598400041</v>
       </c>
       <c r="H17" t="n">
-        <v>5.335559750711396</v>
+        <v>5.335559750711443</v>
       </c>
       <c r="I17" t="n">
-        <v>20.0853574797316</v>
+        <v>20.08535747973178</v>
       </c>
       <c r="J17" t="n">
-        <v>44.21813395747019</v>
+        <v>44.21813395747058</v>
       </c>
       <c r="K17" t="n">
-        <v>66.27152043349739</v>
+        <v>66.27152043349797</v>
       </c>
       <c r="L17" t="n">
-        <v>82.21568122645078</v>
+        <v>82.21568122645151</v>
       </c>
       <c r="M17" t="n">
-        <v>91.48078663025538</v>
+        <v>91.48078663025618</v>
       </c>
       <c r="N17" t="n">
-        <v>92.96104139815078</v>
+        <v>92.96104139815159</v>
       </c>
       <c r="O17" t="n">
-        <v>87.78047532749179</v>
+        <v>87.78047532749255</v>
       </c>
       <c r="P17" t="n">
-        <v>74.91860481894179</v>
+        <v>74.91860481894244</v>
       </c>
       <c r="Q17" t="n">
-        <v>56.26075215717179</v>
+        <v>56.26075215717228</v>
       </c>
       <c r="R17" t="n">
-        <v>32.7264596792994</v>
+        <v>32.72645967929969</v>
       </c>
       <c r="S17" t="n">
-        <v>11.871994904854</v>
+        <v>11.8719949048541</v>
       </c>
       <c r="T17" t="n">
-        <v>2.280621292199599</v>
+        <v>2.280621292199619</v>
       </c>
       <c r="U17" t="n">
-        <v>0.04167897278719995</v>
+        <v>0.04167897278720031</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2787527053804301</v>
+        <v>0.2787527053804326</v>
       </c>
       <c r="H18" t="n">
-        <v>2.692164286174155</v>
+        <v>2.692164286174178</v>
       </c>
       <c r="I18" t="n">
-        <v>9.597406742264811</v>
+        <v>9.597406742264894</v>
       </c>
       <c r="J18" t="n">
-        <v>26.33601766052564</v>
+        <v>26.33601766052587</v>
       </c>
       <c r="K18" t="n">
-        <v>45.01244892101446</v>
+        <v>45.01244892101485</v>
       </c>
       <c r="L18" t="n">
-        <v>60.5247924555184</v>
+        <v>60.52479245551893</v>
       </c>
       <c r="M18" t="n">
-        <v>70.62957802555897</v>
+        <v>70.6295780255596</v>
       </c>
       <c r="N18" t="n">
-        <v>72.49893279102687</v>
+        <v>72.49893279102751</v>
       </c>
       <c r="O18" t="n">
-        <v>66.32235968759734</v>
+        <v>66.32235968759792</v>
       </c>
       <c r="P18" t="n">
-        <v>53.22954073181214</v>
+        <v>53.22954073181261</v>
       </c>
       <c r="Q18" t="n">
-        <v>35.58253832189491</v>
+        <v>35.58253832189522</v>
       </c>
       <c r="R18" t="n">
-        <v>17.30711972528671</v>
+        <v>17.30711972528686</v>
       </c>
       <c r="S18" t="n">
-        <v>5.177709242482986</v>
+        <v>5.177709242483031</v>
       </c>
       <c r="T18" t="n">
-        <v>1.123569018616733</v>
+        <v>1.123569018616743</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01833899377502831</v>
+        <v>0.01833899377502847</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2336969042806885</v>
+        <v>0.2336969042806905</v>
       </c>
       <c r="H19" t="n">
-        <v>2.077777930786486</v>
+        <v>2.077777930786504</v>
       </c>
       <c r="I19" t="n">
-        <v>7.027903266913796</v>
+        <v>7.027903266913858</v>
       </c>
       <c r="J19" t="n">
-        <v>16.52237113264467</v>
+        <v>16.52237113264482</v>
       </c>
       <c r="K19" t="n">
-        <v>27.15133124279271</v>
+        <v>27.15133124279295</v>
       </c>
       <c r="L19" t="n">
-        <v>34.74435611460345</v>
+        <v>34.74435611460375</v>
       </c>
       <c r="M19" t="n">
-        <v>36.63305200465373</v>
+        <v>36.63305200465405</v>
       </c>
       <c r="N19" t="n">
-        <v>35.76199990688028</v>
+        <v>35.7619999068806</v>
       </c>
       <c r="O19" t="n">
-        <v>33.0319951614195</v>
+        <v>33.03199516141979</v>
       </c>
       <c r="P19" t="n">
-        <v>28.26457831409343</v>
+        <v>28.26457831409368</v>
       </c>
       <c r="Q19" t="n">
-        <v>19.56892895754019</v>
+        <v>19.56892895754037</v>
       </c>
       <c r="R19" t="n">
-        <v>10.50786262338441</v>
+        <v>10.5078626233845</v>
       </c>
       <c r="S19" t="n">
-        <v>4.072699686418906</v>
+        <v>4.072699686418941</v>
       </c>
       <c r="T19" t="n">
-        <v>0.9985231364720322</v>
+        <v>0.9985231364720409</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01274710386985575</v>
+        <v>0.01274710386985586</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5209871598399994</v>
+        <v>0.5209871598400017</v>
       </c>
       <c r="H20" t="n">
-        <v>5.335559750711396</v>
+        <v>5.335559750711418</v>
       </c>
       <c r="I20" t="n">
-        <v>20.0853574797316</v>
+        <v>20.08535747973168</v>
       </c>
       <c r="J20" t="n">
-        <v>44.21813395747019</v>
+        <v>44.21813395747038</v>
       </c>
       <c r="K20" t="n">
-        <v>66.27152043349739</v>
+        <v>66.27152043349767</v>
       </c>
       <c r="L20" t="n">
-        <v>82.21568122645078</v>
+        <v>82.21568122645114</v>
       </c>
       <c r="M20" t="n">
-        <v>91.48078663025538</v>
+        <v>91.48078663025576</v>
       </c>
       <c r="N20" t="n">
-        <v>92.96104139815078</v>
+        <v>92.96104139815117</v>
       </c>
       <c r="O20" t="n">
-        <v>87.78047532749179</v>
+        <v>87.78047532749214</v>
       </c>
       <c r="P20" t="n">
-        <v>74.91860481894179</v>
+        <v>74.9186048189421</v>
       </c>
       <c r="Q20" t="n">
-        <v>56.26075215717179</v>
+        <v>56.26075215717202</v>
       </c>
       <c r="R20" t="n">
-        <v>32.7264596792994</v>
+        <v>32.72645967929953</v>
       </c>
       <c r="S20" t="n">
-        <v>11.871994904854</v>
+        <v>11.87199490485405</v>
       </c>
       <c r="T20" t="n">
-        <v>2.280621292199599</v>
+        <v>2.280621292199609</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04167897278719995</v>
+        <v>0.04167897278720013</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2787527053804301</v>
+        <v>0.2787527053804313</v>
       </c>
       <c r="H21" t="n">
-        <v>2.692164286174155</v>
+        <v>2.692164286174166</v>
       </c>
       <c r="I21" t="n">
-        <v>9.597406742264811</v>
+        <v>9.59740674226485</v>
       </c>
       <c r="J21" t="n">
-        <v>26.33601766052564</v>
+        <v>26.33601766052575</v>
       </c>
       <c r="K21" t="n">
-        <v>45.01244892101446</v>
+        <v>45.01244892101465</v>
       </c>
       <c r="L21" t="n">
-        <v>60.5247924555184</v>
+        <v>60.52479245551865</v>
       </c>
       <c r="M21" t="n">
-        <v>70.62957802555897</v>
+        <v>70.62957802555927</v>
       </c>
       <c r="N21" t="n">
-        <v>72.49893279102687</v>
+        <v>72.49893279102717</v>
       </c>
       <c r="O21" t="n">
-        <v>66.32235968759734</v>
+        <v>66.32235968759761</v>
       </c>
       <c r="P21" t="n">
-        <v>53.22954073181214</v>
+        <v>53.22954073181236</v>
       </c>
       <c r="Q21" t="n">
-        <v>35.58253832189491</v>
+        <v>35.58253832189506</v>
       </c>
       <c r="R21" t="n">
-        <v>17.30711972528671</v>
+        <v>17.30711972528679</v>
       </c>
       <c r="S21" t="n">
-        <v>5.177709242482986</v>
+        <v>5.177709242483008</v>
       </c>
       <c r="T21" t="n">
-        <v>1.123569018616733</v>
+        <v>1.123569018616738</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01833899377502831</v>
+        <v>0.01833899377502838</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2336969042806885</v>
+        <v>0.2336969042806894</v>
       </c>
       <c r="H22" t="n">
-        <v>2.077777930786486</v>
+        <v>2.077777930786495</v>
       </c>
       <c r="I22" t="n">
-        <v>7.027903266913796</v>
+        <v>7.027903266913825</v>
       </c>
       <c r="J22" t="n">
-        <v>16.52237113264467</v>
+        <v>16.52237113264474</v>
       </c>
       <c r="K22" t="n">
-        <v>27.15133124279271</v>
+        <v>27.15133124279282</v>
       </c>
       <c r="L22" t="n">
-        <v>34.74435611460345</v>
+        <v>34.7443561146036</v>
       </c>
       <c r="M22" t="n">
-        <v>36.63305200465373</v>
+        <v>36.63305200465388</v>
       </c>
       <c r="N22" t="n">
-        <v>35.76199990688028</v>
+        <v>35.76199990688043</v>
       </c>
       <c r="O22" t="n">
-        <v>33.0319951614195</v>
+        <v>33.03199516141964</v>
       </c>
       <c r="P22" t="n">
-        <v>28.26457831409343</v>
+        <v>28.26457831409355</v>
       </c>
       <c r="Q22" t="n">
-        <v>19.56892895754019</v>
+        <v>19.56892895754028</v>
       </c>
       <c r="R22" t="n">
-        <v>10.50786262338441</v>
+        <v>10.50786262338445</v>
       </c>
       <c r="S22" t="n">
-        <v>4.072699686418906</v>
+        <v>4.072699686418923</v>
       </c>
       <c r="T22" t="n">
-        <v>0.9985231364720322</v>
+        <v>0.9985231364720364</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01274710386985575</v>
+        <v>0.0127471038698558</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5209871598399994</v>
+        <v>0.5209871598400041</v>
       </c>
       <c r="H23" t="n">
-        <v>5.335559750711396</v>
+        <v>5.335559750711443</v>
       </c>
       <c r="I23" t="n">
-        <v>20.0853574797316</v>
+        <v>20.08535747973178</v>
       </c>
       <c r="J23" t="n">
-        <v>44.21813395747019</v>
+        <v>44.21813395747058</v>
       </c>
       <c r="K23" t="n">
-        <v>66.27152043349739</v>
+        <v>66.27152043349797</v>
       </c>
       <c r="L23" t="n">
-        <v>82.21568122645078</v>
+        <v>82.21568122645151</v>
       </c>
       <c r="M23" t="n">
-        <v>91.48078663025538</v>
+        <v>91.48078663025618</v>
       </c>
       <c r="N23" t="n">
-        <v>92.96104139815078</v>
+        <v>92.96104139815159</v>
       </c>
       <c r="O23" t="n">
-        <v>87.78047532749179</v>
+        <v>87.78047532749255</v>
       </c>
       <c r="P23" t="n">
-        <v>74.91860481894179</v>
+        <v>74.91860481894244</v>
       </c>
       <c r="Q23" t="n">
-        <v>56.26075215717179</v>
+        <v>56.26075215717228</v>
       </c>
       <c r="R23" t="n">
-        <v>32.7264596792994</v>
+        <v>32.72645967929969</v>
       </c>
       <c r="S23" t="n">
-        <v>11.871994904854</v>
+        <v>11.8719949048541</v>
       </c>
       <c r="T23" t="n">
-        <v>2.280621292199599</v>
+        <v>2.280621292199619</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04167897278719995</v>
+        <v>0.04167897278720031</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2787527053804301</v>
+        <v>0.2787527053804326</v>
       </c>
       <c r="H24" t="n">
-        <v>2.692164286174155</v>
+        <v>2.692164286174178</v>
       </c>
       <c r="I24" t="n">
-        <v>9.597406742264811</v>
+        <v>9.597406742264894</v>
       </c>
       <c r="J24" t="n">
-        <v>26.33601766052564</v>
+        <v>26.33601766052587</v>
       </c>
       <c r="K24" t="n">
-        <v>45.01244892101446</v>
+        <v>45.01244892101485</v>
       </c>
       <c r="L24" t="n">
-        <v>60.5247924555184</v>
+        <v>60.52479245551893</v>
       </c>
       <c r="M24" t="n">
-        <v>70.62957802555897</v>
+        <v>70.6295780255596</v>
       </c>
       <c r="N24" t="n">
-        <v>72.49893279102687</v>
+        <v>72.49893279102751</v>
       </c>
       <c r="O24" t="n">
-        <v>66.32235968759734</v>
+        <v>66.32235968759792</v>
       </c>
       <c r="P24" t="n">
-        <v>53.22954073181214</v>
+        <v>53.22954073181261</v>
       </c>
       <c r="Q24" t="n">
-        <v>35.58253832189491</v>
+        <v>35.58253832189522</v>
       </c>
       <c r="R24" t="n">
-        <v>17.30711972528671</v>
+        <v>17.30711972528686</v>
       </c>
       <c r="S24" t="n">
-        <v>5.177709242482986</v>
+        <v>5.177709242483031</v>
       </c>
       <c r="T24" t="n">
-        <v>1.123569018616733</v>
+        <v>1.123569018616743</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01833899377502831</v>
+        <v>0.01833899377502847</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2336969042806885</v>
+        <v>0.2336969042806905</v>
       </c>
       <c r="H25" t="n">
-        <v>2.077777930786486</v>
+        <v>2.077777930786504</v>
       </c>
       <c r="I25" t="n">
-        <v>7.027903266913796</v>
+        <v>7.027903266913858</v>
       </c>
       <c r="J25" t="n">
-        <v>16.52237113264467</v>
+        <v>16.52237113264482</v>
       </c>
       <c r="K25" t="n">
-        <v>27.15133124279271</v>
+        <v>27.15133124279295</v>
       </c>
       <c r="L25" t="n">
-        <v>34.74435611460345</v>
+        <v>34.74435611460375</v>
       </c>
       <c r="M25" t="n">
-        <v>36.63305200465373</v>
+        <v>36.63305200465405</v>
       </c>
       <c r="N25" t="n">
-        <v>35.76199990688028</v>
+        <v>35.7619999068806</v>
       </c>
       <c r="O25" t="n">
-        <v>33.0319951614195</v>
+        <v>33.03199516141979</v>
       </c>
       <c r="P25" t="n">
-        <v>28.26457831409343</v>
+        <v>28.26457831409368</v>
       </c>
       <c r="Q25" t="n">
-        <v>19.56892895754019</v>
+        <v>19.56892895754037</v>
       </c>
       <c r="R25" t="n">
-        <v>10.50786262338441</v>
+        <v>10.5078626233845</v>
       </c>
       <c r="S25" t="n">
-        <v>4.072699686418906</v>
+        <v>4.072699686418941</v>
       </c>
       <c r="T25" t="n">
-        <v>0.9985231364720322</v>
+        <v>0.9985231364720409</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01274710386985575</v>
+        <v>0.01274710386985586</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5209871598399998</v>
+        <v>0.5209871598400041</v>
       </c>
       <c r="H26" t="n">
-        <v>5.335559750711399</v>
+        <v>5.335559750711443</v>
       </c>
       <c r="I26" t="n">
-        <v>20.08535747973161</v>
+        <v>20.08535747973178</v>
       </c>
       <c r="J26" t="n">
-        <v>44.21813395747022</v>
+        <v>44.21813395747058</v>
       </c>
       <c r="K26" t="n">
-        <v>66.27152043349741</v>
+        <v>66.27152043349797</v>
       </c>
       <c r="L26" t="n">
-        <v>82.21568122645083</v>
+        <v>82.21568122645151</v>
       </c>
       <c r="M26" t="n">
-        <v>91.48078663025542</v>
+        <v>91.48078663025618</v>
       </c>
       <c r="N26" t="n">
-        <v>92.96104139815083</v>
+        <v>92.96104139815159</v>
       </c>
       <c r="O26" t="n">
-        <v>87.78047532749181</v>
+        <v>87.78047532749255</v>
       </c>
       <c r="P26" t="n">
-        <v>74.91860481894182</v>
+        <v>74.91860481894244</v>
       </c>
       <c r="Q26" t="n">
-        <v>56.26075215717181</v>
+        <v>56.26075215717228</v>
       </c>
       <c r="R26" t="n">
-        <v>32.72645967929941</v>
+        <v>32.72645967929969</v>
       </c>
       <c r="S26" t="n">
-        <v>11.87199490485401</v>
+        <v>11.8719949048541</v>
       </c>
       <c r="T26" t="n">
-        <v>2.2806212921996</v>
+        <v>2.280621292199619</v>
       </c>
       <c r="U26" t="n">
-        <v>0.04167897278719997</v>
+        <v>0.04167897278720031</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2787527053804302</v>
+        <v>0.2787527053804326</v>
       </c>
       <c r="H27" t="n">
-        <v>2.692164286174156</v>
+        <v>2.692164286174178</v>
       </c>
       <c r="I27" t="n">
-        <v>9.597406742264814</v>
+        <v>9.597406742264894</v>
       </c>
       <c r="J27" t="n">
-        <v>26.33601766052566</v>
+        <v>26.33601766052587</v>
       </c>
       <c r="K27" t="n">
-        <v>45.01244892101448</v>
+        <v>45.01244892101485</v>
       </c>
       <c r="L27" t="n">
-        <v>60.52479245551842</v>
+        <v>60.52479245551893</v>
       </c>
       <c r="M27" t="n">
-        <v>70.629578025559</v>
+        <v>70.6295780255596</v>
       </c>
       <c r="N27" t="n">
-        <v>72.4989327910269</v>
+        <v>72.49893279102751</v>
       </c>
       <c r="O27" t="n">
-        <v>66.32235968759737</v>
+        <v>66.32235968759792</v>
       </c>
       <c r="P27" t="n">
-        <v>53.22954073181216</v>
+        <v>53.22954073181261</v>
       </c>
       <c r="Q27" t="n">
-        <v>35.58253832189492</v>
+        <v>35.58253832189522</v>
       </c>
       <c r="R27" t="n">
-        <v>17.30711972528672</v>
+        <v>17.30711972528686</v>
       </c>
       <c r="S27" t="n">
-        <v>5.177709242482988</v>
+        <v>5.177709242483031</v>
       </c>
       <c r="T27" t="n">
-        <v>1.123569018616734</v>
+        <v>1.123569018616743</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01833899377502831</v>
+        <v>0.01833899377502847</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2336969042806885</v>
+        <v>0.2336969042806905</v>
       </c>
       <c r="H28" t="n">
-        <v>2.077777930786487</v>
+        <v>2.077777930786504</v>
       </c>
       <c r="I28" t="n">
-        <v>7.0279032669138</v>
+        <v>7.027903266913858</v>
       </c>
       <c r="J28" t="n">
-        <v>16.52237113264468</v>
+        <v>16.52237113264482</v>
       </c>
       <c r="K28" t="n">
-        <v>27.15133124279272</v>
+        <v>27.15133124279295</v>
       </c>
       <c r="L28" t="n">
-        <v>34.74435611460346</v>
+        <v>34.74435611460375</v>
       </c>
       <c r="M28" t="n">
-        <v>36.63305200465375</v>
+        <v>36.63305200465405</v>
       </c>
       <c r="N28" t="n">
-        <v>35.7619999068803</v>
+        <v>35.7619999068806</v>
       </c>
       <c r="O28" t="n">
-        <v>33.03199516141952</v>
+        <v>33.03199516141979</v>
       </c>
       <c r="P28" t="n">
-        <v>28.26457831409345</v>
+        <v>28.26457831409368</v>
       </c>
       <c r="Q28" t="n">
-        <v>19.56892895754021</v>
+        <v>19.56892895754037</v>
       </c>
       <c r="R28" t="n">
-        <v>10.50786262338441</v>
+        <v>10.5078626233845</v>
       </c>
       <c r="S28" t="n">
-        <v>4.072699686418908</v>
+        <v>4.072699686418941</v>
       </c>
       <c r="T28" t="n">
-        <v>0.9985231364720326</v>
+        <v>0.9985231364720409</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01274710386985575</v>
+        <v>0.01274710386985586</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5209871598399994</v>
+        <v>0.5209871598400041</v>
       </c>
       <c r="H29" t="n">
-        <v>5.335559750711396</v>
+        <v>5.335559750711443</v>
       </c>
       <c r="I29" t="n">
-        <v>20.0853574797316</v>
+        <v>20.08535747973178</v>
       </c>
       <c r="J29" t="n">
-        <v>44.21813395747019</v>
+        <v>44.21813395747058</v>
       </c>
       <c r="K29" t="n">
-        <v>66.27152043349739</v>
+        <v>66.27152043349797</v>
       </c>
       <c r="L29" t="n">
-        <v>82.21568122645078</v>
+        <v>82.21568122645151</v>
       </c>
       <c r="M29" t="n">
-        <v>91.48078663025538</v>
+        <v>91.48078663025618</v>
       </c>
       <c r="N29" t="n">
-        <v>92.96104139815078</v>
+        <v>92.96104139815159</v>
       </c>
       <c r="O29" t="n">
-        <v>87.78047532749179</v>
+        <v>87.78047532749255</v>
       </c>
       <c r="P29" t="n">
-        <v>74.91860481894179</v>
+        <v>74.91860481894244</v>
       </c>
       <c r="Q29" t="n">
-        <v>56.26075215717179</v>
+        <v>56.26075215717228</v>
       </c>
       <c r="R29" t="n">
-        <v>32.7264596792994</v>
+        <v>32.72645967929969</v>
       </c>
       <c r="S29" t="n">
-        <v>11.871994904854</v>
+        <v>11.8719949048541</v>
       </c>
       <c r="T29" t="n">
-        <v>2.280621292199599</v>
+        <v>2.280621292199619</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04167897278719995</v>
+        <v>0.04167897278720031</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2787527053804301</v>
+        <v>0.2787527053804326</v>
       </c>
       <c r="H30" t="n">
-        <v>2.692164286174155</v>
+        <v>2.692164286174178</v>
       </c>
       <c r="I30" t="n">
-        <v>9.597406742264811</v>
+        <v>9.597406742264894</v>
       </c>
       <c r="J30" t="n">
-        <v>26.33601766052564</v>
+        <v>26.33601766052587</v>
       </c>
       <c r="K30" t="n">
-        <v>45.01244892101446</v>
+        <v>45.01244892101485</v>
       </c>
       <c r="L30" t="n">
-        <v>60.5247924555184</v>
+        <v>60.52479245551893</v>
       </c>
       <c r="M30" t="n">
-        <v>70.62957802555897</v>
+        <v>70.6295780255596</v>
       </c>
       <c r="N30" t="n">
-        <v>72.49893279102687</v>
+        <v>72.49893279102751</v>
       </c>
       <c r="O30" t="n">
-        <v>66.32235968759734</v>
+        <v>66.32235968759792</v>
       </c>
       <c r="P30" t="n">
-        <v>53.22954073181214</v>
+        <v>53.22954073181261</v>
       </c>
       <c r="Q30" t="n">
-        <v>35.58253832189491</v>
+        <v>35.58253832189522</v>
       </c>
       <c r="R30" t="n">
-        <v>17.30711972528671</v>
+        <v>17.30711972528686</v>
       </c>
       <c r="S30" t="n">
-        <v>5.177709242482986</v>
+        <v>5.177709242483031</v>
       </c>
       <c r="T30" t="n">
-        <v>1.123569018616733</v>
+        <v>1.123569018616743</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01833899377502831</v>
+        <v>0.01833899377502847</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2336969042806885</v>
+        <v>0.2336969042806905</v>
       </c>
       <c r="H31" t="n">
-        <v>2.077777930786486</v>
+        <v>2.077777930786504</v>
       </c>
       <c r="I31" t="n">
-        <v>7.027903266913796</v>
+        <v>7.027903266913858</v>
       </c>
       <c r="J31" t="n">
-        <v>16.52237113264467</v>
+        <v>16.52237113264482</v>
       </c>
       <c r="K31" t="n">
-        <v>27.15133124279271</v>
+        <v>27.15133124279295</v>
       </c>
       <c r="L31" t="n">
-        <v>34.74435611460345</v>
+        <v>34.74435611460375</v>
       </c>
       <c r="M31" t="n">
-        <v>36.63305200465373</v>
+        <v>36.63305200465405</v>
       </c>
       <c r="N31" t="n">
-        <v>35.76199990688028</v>
+        <v>35.7619999068806</v>
       </c>
       <c r="O31" t="n">
-        <v>33.0319951614195</v>
+        <v>33.03199516141979</v>
       </c>
       <c r="P31" t="n">
-        <v>28.26457831409343</v>
+        <v>28.26457831409368</v>
       </c>
       <c r="Q31" t="n">
-        <v>19.56892895754019</v>
+        <v>19.56892895754037</v>
       </c>
       <c r="R31" t="n">
-        <v>10.50786262338441</v>
+        <v>10.5078626233845</v>
       </c>
       <c r="S31" t="n">
-        <v>4.072699686418906</v>
+        <v>4.072699686418941</v>
       </c>
       <c r="T31" t="n">
-        <v>0.9985231364720322</v>
+        <v>0.9985231364720409</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01274710386985575</v>
+        <v>0.01274710386985586</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5209871598399994</v>
+        <v>0.5209871598400041</v>
       </c>
       <c r="H32" t="n">
-        <v>5.335559750711396</v>
+        <v>5.335559750711443</v>
       </c>
       <c r="I32" t="n">
-        <v>20.0853574797316</v>
+        <v>20.08535747973178</v>
       </c>
       <c r="J32" t="n">
-        <v>44.21813395747019</v>
+        <v>44.21813395747058</v>
       </c>
       <c r="K32" t="n">
-        <v>66.27152043349739</v>
+        <v>66.27152043349797</v>
       </c>
       <c r="L32" t="n">
-        <v>82.21568122645078</v>
+        <v>82.21568122645151</v>
       </c>
       <c r="M32" t="n">
-        <v>91.48078663025538</v>
+        <v>91.48078663025618</v>
       </c>
       <c r="N32" t="n">
-        <v>92.96104139815078</v>
+        <v>92.96104139815159</v>
       </c>
       <c r="O32" t="n">
-        <v>87.78047532749179</v>
+        <v>87.78047532749255</v>
       </c>
       <c r="P32" t="n">
-        <v>74.91860481894179</v>
+        <v>74.91860481894244</v>
       </c>
       <c r="Q32" t="n">
-        <v>56.26075215717179</v>
+        <v>56.26075215717228</v>
       </c>
       <c r="R32" t="n">
-        <v>32.7264596792994</v>
+        <v>32.72645967929969</v>
       </c>
       <c r="S32" t="n">
-        <v>11.871994904854</v>
+        <v>11.8719949048541</v>
       </c>
       <c r="T32" t="n">
-        <v>2.280621292199599</v>
+        <v>2.280621292199619</v>
       </c>
       <c r="U32" t="n">
-        <v>0.04167897278719995</v>
+        <v>0.04167897278720031</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2787527053804301</v>
+        <v>0.2787527053804326</v>
       </c>
       <c r="H33" t="n">
-        <v>2.692164286174155</v>
+        <v>2.692164286174178</v>
       </c>
       <c r="I33" t="n">
-        <v>9.597406742264811</v>
+        <v>9.597406742264894</v>
       </c>
       <c r="J33" t="n">
-        <v>26.33601766052564</v>
+        <v>26.33601766052587</v>
       </c>
       <c r="K33" t="n">
-        <v>45.01244892101446</v>
+        <v>45.01244892101485</v>
       </c>
       <c r="L33" t="n">
-        <v>60.5247924555184</v>
+        <v>60.52479245551893</v>
       </c>
       <c r="M33" t="n">
-        <v>70.62957802555897</v>
+        <v>70.6295780255596</v>
       </c>
       <c r="N33" t="n">
-        <v>72.49893279102687</v>
+        <v>72.49893279102751</v>
       </c>
       <c r="O33" t="n">
-        <v>66.32235968759734</v>
+        <v>66.32235968759792</v>
       </c>
       <c r="P33" t="n">
-        <v>53.22954073181214</v>
+        <v>53.22954073181261</v>
       </c>
       <c r="Q33" t="n">
-        <v>35.58253832189491</v>
+        <v>35.58253832189522</v>
       </c>
       <c r="R33" t="n">
-        <v>17.30711972528671</v>
+        <v>17.30711972528686</v>
       </c>
       <c r="S33" t="n">
-        <v>5.177709242482986</v>
+        <v>5.177709242483031</v>
       </c>
       <c r="T33" t="n">
-        <v>1.123569018616733</v>
+        <v>1.123569018616743</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01833899377502831</v>
+        <v>0.01833899377502847</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2336969042806885</v>
+        <v>0.2336969042806905</v>
       </c>
       <c r="H34" t="n">
-        <v>2.077777930786486</v>
+        <v>2.077777930786504</v>
       </c>
       <c r="I34" t="n">
-        <v>7.027903266913796</v>
+        <v>7.027903266913858</v>
       </c>
       <c r="J34" t="n">
-        <v>16.52237113264467</v>
+        <v>16.52237113264482</v>
       </c>
       <c r="K34" t="n">
-        <v>27.15133124279271</v>
+        <v>27.15133124279295</v>
       </c>
       <c r="L34" t="n">
-        <v>34.74435611460345</v>
+        <v>34.74435611460375</v>
       </c>
       <c r="M34" t="n">
-        <v>36.63305200465373</v>
+        <v>36.63305200465405</v>
       </c>
       <c r="N34" t="n">
-        <v>35.76199990688028</v>
+        <v>35.7619999068806</v>
       </c>
       <c r="O34" t="n">
-        <v>33.0319951614195</v>
+        <v>33.03199516141979</v>
       </c>
       <c r="P34" t="n">
-        <v>28.26457831409343</v>
+        <v>28.26457831409368</v>
       </c>
       <c r="Q34" t="n">
-        <v>19.56892895754019</v>
+        <v>19.56892895754037</v>
       </c>
       <c r="R34" t="n">
-        <v>10.50786262338441</v>
+        <v>10.5078626233845</v>
       </c>
       <c r="S34" t="n">
-        <v>4.072699686418906</v>
+        <v>4.072699686418941</v>
       </c>
       <c r="T34" t="n">
-        <v>0.9985231364720322</v>
+        <v>0.9985231364720409</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01274710386985575</v>
+        <v>0.01274710386985586</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5209871598399994</v>
+        <v>0.5209871598400041</v>
       </c>
       <c r="H35" t="n">
-        <v>5.335559750711396</v>
+        <v>5.335559750711443</v>
       </c>
       <c r="I35" t="n">
-        <v>20.0853574797316</v>
+        <v>20.08535747973178</v>
       </c>
       <c r="J35" t="n">
-        <v>44.21813395747019</v>
+        <v>44.21813395747058</v>
       </c>
       <c r="K35" t="n">
-        <v>66.27152043349739</v>
+        <v>66.27152043349797</v>
       </c>
       <c r="L35" t="n">
-        <v>82.21568122645078</v>
+        <v>82.21568122645151</v>
       </c>
       <c r="M35" t="n">
-        <v>91.48078663025538</v>
+        <v>91.48078663025618</v>
       </c>
       <c r="N35" t="n">
-        <v>92.96104139815078</v>
+        <v>92.96104139815159</v>
       </c>
       <c r="O35" t="n">
-        <v>87.78047532749179</v>
+        <v>87.78047532749255</v>
       </c>
       <c r="P35" t="n">
-        <v>74.91860481894179</v>
+        <v>74.91860481894244</v>
       </c>
       <c r="Q35" t="n">
-        <v>56.26075215717179</v>
+        <v>56.26075215717228</v>
       </c>
       <c r="R35" t="n">
-        <v>32.7264596792994</v>
+        <v>32.72645967929969</v>
       </c>
       <c r="S35" t="n">
-        <v>11.871994904854</v>
+        <v>11.8719949048541</v>
       </c>
       <c r="T35" t="n">
-        <v>2.280621292199599</v>
+        <v>2.280621292199619</v>
       </c>
       <c r="U35" t="n">
-        <v>0.04167897278719995</v>
+        <v>0.04167897278720031</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2787527053804301</v>
+        <v>0.2787527053804326</v>
       </c>
       <c r="H36" t="n">
-        <v>2.692164286174155</v>
+        <v>2.692164286174178</v>
       </c>
       <c r="I36" t="n">
-        <v>9.597406742264811</v>
+        <v>9.597406742264894</v>
       </c>
       <c r="J36" t="n">
-        <v>26.33601766052564</v>
+        <v>26.33601766052587</v>
       </c>
       <c r="K36" t="n">
-        <v>45.01244892101446</v>
+        <v>45.01244892101485</v>
       </c>
       <c r="L36" t="n">
-        <v>60.5247924555184</v>
+        <v>60.52479245551893</v>
       </c>
       <c r="M36" t="n">
-        <v>70.62957802555897</v>
+        <v>70.6295780255596</v>
       </c>
       <c r="N36" t="n">
-        <v>72.49893279102687</v>
+        <v>72.49893279102751</v>
       </c>
       <c r="O36" t="n">
-        <v>66.32235968759734</v>
+        <v>66.32235968759792</v>
       </c>
       <c r="P36" t="n">
-        <v>53.22954073181214</v>
+        <v>53.22954073181261</v>
       </c>
       <c r="Q36" t="n">
-        <v>35.58253832189491</v>
+        <v>35.58253832189522</v>
       </c>
       <c r="R36" t="n">
-        <v>17.30711972528671</v>
+        <v>17.30711972528686</v>
       </c>
       <c r="S36" t="n">
-        <v>5.177709242482986</v>
+        <v>5.177709242483031</v>
       </c>
       <c r="T36" t="n">
-        <v>1.123569018616733</v>
+        <v>1.123569018616743</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01833899377502831</v>
+        <v>0.01833899377502847</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2336969042806885</v>
+        <v>0.2336969042806905</v>
       </c>
       <c r="H37" t="n">
-        <v>2.077777930786486</v>
+        <v>2.077777930786504</v>
       </c>
       <c r="I37" t="n">
-        <v>7.027903266913796</v>
+        <v>7.027903266913858</v>
       </c>
       <c r="J37" t="n">
-        <v>16.52237113264467</v>
+        <v>16.52237113264482</v>
       </c>
       <c r="K37" t="n">
-        <v>27.15133124279271</v>
+        <v>27.15133124279295</v>
       </c>
       <c r="L37" t="n">
-        <v>34.74435611460345</v>
+        <v>34.74435611460375</v>
       </c>
       <c r="M37" t="n">
-        <v>36.63305200465373</v>
+        <v>36.63305200465405</v>
       </c>
       <c r="N37" t="n">
-        <v>35.76199990688028</v>
+        <v>35.7619999068806</v>
       </c>
       <c r="O37" t="n">
-        <v>33.0319951614195</v>
+        <v>33.03199516141979</v>
       </c>
       <c r="P37" t="n">
-        <v>28.26457831409343</v>
+        <v>28.26457831409368</v>
       </c>
       <c r="Q37" t="n">
-        <v>19.56892895754019</v>
+        <v>19.56892895754037</v>
       </c>
       <c r="R37" t="n">
-        <v>10.50786262338441</v>
+        <v>10.5078626233845</v>
       </c>
       <c r="S37" t="n">
-        <v>4.072699686418906</v>
+        <v>4.072699686418941</v>
       </c>
       <c r="T37" t="n">
-        <v>0.9985231364720322</v>
+        <v>0.9985231364720409</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01274710386985575</v>
+        <v>0.01274710386985586</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5209871598399994</v>
+        <v>0.5209871598400041</v>
       </c>
       <c r="H38" t="n">
-        <v>5.335559750711396</v>
+        <v>5.335559750711443</v>
       </c>
       <c r="I38" t="n">
-        <v>20.0853574797316</v>
+        <v>20.08535747973178</v>
       </c>
       <c r="J38" t="n">
-        <v>44.21813395747019</v>
+        <v>44.21813395747058</v>
       </c>
       <c r="K38" t="n">
-        <v>66.27152043349739</v>
+        <v>66.27152043349797</v>
       </c>
       <c r="L38" t="n">
-        <v>82.21568122645078</v>
+        <v>82.21568122645151</v>
       </c>
       <c r="M38" t="n">
-        <v>91.48078663025538</v>
+        <v>91.48078663025618</v>
       </c>
       <c r="N38" t="n">
-        <v>92.96104139815078</v>
+        <v>92.96104139815159</v>
       </c>
       <c r="O38" t="n">
-        <v>87.78047532749179</v>
+        <v>87.78047532749255</v>
       </c>
       <c r="P38" t="n">
-        <v>74.91860481894179</v>
+        <v>74.91860481894244</v>
       </c>
       <c r="Q38" t="n">
-        <v>56.26075215717179</v>
+        <v>56.26075215717228</v>
       </c>
       <c r="R38" t="n">
-        <v>32.7264596792994</v>
+        <v>32.72645967929969</v>
       </c>
       <c r="S38" t="n">
-        <v>11.871994904854</v>
+        <v>11.8719949048541</v>
       </c>
       <c r="T38" t="n">
-        <v>2.280621292199599</v>
+        <v>2.280621292199619</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04167897278719995</v>
+        <v>0.04167897278720031</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2787527053804301</v>
+        <v>0.2787527053804326</v>
       </c>
       <c r="H39" t="n">
-        <v>2.692164286174155</v>
+        <v>2.692164286174178</v>
       </c>
       <c r="I39" t="n">
-        <v>9.597406742264811</v>
+        <v>9.597406742264894</v>
       </c>
       <c r="J39" t="n">
-        <v>26.33601766052564</v>
+        <v>26.33601766052587</v>
       </c>
       <c r="K39" t="n">
-        <v>45.01244892101446</v>
+        <v>45.01244892101485</v>
       </c>
       <c r="L39" t="n">
-        <v>60.5247924555184</v>
+        <v>60.52479245551893</v>
       </c>
       <c r="M39" t="n">
-        <v>70.62957802555897</v>
+        <v>70.6295780255596</v>
       </c>
       <c r="N39" t="n">
-        <v>72.49893279102687</v>
+        <v>72.49893279102751</v>
       </c>
       <c r="O39" t="n">
-        <v>66.32235968759734</v>
+        <v>66.32235968759792</v>
       </c>
       <c r="P39" t="n">
-        <v>53.22954073181214</v>
+        <v>53.22954073181261</v>
       </c>
       <c r="Q39" t="n">
-        <v>35.58253832189491</v>
+        <v>35.58253832189522</v>
       </c>
       <c r="R39" t="n">
-        <v>17.30711972528671</v>
+        <v>17.30711972528686</v>
       </c>
       <c r="S39" t="n">
-        <v>5.177709242482986</v>
+        <v>5.177709242483031</v>
       </c>
       <c r="T39" t="n">
-        <v>1.123569018616733</v>
+        <v>1.123569018616743</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01833899377502831</v>
+        <v>0.01833899377502847</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2336969042806885</v>
+        <v>0.2336969042806905</v>
       </c>
       <c r="H40" t="n">
-        <v>2.077777930786486</v>
+        <v>2.077777930786504</v>
       </c>
       <c r="I40" t="n">
-        <v>7.027903266913796</v>
+        <v>7.027903266913858</v>
       </c>
       <c r="J40" t="n">
-        <v>16.52237113264467</v>
+        <v>16.52237113264482</v>
       </c>
       <c r="K40" t="n">
-        <v>27.15133124279271</v>
+        <v>27.15133124279295</v>
       </c>
       <c r="L40" t="n">
-        <v>34.74435611460345</v>
+        <v>34.74435611460375</v>
       </c>
       <c r="M40" t="n">
-        <v>36.63305200465373</v>
+        <v>36.63305200465405</v>
       </c>
       <c r="N40" t="n">
-        <v>35.76199990688028</v>
+        <v>35.7619999068806</v>
       </c>
       <c r="O40" t="n">
-        <v>33.0319951614195</v>
+        <v>33.03199516141979</v>
       </c>
       <c r="P40" t="n">
-        <v>28.26457831409343</v>
+        <v>28.26457831409368</v>
       </c>
       <c r="Q40" t="n">
-        <v>19.56892895754019</v>
+        <v>19.56892895754037</v>
       </c>
       <c r="R40" t="n">
-        <v>10.50786262338441</v>
+        <v>10.5078626233845</v>
       </c>
       <c r="S40" t="n">
-        <v>4.072699686418906</v>
+        <v>4.072699686418941</v>
       </c>
       <c r="T40" t="n">
-        <v>0.9985231364720322</v>
+        <v>0.9985231364720409</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01274710386985575</v>
+        <v>0.01274710386985586</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5209871598399994</v>
+        <v>0.5209871598400041</v>
       </c>
       <c r="H41" t="n">
-        <v>5.335559750711396</v>
+        <v>5.335559750711443</v>
       </c>
       <c r="I41" t="n">
-        <v>20.0853574797316</v>
+        <v>20.08535747973178</v>
       </c>
       <c r="J41" t="n">
-        <v>44.21813395747019</v>
+        <v>44.21813395747058</v>
       </c>
       <c r="K41" t="n">
-        <v>66.27152043349739</v>
+        <v>66.27152043349797</v>
       </c>
       <c r="L41" t="n">
-        <v>82.21568122645078</v>
+        <v>82.21568122645151</v>
       </c>
       <c r="M41" t="n">
-        <v>91.48078663025538</v>
+        <v>91.48078663025618</v>
       </c>
       <c r="N41" t="n">
-        <v>92.96104139815078</v>
+        <v>92.96104139815159</v>
       </c>
       <c r="O41" t="n">
-        <v>87.78047532749179</v>
+        <v>87.78047532749255</v>
       </c>
       <c r="P41" t="n">
-        <v>74.91860481894179</v>
+        <v>74.91860481894244</v>
       </c>
       <c r="Q41" t="n">
-        <v>56.26075215717179</v>
+        <v>56.26075215717228</v>
       </c>
       <c r="R41" t="n">
-        <v>32.7264596792994</v>
+        <v>32.72645967929969</v>
       </c>
       <c r="S41" t="n">
-        <v>11.871994904854</v>
+        <v>11.8719949048541</v>
       </c>
       <c r="T41" t="n">
-        <v>2.280621292199599</v>
+        <v>2.280621292199619</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04167897278719995</v>
+        <v>0.04167897278720031</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2787527053804301</v>
+        <v>0.2787527053804326</v>
       </c>
       <c r="H42" t="n">
-        <v>2.692164286174155</v>
+        <v>2.692164286174178</v>
       </c>
       <c r="I42" t="n">
-        <v>9.597406742264811</v>
+        <v>9.597406742264894</v>
       </c>
       <c r="J42" t="n">
-        <v>26.33601766052564</v>
+        <v>26.33601766052587</v>
       </c>
       <c r="K42" t="n">
-        <v>45.01244892101446</v>
+        <v>45.01244892101485</v>
       </c>
       <c r="L42" t="n">
-        <v>60.5247924555184</v>
+        <v>60.52479245551893</v>
       </c>
       <c r="M42" t="n">
-        <v>70.62957802555897</v>
+        <v>70.6295780255596</v>
       </c>
       <c r="N42" t="n">
-        <v>72.49893279102687</v>
+        <v>72.49893279102751</v>
       </c>
       <c r="O42" t="n">
-        <v>66.32235968759734</v>
+        <v>66.32235968759792</v>
       </c>
       <c r="P42" t="n">
-        <v>53.22954073181214</v>
+        <v>53.22954073181261</v>
       </c>
       <c r="Q42" t="n">
-        <v>35.58253832189491</v>
+        <v>35.58253832189522</v>
       </c>
       <c r="R42" t="n">
-        <v>17.30711972528671</v>
+        <v>17.30711972528686</v>
       </c>
       <c r="S42" t="n">
-        <v>5.177709242482986</v>
+        <v>5.177709242483031</v>
       </c>
       <c r="T42" t="n">
-        <v>1.123569018616733</v>
+        <v>1.123569018616743</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01833899377502831</v>
+        <v>0.01833899377502847</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2336969042806885</v>
+        <v>0.2336969042806905</v>
       </c>
       <c r="H43" t="n">
-        <v>2.077777930786486</v>
+        <v>2.077777930786504</v>
       </c>
       <c r="I43" t="n">
-        <v>7.027903266913796</v>
+        <v>7.027903266913858</v>
       </c>
       <c r="J43" t="n">
-        <v>16.52237113264467</v>
+        <v>16.52237113264482</v>
       </c>
       <c r="K43" t="n">
-        <v>27.15133124279271</v>
+        <v>27.15133124279295</v>
       </c>
       <c r="L43" t="n">
-        <v>34.74435611460345</v>
+        <v>34.74435611460375</v>
       </c>
       <c r="M43" t="n">
-        <v>36.63305200465373</v>
+        <v>36.63305200465405</v>
       </c>
       <c r="N43" t="n">
-        <v>35.76199990688028</v>
+        <v>35.7619999068806</v>
       </c>
       <c r="O43" t="n">
-        <v>33.0319951614195</v>
+        <v>33.03199516141979</v>
       </c>
       <c r="P43" t="n">
-        <v>28.26457831409343</v>
+        <v>28.26457831409368</v>
       </c>
       <c r="Q43" t="n">
-        <v>19.56892895754019</v>
+        <v>19.56892895754037</v>
       </c>
       <c r="R43" t="n">
-        <v>10.50786262338441</v>
+        <v>10.5078626233845</v>
       </c>
       <c r="S43" t="n">
-        <v>4.072699686418906</v>
+        <v>4.072699686418941</v>
       </c>
       <c r="T43" t="n">
-        <v>0.9985231364720322</v>
+        <v>0.9985231364720409</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01274710386985575</v>
+        <v>0.01274710386985586</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5209871598399994</v>
+        <v>0.5209871598400041</v>
       </c>
       <c r="H44" t="n">
-        <v>5.335559750711396</v>
+        <v>5.335559750711443</v>
       </c>
       <c r="I44" t="n">
-        <v>20.0853574797316</v>
+        <v>20.08535747973178</v>
       </c>
       <c r="J44" t="n">
-        <v>44.21813395747019</v>
+        <v>44.21813395747058</v>
       </c>
       <c r="K44" t="n">
-        <v>66.27152043349739</v>
+        <v>66.27152043349797</v>
       </c>
       <c r="L44" t="n">
-        <v>82.21568122645078</v>
+        <v>82.21568122645151</v>
       </c>
       <c r="M44" t="n">
-        <v>91.48078663025538</v>
+        <v>91.48078663025618</v>
       </c>
       <c r="N44" t="n">
-        <v>92.96104139815078</v>
+        <v>92.96104139815159</v>
       </c>
       <c r="O44" t="n">
-        <v>87.78047532749179</v>
+        <v>87.78047532749255</v>
       </c>
       <c r="P44" t="n">
-        <v>74.91860481894179</v>
+        <v>74.91860481894244</v>
       </c>
       <c r="Q44" t="n">
-        <v>56.26075215717179</v>
+        <v>56.26075215717228</v>
       </c>
       <c r="R44" t="n">
-        <v>32.7264596792994</v>
+        <v>32.72645967929969</v>
       </c>
       <c r="S44" t="n">
-        <v>11.871994904854</v>
+        <v>11.8719949048541</v>
       </c>
       <c r="T44" t="n">
-        <v>2.280621292199599</v>
+        <v>2.280621292199619</v>
       </c>
       <c r="U44" t="n">
-        <v>0.04167897278719995</v>
+        <v>0.04167897278720031</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2787527053804301</v>
+        <v>0.2787527053804326</v>
       </c>
       <c r="H45" t="n">
-        <v>2.692164286174155</v>
+        <v>2.692164286174178</v>
       </c>
       <c r="I45" t="n">
-        <v>9.597406742264811</v>
+        <v>9.597406742264894</v>
       </c>
       <c r="J45" t="n">
-        <v>26.33601766052564</v>
+        <v>26.33601766052587</v>
       </c>
       <c r="K45" t="n">
-        <v>45.01244892101446</v>
+        <v>45.01244892101485</v>
       </c>
       <c r="L45" t="n">
-        <v>60.5247924555184</v>
+        <v>60.52479245551893</v>
       </c>
       <c r="M45" t="n">
-        <v>70.62957802555897</v>
+        <v>70.6295780255596</v>
       </c>
       <c r="N45" t="n">
-        <v>72.49893279102687</v>
+        <v>72.49893279102751</v>
       </c>
       <c r="O45" t="n">
-        <v>66.32235968759734</v>
+        <v>66.32235968759792</v>
       </c>
       <c r="P45" t="n">
-        <v>53.22954073181214</v>
+        <v>53.22954073181261</v>
       </c>
       <c r="Q45" t="n">
-        <v>35.58253832189491</v>
+        <v>35.58253832189522</v>
       </c>
       <c r="R45" t="n">
-        <v>17.30711972528671</v>
+        <v>17.30711972528686</v>
       </c>
       <c r="S45" t="n">
-        <v>5.177709242482986</v>
+        <v>5.177709242483031</v>
       </c>
       <c r="T45" t="n">
-        <v>1.123569018616733</v>
+        <v>1.123569018616743</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01833899377502831</v>
+        <v>0.01833899377502847</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2336969042806885</v>
+        <v>0.2336969042806905</v>
       </c>
       <c r="H46" t="n">
-        <v>2.077777930786486</v>
+        <v>2.077777930786504</v>
       </c>
       <c r="I46" t="n">
-        <v>7.027903266913796</v>
+        <v>7.027903266913858</v>
       </c>
       <c r="J46" t="n">
-        <v>16.52237113264467</v>
+        <v>16.52237113264482</v>
       </c>
       <c r="K46" t="n">
-        <v>27.15133124279271</v>
+        <v>27.15133124279295</v>
       </c>
       <c r="L46" t="n">
-        <v>34.74435611460345</v>
+        <v>34.74435611460375</v>
       </c>
       <c r="M46" t="n">
-        <v>36.63305200465373</v>
+        <v>36.63305200465405</v>
       </c>
       <c r="N46" t="n">
-        <v>35.76199990688028</v>
+        <v>35.7619999068806</v>
       </c>
       <c r="O46" t="n">
-        <v>33.0319951614195</v>
+        <v>33.03199516141979</v>
       </c>
       <c r="P46" t="n">
-        <v>28.26457831409343</v>
+        <v>28.26457831409368</v>
       </c>
       <c r="Q46" t="n">
-        <v>19.56892895754019</v>
+        <v>19.56892895754037</v>
       </c>
       <c r="R46" t="n">
-        <v>10.50786262338441</v>
+        <v>10.5078626233845</v>
       </c>
       <c r="S46" t="n">
-        <v>4.072699686418906</v>
+        <v>4.072699686418941</v>
       </c>
       <c r="T46" t="n">
-        <v>0.9985231364720322</v>
+        <v>0.9985231364720409</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01274710386985575</v>
+        <v>0.01274710386985586</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35404,19 +35404,19 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>64.57089352680593</v>
+        <v>64.57089352680609</v>
       </c>
       <c r="J11" t="n">
-        <v>112.6928993799038</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>78.5449082248836</v>
+        <v>103.0230793098172</v>
       </c>
       <c r="L11" t="n">
-        <v>106.2300319137024</v>
+        <v>106.2300319137028</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>119.899034983463</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -35425,16 +35425,16 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>102.6163586181516</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>91.2119419845481</v>
       </c>
       <c r="R11" t="n">
-        <v>73.13777305568333</v>
+        <v>52.85788300079363</v>
       </c>
       <c r="S11" t="n">
-        <v>42.0898721392707</v>
+        <v>42.08987213927083</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -35477,7 +35477,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>35.28435194160951</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -35513,7 +35513,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>35.28435194160925</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -35544,13 +35544,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>47.65475300742978</v>
+        <v>47.65475300742986</v>
       </c>
       <c r="D13" t="n">
-        <v>64.03338860985139</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>17.34759519415668</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -35559,7 +35559,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>59.87342201263395</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -35583,16 +35583,16 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>107.6380212597945</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>78.05586190198512</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>8.074597566435875</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -35641,37 +35641,37 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>64.57089352680602</v>
+        <v>64.57089352680609</v>
       </c>
       <c r="J14" t="n">
-        <v>112.6928993799039</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>103.023079309817</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>89.85565613620321</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>116.4002413977377</v>
+        <v>116.400241397738</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>102.6163586181519</v>
       </c>
       <c r="Q14" t="n">
-        <v>91.21194198454793</v>
+        <v>91.2119419845481</v>
       </c>
       <c r="R14" t="n">
-        <v>73.13777305568341</v>
+        <v>73.13777305568351</v>
       </c>
       <c r="S14" t="n">
-        <v>18.84590820390548</v>
+        <v>42.08987213927083</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -35714,7 +35714,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>35.28435194160925</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -35753,7 +35753,7 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>29.89987907330846</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -35765,7 +35765,7 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>5.384472868300791</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -35778,19 +35778,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>33.85474785283034</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>64.03338860985147</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>65.08563875407202</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>52.19242106310448</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -35805,7 +35805,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>137.1103343778731</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -35826,7 +35826,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>78.05586190198524</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -35890,28 +35890,28 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
         <v>146.4499769106677</v>
       </c>
-      <c r="N17" t="n">
+      <c r="R17" t="n">
+        <v>110.7973186856195</v>
+      </c>
+      <c r="S17" t="n">
         <v>146.4499769106677</v>
       </c>
-      <c r="O17" t="n">
-        <v>146.4499769106677</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>68.67010816880467</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>104.322766393853</v>
       </c>
       <c r="U17" t="n">
         <v>71.86269795759364</v>
@@ -36115,13 +36115,13 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>146.4499769106677</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>146.4499769106677</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -36139,7 +36139,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>68.6701081688047</v>
       </c>
       <c r="R20" t="n">
         <v>146.4499769106677</v>
@@ -36148,7 +36148,7 @@
         <v>146.4499769106677</v>
       </c>
       <c r="T20" t="n">
-        <v>68.67010816880467</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>71.86269795759364</v>
@@ -36352,16 +36352,16 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>146.4499769106677</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>68.6701081688047</v>
+        <v>146.4499769106677</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>146.4499769106677</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -36370,25 +36370,25 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>146.4499769106677</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>36.21003973254536</v>
       </c>
       <c r="Q23" t="n">
-        <v>146.4499769106677</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>146.4499769106677</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>104.322766393853</v>
       </c>
       <c r="U23" t="n">
-        <v>71.86269795759364</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -36589,37 +36589,37 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>22.48102138753523</v>
+        <v>22.48102138753543</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>95.49513885864805</v>
       </c>
       <c r="K26" t="n">
-        <v>475.2991106956426</v>
+        <v>308.8375528019654</v>
       </c>
       <c r="L26" t="n">
-        <v>433.6150479789218</v>
+        <v>64.14015977443249</v>
       </c>
       <c r="M26" t="n">
-        <v>605.7782291286874</v>
+        <v>605.7782291286871</v>
       </c>
       <c r="N26" t="n">
-        <v>80.04761793701627</v>
+        <v>80.04761793701707</v>
       </c>
       <c r="O26" t="n">
-        <v>395.8659141889402</v>
+        <v>474.8663877357023</v>
       </c>
       <c r="P26" t="n">
-        <v>305.3801163907127</v>
+        <v>305.3801163907134</v>
       </c>
       <c r="Q26" t="n">
-        <v>49.12206984527715</v>
+        <v>325.1315577031537</v>
       </c>
       <c r="R26" t="n">
-        <v>31.04790091641263</v>
+        <v>116.4792467512901</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>1.261213355974178e-13</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -36647,7 +36647,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>15.65944235764732</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>96.76513670495453</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -36680,7 +36680,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>120.1579861676657</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -36689,16 +36689,16 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>42.26738845840238</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>131.6053842203788</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>27.39090783619152</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -36756,25 +36756,25 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>98.63524734719293</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>97.24054325832022</v>
+        <v>155.8184117295043</v>
       </c>
       <c r="N28" t="n">
-        <v>105.5021857399739</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>94.02074838039282</v>
+        <v>132.4902239449447</v>
       </c>
       <c r="P28" t="n">
-        <v>120.5425268492545</v>
+        <v>91.86910733241469</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>99.79751880555605</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>35.96598976271453</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36826,37 +36826,37 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>22.48102138753531</v>
+        <v>22.48102138753543</v>
       </c>
       <c r="J29" t="n">
-        <v>116.9439362532335</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>308.8375528019648</v>
+        <v>344.1963416229315</v>
       </c>
       <c r="L29" t="n">
-        <v>550.8858894401383</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>77.80916284419195</v>
+        <v>77.80916284419268</v>
       </c>
       <c r="N29" t="n">
-        <v>605.7782291286875</v>
+        <v>605.7782291286876</v>
       </c>
       <c r="O29" t="n">
-        <v>205.9885285951742</v>
+        <v>427.896661929547</v>
       </c>
       <c r="P29" t="n">
-        <v>478.8648071018084</v>
+        <v>478.864807101809</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>325.1315577031537</v>
       </c>
       <c r="R29" t="n">
-        <v>31.0479009164127</v>
+        <v>116.4792467512901</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>1.261213355974178e-13</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -36908,10 +36908,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>216.92312287262</v>
       </c>
       <c r="K30" t="n">
-        <v>106.5009704654434</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36923,7 +36923,7 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>110.4221524071763</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36966,34 +36966,34 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>5.56488086815915</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>21.94351647058076</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>22.99576661480131</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>22.528842286615</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>17.78354987336323</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>37.75158002466119</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>130.5503956437713</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>136.3676686401181</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -37002,13 +37002,13 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>305.9749146560403</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>209.9663369190938</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4550511530636</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>22.48102138753519</v>
+        <v>22.48102138753531</v>
       </c>
       <c r="J32" t="n">
-        <v>116.9439362532335</v>
+        <v>290.4286269643293</v>
       </c>
       <c r="K32" t="n">
-        <v>308.8375528019648</v>
+        <v>308.8375528019654</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>64.14015977443238</v>
       </c>
       <c r="M32" t="n">
-        <v>34.49918766861927</v>
+        <v>311.9201184989623</v>
       </c>
       <c r="N32" t="n">
-        <v>511.4804597363839</v>
+        <v>583.1042717109774</v>
       </c>
       <c r="O32" t="n">
-        <v>569.3506049000357</v>
+        <v>395.865914188941</v>
       </c>
       <c r="P32" t="n">
-        <v>478.8648071018083</v>
+        <v>305.3801163907134</v>
       </c>
       <c r="Q32" t="n">
-        <v>325.1315577031532</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>31.04790091641259</v>
+        <v>116.47924675129</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37133,7 +37133,7 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>40.13783064147108</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -37145,13 +37145,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>96.76513670495449</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>176.7852922311497</v>
       </c>
       <c r="L33" t="n">
-        <v>120.157986167666</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -37203,7 +37203,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>5.564880868159037</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -37215,28 +37215,28 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>6.487836469547742</v>
+        <v>6.487836469547687</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>17.78354987336308</v>
       </c>
       <c r="I34" t="n">
-        <v>37.75158002466108</v>
+        <v>37.75158002466109</v>
       </c>
       <c r="J34" t="n">
-        <v>130.5503956437712</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>61.09495522728101</v>
+        <v>125.0530675697889</v>
       </c>
       <c r="L34" t="n">
-        <v>136.3676686401181</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>328.8652176377744</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -37245,10 +37245,10 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>102.1579449388822</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>35.96598976271438</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37300,37 +37300,37 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>66.19971911022145</v>
       </c>
       <c r="J35" t="n">
-        <v>334.147324687015</v>
+        <v>334.1473246870154</v>
       </c>
       <c r="K35" t="n">
-        <v>104.6519048932323</v>
+        <v>58.92360148035696</v>
       </c>
       <c r="L35" t="n">
-        <v>107.8588574971178</v>
+        <v>107.8588574971185</v>
       </c>
       <c r="M35" t="n">
-        <v>116.234739033157</v>
+        <v>121.5278605668787</v>
       </c>
       <c r="N35" t="n">
-        <v>123.7663156597023</v>
+        <v>123.7663156597031</v>
       </c>
       <c r="O35" t="n">
-        <v>459.3282522180199</v>
+        <v>433.5637149869492</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>368.8502554258393</v>
+        <v>368.8502554258398</v>
       </c>
       <c r="R35" t="n">
-        <v>160.1979444739758</v>
+        <v>160.1979444739761</v>
       </c>
       <c r="S35" t="n">
-        <v>43.71869772268604</v>
+        <v>43.71869772268614</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -37373,10 +37373,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
         <v>31.22905778758208</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -37455,10 +37455,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>34.33642385431317</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.47027774734721</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -37476,19 +37476,19 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>91.52030866951515</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>113.6745035673971</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>79.68468748540054</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>9.703423149851245</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -37537,37 +37537,37 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>66.19971911022135</v>
+        <v>36.46464629311668</v>
       </c>
       <c r="J38" t="n">
-        <v>334.1473246870152</v>
+        <v>114.3217249633197</v>
       </c>
       <c r="K38" t="n">
-        <v>290.8932942024372</v>
+        <v>308.8375528019654</v>
       </c>
       <c r="L38" t="n">
-        <v>107.8588574971179</v>
+        <v>283.4401600846483</v>
       </c>
       <c r="M38" t="n">
-        <v>121.527860566878</v>
+        <v>121.5278605668788</v>
       </c>
       <c r="N38" t="n">
-        <v>123.7663156597024</v>
+        <v>123.7663156597032</v>
       </c>
       <c r="O38" t="n">
-        <v>395.8659141889402</v>
+        <v>118.0290669811538</v>
       </c>
       <c r="P38" t="n">
-        <v>104.245184201567</v>
+        <v>459.3282522180199</v>
       </c>
       <c r="Q38" t="n">
-        <v>70.33317930020439</v>
+        <v>92.84076756796375</v>
       </c>
       <c r="R38" t="n">
-        <v>160.1979444739759</v>
+        <v>160.1979444739762</v>
       </c>
       <c r="S38" t="n">
-        <v>43.71869772268612</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>31.22905778758191</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -37643,7 +37643,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>31.22905778758191</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>91.52030866951436</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -37719,10 +37719,10 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.5101247515112</v>
+        <v>113.6745035673973</v>
       </c>
       <c r="R40" t="n">
-        <v>79.68468748540054</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37774,37 +37774,37 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>66.19971911022132</v>
+        <v>66.19971911022154</v>
       </c>
       <c r="J41" t="n">
-        <v>114.3217249633192</v>
+        <v>334.1473246870156</v>
       </c>
       <c r="K41" t="n">
-        <v>104.6519048932323</v>
+        <v>328.5217491257015</v>
       </c>
       <c r="L41" t="n">
-        <v>107.8588574971178</v>
+        <v>433.6150479789225</v>
       </c>
       <c r="M41" t="n">
-        <v>459.3282522180199</v>
+        <v>98.90381993671087</v>
       </c>
       <c r="N41" t="n">
-        <v>123.7663156597023</v>
+        <v>123.7663156597032</v>
       </c>
       <c r="O41" t="n">
-        <v>441.6249233029405</v>
+        <v>118.0290669811538</v>
       </c>
       <c r="P41" t="n">
-        <v>104.245184201567</v>
+        <v>104.2451842015676</v>
       </c>
       <c r="Q41" t="n">
-        <v>92.84076756796324</v>
+        <v>92.84076756796375</v>
       </c>
       <c r="R41" t="n">
-        <v>160.1979444739759</v>
+        <v>74.76659863909904</v>
       </c>
       <c r="S41" t="n">
-        <v>43.71869772268609</v>
+        <v>43.71869772268623</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -37868,7 +37868,7 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>31.22905778758197</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -37880,7 +37880,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>31.22905778758191</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37923,16 +37923,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>66.24754000930102</v>
+        <v>62.22228689351508</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>61.50224759604929</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.4702777473473</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -37944,7 +37944,7 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>59.26258474221034</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -37959,7 +37959,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>79.68468748540052</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38011,37 +38011,37 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>66.19971911022127</v>
+        <v>66.19971911022145</v>
       </c>
       <c r="J44" t="n">
-        <v>334.147324687015</v>
+        <v>334.1473246870154</v>
       </c>
       <c r="K44" t="n">
-        <v>104.6519048932323</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>141.0179217464047</v>
       </c>
       <c r="M44" t="n">
-        <v>361.4829797330859</v>
+        <v>121.5278605668787</v>
       </c>
       <c r="N44" t="n">
-        <v>123.7663156597023</v>
+        <v>123.7663156597031</v>
       </c>
       <c r="O44" t="n">
-        <v>118.0290669811529</v>
+        <v>459.3282522180199</v>
       </c>
       <c r="P44" t="n">
-        <v>413.7195707817105</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>92.84076756796318</v>
+        <v>368.8502554258398</v>
       </c>
       <c r="R44" t="n">
-        <v>160.1979444739758</v>
+        <v>160.1979444739761</v>
       </c>
       <c r="S44" t="n">
-        <v>43.71869772268604</v>
+        <v>43.71869772268614</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -38105,10 +38105,10 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>31.22905778758208</v>
       </c>
       <c r="O45" t="n">
-        <v>31.22905778758208</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38148,7 +38148,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>35.48357343624559</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -38169,7 +38169,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>80.3231281654148</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -38193,13 +38193,13 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.5101247515117</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>79.68468748540046</v>
+        <v>79.68468748540054</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>9.703423149851245</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
